--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.36439308372562</v>
+        <v>17.36439308372564</v>
       </c>
       <c r="C2">
-        <v>13.86935754862385</v>
+        <v>13.86935754862384</v>
       </c>
       <c r="D2">
-        <v>3.854561273745586</v>
+        <v>3.854561273745592</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.35568661315884</v>
+        <v>29.35568661315881</v>
       </c>
       <c r="G2">
-        <v>21.50984448484183</v>
+        <v>21.50984448484179</v>
       </c>
       <c r="H2">
-        <v>17.99869147943288</v>
+        <v>17.99869147943282</v>
       </c>
       <c r="I2">
-        <v>11.12312769600418</v>
+        <v>11.12312769600419</v>
       </c>
       <c r="J2">
-        <v>16.07239787263884</v>
+        <v>16.07239787263886</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.55971227752721</v>
+        <v>18.55971227752726</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20385194426852</v>
+        <v>16.20385194426855</v>
       </c>
       <c r="C3">
-        <v>12.92478998687823</v>
+        <v>12.92478998687828</v>
       </c>
       <c r="D3">
-        <v>3.709221454911986</v>
+        <v>3.709221454911792</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.0885459142839</v>
+        <v>28.08854591428386</v>
       </c>
       <c r="G3">
-        <v>20.78200957022424</v>
+        <v>20.78200957022418</v>
       </c>
       <c r="H3">
-        <v>17.68544669777988</v>
+        <v>17.68544669777983</v>
       </c>
       <c r="I3">
-        <v>10.61720236023588</v>
+        <v>10.61720236023591</v>
       </c>
       <c r="J3">
-        <v>15.03905203212659</v>
+        <v>15.03905203212666</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.27523047586314</v>
+        <v>17.27523047586313</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45268160649374</v>
+        <v>15.4526816064938</v>
       </c>
       <c r="C4">
-        <v>12.31463960006979</v>
+        <v>12.31463960006989</v>
       </c>
       <c r="D4">
-        <v>3.616996616202334</v>
+        <v>3.616996616202182</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.31640751391373</v>
+        <v>27.31640751391356</v>
       </c>
       <c r="G4">
-        <v>20.34777841631927</v>
+        <v>20.34777841631908</v>
       </c>
       <c r="H4">
-        <v>17.51080176862039</v>
+        <v>17.5108017686202</v>
       </c>
       <c r="I4">
-        <v>10.30880058112565</v>
+        <v>10.3088005811257</v>
       </c>
       <c r="J4">
-        <v>14.37175058661492</v>
+        <v>14.371750586615</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.44695010734532</v>
+        <v>16.44695010734533</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.13678105184974</v>
+        <v>15.13678105184976</v>
       </c>
       <c r="C5">
-        <v>12.05831733304565</v>
+        <v>12.05831733304562</v>
       </c>
       <c r="D5">
-        <v>3.578682750634417</v>
+        <v>3.578682750634374</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.00355109788197</v>
+        <v>27.00355109788201</v>
       </c>
       <c r="G5">
-        <v>20.174105490254</v>
+        <v>20.17410549025398</v>
       </c>
       <c r="H5">
-        <v>17.44393739516116</v>
+        <v>17.44393739516115</v>
       </c>
       <c r="I5">
-        <v>10.18377816656643</v>
+        <v>10.18377816656645</v>
       </c>
       <c r="J5">
-        <v>14.09151504743221</v>
+        <v>14.09151504743224</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.0993144164779</v>
+        <v>16.09931441647787</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08373217723059</v>
+        <v>15.08373217723048</v>
       </c>
       <c r="C6">
-        <v>12.0152887897241</v>
+        <v>12.01528878972411</v>
       </c>
       <c r="D6">
-        <v>3.572277229648055</v>
+        <v>3.57227722964807</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.9517200864496</v>
+        <v>26.95172008644971</v>
       </c>
       <c r="G6">
-        <v>20.14546821428632</v>
+        <v>20.14546821428644</v>
       </c>
       <c r="H6">
-        <v>17.43309026029766</v>
+        <v>17.43309026029783</v>
       </c>
       <c r="I6">
-        <v>10.16306085387406</v>
+        <v>10.16306085387401</v>
       </c>
       <c r="J6">
-        <v>14.04447937600876</v>
+        <v>14.04447937600868</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.04097544138338</v>
+        <v>16.04097544138334</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44846102026777</v>
+        <v>15.4484610202678</v>
       </c>
       <c r="C7">
-        <v>12.31121396354035</v>
+        <v>12.31121396354041</v>
       </c>
       <c r="D7">
-        <v>3.616482835189325</v>
+        <v>3.616482835189341</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.3121805005801</v>
+        <v>27.31218050058</v>
       </c>
       <c r="G7">
-        <v>20.34542279229261</v>
+        <v>20.34542279229249</v>
       </c>
       <c r="H7">
-        <v>17.50988277767516</v>
+        <v>17.50988277767505</v>
       </c>
       <c r="I7">
-        <v>10.30711170168968</v>
+        <v>10.30711170168966</v>
       </c>
       <c r="J7">
-        <v>14.36800491418276</v>
+        <v>14.3680049141828</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.4423028689028</v>
+        <v>16.44230286890289</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.97219254808805</v>
+        <v>16.97219254808813</v>
       </c>
       <c r="C8">
-        <v>13.54987712277292</v>
+        <v>13.54987712277282</v>
       </c>
       <c r="D8">
-        <v>3.805077953653337</v>
+        <v>3.805077953653517</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.91772751466784</v>
+        <v>28.91772751466771</v>
       </c>
       <c r="G8">
-        <v>21.25631376186267</v>
+        <v>21.25631376186259</v>
       </c>
       <c r="H8">
-        <v>17.8869298445248</v>
+        <v>17.88692984452468</v>
       </c>
       <c r="I8">
         <v>10.94826733086886</v>
       </c>
       <c r="J8">
-        <v>15.72287686834627</v>
+        <v>15.7228768683463</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.12495062243543</v>
+        <v>18.12495062243546</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,10 +681,10 @@
         <v>19.65848937543755</v>
       </c>
       <c r="C9">
-        <v>15.74400796899765</v>
+        <v>15.74400796899772</v>
       </c>
       <c r="D9">
-        <v>4.150610549170194</v>
+        <v>4.150610549170098</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>32.10197167287235</v>
       </c>
       <c r="G9">
-        <v>23.13954278787858</v>
+        <v>23.13954278787856</v>
       </c>
       <c r="H9">
-        <v>18.77273174782979</v>
+        <v>18.77273174782977</v>
       </c>
       <c r="I9">
         <v>12.22071012452414</v>
       </c>
       <c r="J9">
-        <v>18.1224761667997</v>
+        <v>18.12247616679973</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.11767676205829</v>
+        <v>21.11767676205827</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.45514839493399</v>
+        <v>21.45514839493396</v>
       </c>
       <c r="C10">
-        <v>17.21995712289446</v>
+        <v>17.21995712289452</v>
       </c>
       <c r="D10">
-        <v>4.389171525703781</v>
+        <v>4.389171525703809</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.45340457151055</v>
+        <v>34.45340457151057</v>
       </c>
       <c r="G10">
-        <v>24.5793562079393</v>
+        <v>24.57935620793933</v>
       </c>
       <c r="H10">
-        <v>19.52092214413757</v>
+        <v>19.52092214413762</v>
       </c>
       <c r="I10">
         <v>13.1636171261667</v>
       </c>
       <c r="J10">
-        <v>19.73406186388702</v>
+        <v>19.73406186388701</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.14057908147818</v>
+        <v>23.1405790814782</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.23581939900037</v>
+        <v>22.23581939900035</v>
       </c>
       <c r="C11">
-        <v>17.86364078345684</v>
+        <v>17.86364078345693</v>
       </c>
       <c r="D11">
-        <v>4.494366195370106</v>
+        <v>4.494366195370112</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.52516286022873</v>
+        <v>35.52516286022882</v>
       </c>
       <c r="G11">
-        <v>25.24661408078146</v>
+        <v>25.24661408078152</v>
       </c>
       <c r="H11">
-        <v>19.88423208069384</v>
+        <v>19.88423208069385</v>
       </c>
       <c r="I11">
-        <v>13.70965294319646</v>
+        <v>13.70965294319645</v>
       </c>
       <c r="J11">
-        <v>20.43583214805193</v>
+        <v>20.43583214805197</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.02550020236816</v>
+        <v>24.0255002023682</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.52633222068597</v>
+        <v>22.52633222068598</v>
       </c>
       <c r="C12">
         <v>18.10356510289041</v>
       </c>
       <c r="D12">
-        <v>4.533727040592836</v>
+        <v>4.533727040592789</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.93136714441017</v>
+        <v>35.93136714441021</v>
       </c>
       <c r="G12">
-        <v>25.50111049124234</v>
+        <v>25.50111049124235</v>
       </c>
       <c r="H12">
         <v>20.02526773969904</v>
       </c>
       <c r="I12">
-        <v>13.91889958559662</v>
+        <v>13.91889958559663</v>
       </c>
       <c r="J12">
-        <v>20.69721030123468</v>
+        <v>20.69721030123467</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.46398967245781</v>
+        <v>22.46398967245771</v>
       </c>
       <c r="C13">
-        <v>18.05206041832025</v>
+        <v>18.05206041832033</v>
       </c>
       <c r="D13">
-        <v>4.52527094249463</v>
+        <v>4.525270942494577</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.84386630176256</v>
+        <v>35.84386630176264</v>
       </c>
       <c r="G13">
-        <v>25.44621776464569</v>
+        <v>25.44621776464576</v>
       </c>
       <c r="H13">
-        <v>19.99473669811344</v>
+        <v>19.99473669811355</v>
       </c>
       <c r="I13">
-        <v>13.87392032285828</v>
+        <v>13.87392032285829</v>
       </c>
       <c r="J13">
-        <v>20.64110962210641</v>
+        <v>20.64110962210639</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.28486219213329</v>
+        <v>24.28486219213327</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.25982151712883</v>
+        <v>22.2598215171289</v>
       </c>
       <c r="C14">
-        <v>17.88345515479513</v>
+        <v>17.88345515479517</v>
       </c>
       <c r="D14">
-        <v>4.497613895054721</v>
+        <v>4.497613895054715</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.5585738419786</v>
+        <v>35.55857384197851</v>
       </c>
       <c r="G14">
-        <v>25.26751467889963</v>
+        <v>25.26751467889956</v>
       </c>
       <c r="H14">
-        <v>19.895764902458</v>
+        <v>19.89576490245793</v>
       </c>
       <c r="I14">
-        <v>13.72690680654422</v>
+        <v>13.72690680654421</v>
       </c>
       <c r="J14">
-        <v>20.45742253488616</v>
+        <v>20.45742253488623</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.05276785653854</v>
+        <v>24.05276785653859</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.1341020869582</v>
+        <v>22.13410208695815</v>
       </c>
       <c r="C15">
-        <v>17.7796866252075</v>
+        <v>17.77968662520725</v>
       </c>
       <c r="D15">
-        <v>4.48061162645289</v>
+        <v>4.480611626452772</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.38387299456585</v>
+        <v>35.38387299456578</v>
       </c>
       <c r="G15">
-        <v>25.15829341775001</v>
+        <v>25.15829341774998</v>
       </c>
       <c r="H15">
-        <v>19.8355971179903</v>
+        <v>19.83559711799027</v>
       </c>
       <c r="I15">
-        <v>13.63660130593659</v>
+        <v>13.63660130593658</v>
       </c>
       <c r="J15">
-        <v>20.34434467008795</v>
+        <v>20.34434467008785</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.90998457192264</v>
+        <v>23.90998457192258</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.40340560560811</v>
+        <v>21.40340560560812</v>
       </c>
       <c r="C16">
-        <v>17.1773463763177</v>
+        <v>17.17734637631778</v>
       </c>
       <c r="D16">
-        <v>4.382230115040723</v>
+        <v>4.382230115040682</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.38340709415292</v>
+        <v>34.38340709415289</v>
       </c>
       <c r="G16">
-        <v>24.53599997217166</v>
+        <v>24.53599997217164</v>
       </c>
       <c r="H16">
-        <v>19.49765396608109</v>
+        <v>19.4976539660811</v>
       </c>
       <c r="I16">
-        <v>13.13549049679944</v>
+        <v>13.13549049679941</v>
       </c>
       <c r="J16">
-        <v>19.68758034030695</v>
+        <v>19.68758034030697</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.08205864158203</v>
+        <v>23.08205864158202</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.94587054457275</v>
+        <v>20.94587054457271</v>
       </c>
       <c r="C17">
-        <v>16.8008377312246</v>
+        <v>16.80083773122462</v>
       </c>
       <c r="D17">
-        <v>4.3210255861389</v>
+        <v>4.321025586139029</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.77019714512484</v>
+        <v>33.77019714512483</v>
       </c>
       <c r="G17">
-        <v>24.15741166854155</v>
+        <v>24.15741166854157</v>
       </c>
       <c r="H17">
-        <v>19.2963230573819</v>
+        <v>19.29632305738194</v>
       </c>
       <c r="I17">
-        <v>12.889253665268</v>
+        <v>12.88925366526802</v>
       </c>
       <c r="J17">
-        <v>19.27674215755128</v>
+        <v>19.27674215755129</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.56528698170341</v>
+        <v>22.5652869817034</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.67924952371657</v>
+        <v>20.67924952371661</v>
       </c>
       <c r="C18">
-        <v>16.58165878798687</v>
+        <v>16.58165878798668</v>
       </c>
       <c r="D18">
-        <v>4.285508567268897</v>
+        <v>4.285508567268892</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.41768229634329</v>
+        <v>33.41768229634332</v>
       </c>
       <c r="G18">
-        <v>23.94080741999061</v>
+        <v>23.94080741999063</v>
       </c>
       <c r="H18">
-        <v>19.18267328016884</v>
+        <v>19.18267328016885</v>
       </c>
       <c r="I18">
-        <v>12.7478280496463</v>
+        <v>12.74782804964628</v>
       </c>
       <c r="J18">
-        <v>19.03747876975752</v>
+        <v>19.03747876975751</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.26471297080174</v>
+        <v>22.26471297080176</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.58837759156355</v>
+        <v>20.58837759156348</v>
       </c>
       <c r="C19">
-        <v>16.50699369277665</v>
+        <v>16.50699369277655</v>
       </c>
       <c r="D19">
-        <v>4.273429160925032</v>
+        <v>4.273429160925126</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.29835877468766</v>
+        <v>33.29835877468765</v>
       </c>
       <c r="G19">
-        <v>23.86766554504856</v>
+        <v>23.86766554504857</v>
       </c>
       <c r="H19">
-        <v>19.14455821813666</v>
+        <v>19.14455821813669</v>
       </c>
       <c r="I19">
-        <v>12.69997666067622</v>
+        <v>12.69997666067623</v>
       </c>
       <c r="J19">
-        <v>18.95595589809936</v>
+        <v>18.95595589809929</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.16236251929561</v>
+        <v>22.16236251929554</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.99493282751977</v>
+        <v>20.99493282751962</v>
       </c>
       <c r="C20">
-        <v>16.84118786970427</v>
+        <v>16.84118786970421</v>
       </c>
       <c r="D20">
-        <v>4.327573371595651</v>
+        <v>4.327573371595733</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.83545489515398</v>
+        <v>33.83545489515396</v>
       </c>
       <c r="G20">
-        <v>24.19759380917229</v>
+        <v>24.19759380917234</v>
       </c>
       <c r="H20">
-        <v>19.31753142646653</v>
+        <v>19.31753142646663</v>
       </c>
       <c r="I20">
-        <v>12.91544444591483</v>
+        <v>12.9154444459148</v>
       </c>
       <c r="J20">
-        <v>19.32078198391181</v>
+        <v>19.32078198391167</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.62064214611106</v>
+        <v>22.62064214611103</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.3199280031939</v>
+        <v>22.31992800319398</v>
       </c>
       <c r="C21">
-        <v>17.93308101809255</v>
+        <v>17.93308101809268</v>
       </c>
       <c r="D21">
-        <v>4.5057502481812</v>
+        <v>4.505750248181051</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.64236071639679</v>
+        <v>35.64236071639691</v>
       </c>
       <c r="G21">
-        <v>25.31995401780766</v>
+        <v>25.3199540178077</v>
       </c>
       <c r="H21">
         <v>19.92474012839341</v>
       </c>
       <c r="I21">
-        <v>13.7701410205834</v>
+        <v>13.77014102058344</v>
       </c>
       <c r="J21">
-        <v>20.51149319019466</v>
+        <v>20.51149319019476</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.12106803576588</v>
+        <v>24.12106803576595</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.15618776735086</v>
+        <v>23.15618776735095</v>
       </c>
       <c r="C22">
-        <v>18.62449228119246</v>
+        <v>18.62449228119245</v>
       </c>
       <c r="D22">
-        <v>4.619441221249201</v>
+        <v>4.619441221249252</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.82542275324462</v>
+        <v>36.82542275324464</v>
       </c>
       <c r="G22">
         <v>26.06415449953618</v>
@@ -1193,16 +1193,16 @@
         <v>20.34182917027981</v>
       </c>
       <c r="I22">
-        <v>14.37570129477837</v>
+        <v>14.37570129477839</v>
       </c>
       <c r="J22">
-        <v>21.26431649378343</v>
+        <v>21.26431649378349</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.0737603503959</v>
+        <v>25.07376035039598</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.71252112785298</v>
+        <v>22.71252112785292</v>
       </c>
       <c r="C23">
-        <v>18.25744594155892</v>
+        <v>18.2574459415589</v>
       </c>
       <c r="D23">
-        <v>4.55901185281389</v>
+        <v>4.559011852813935</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.19376312105991</v>
+        <v>36.19376312105982</v>
       </c>
       <c r="G23">
-        <v>25.66595257632003</v>
+        <v>25.66595257632002</v>
       </c>
       <c r="H23">
-        <v>20.1173118827004</v>
+        <v>20.11731188270046</v>
       </c>
       <c r="I23">
-        <v>14.05348169182865</v>
+        <v>14.05348169182864</v>
       </c>
       <c r="J23">
         <v>20.86479090416558</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.56775074602589</v>
+        <v>24.56775074602587</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.97276292587556</v>
+        <v>20.97276292587559</v>
       </c>
       <c r="C24">
-        <v>16.82295405361439</v>
+        <v>16.8229540536143</v>
       </c>
       <c r="D24">
-        <v>4.324614145069064</v>
+        <v>4.324614145069209</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.80595178293308</v>
+        <v>33.80595178293307</v>
       </c>
       <c r="G24">
-        <v>24.17942419254438</v>
+        <v>24.17942419254439</v>
       </c>
       <c r="H24">
-        <v>19.30793659950605</v>
+        <v>19.30793659950603</v>
       </c>
       <c r="I24">
-        <v>12.90360316652841</v>
+        <v>12.90360316652842</v>
       </c>
       <c r="J24">
-        <v>19.30088114197699</v>
+        <v>19.30088114197696</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.96339924424218</v>
+        <v>18.96339924424219</v>
       </c>
       <c r="C25">
-        <v>15.17489155949589</v>
+        <v>15.17489155949571</v>
       </c>
       <c r="D25">
-        <v>4.059803450694057</v>
+        <v>4.059803450694047</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.23799397868166</v>
+        <v>31.23799397868176</v>
       </c>
       <c r="G25">
-        <v>22.62009799130425</v>
+        <v>22.62009799130434</v>
       </c>
       <c r="H25">
-        <v>18.51658010135639</v>
+        <v>18.51658010135647</v>
       </c>
       <c r="I25">
-        <v>11.87510450651294</v>
+        <v>11.87510450651291</v>
       </c>
       <c r="J25">
-        <v>17.50035991644769</v>
+        <v>17.50035991644763</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.36439308372564</v>
+        <v>17.36439308372562</v>
       </c>
       <c r="C2">
-        <v>13.86935754862384</v>
+        <v>13.86935754862385</v>
       </c>
       <c r="D2">
-        <v>3.854561273745592</v>
+        <v>3.854561273745586</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.35568661315881</v>
+        <v>29.35568661315884</v>
       </c>
       <c r="G2">
-        <v>21.50984448484179</v>
+        <v>21.50984448484183</v>
       </c>
       <c r="H2">
-        <v>17.99869147943282</v>
+        <v>17.99869147943288</v>
       </c>
       <c r="I2">
-        <v>11.12312769600419</v>
+        <v>11.12312769600418</v>
       </c>
       <c r="J2">
-        <v>16.07239787263886</v>
+        <v>16.07239787263884</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.55971227752726</v>
+        <v>18.55971227752721</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20385194426855</v>
+        <v>16.20385194426852</v>
       </c>
       <c r="C3">
-        <v>12.92478998687828</v>
+        <v>12.92478998687823</v>
       </c>
       <c r="D3">
-        <v>3.709221454911792</v>
+        <v>3.709221454911986</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.08854591428386</v>
+        <v>28.0885459142839</v>
       </c>
       <c r="G3">
-        <v>20.78200957022418</v>
+        <v>20.78200957022424</v>
       </c>
       <c r="H3">
-        <v>17.68544669777983</v>
+        <v>17.68544669777988</v>
       </c>
       <c r="I3">
-        <v>10.61720236023591</v>
+        <v>10.61720236023588</v>
       </c>
       <c r="J3">
-        <v>15.03905203212666</v>
+        <v>15.03905203212659</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.27523047586313</v>
+        <v>17.27523047586314</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.4526816064938</v>
+        <v>15.45268160649374</v>
       </c>
       <c r="C4">
-        <v>12.31463960006989</v>
+        <v>12.31463960006979</v>
       </c>
       <c r="D4">
-        <v>3.616996616202182</v>
+        <v>3.616996616202334</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.31640751391356</v>
+        <v>27.31640751391373</v>
       </c>
       <c r="G4">
-        <v>20.34777841631908</v>
+        <v>20.34777841631927</v>
       </c>
       <c r="H4">
-        <v>17.5108017686202</v>
+        <v>17.51080176862039</v>
       </c>
       <c r="I4">
-        <v>10.3088005811257</v>
+        <v>10.30880058112565</v>
       </c>
       <c r="J4">
-        <v>14.371750586615</v>
+        <v>14.37175058661492</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.44695010734533</v>
+        <v>16.44695010734532</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.13678105184976</v>
+        <v>15.13678105184974</v>
       </c>
       <c r="C5">
-        <v>12.05831733304562</v>
+        <v>12.05831733304565</v>
       </c>
       <c r="D5">
-        <v>3.578682750634374</v>
+        <v>3.578682750634417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.00355109788201</v>
+        <v>27.00355109788197</v>
       </c>
       <c r="G5">
-        <v>20.17410549025398</v>
+        <v>20.174105490254</v>
       </c>
       <c r="H5">
-        <v>17.44393739516115</v>
+        <v>17.44393739516116</v>
       </c>
       <c r="I5">
-        <v>10.18377816656645</v>
+        <v>10.18377816656643</v>
       </c>
       <c r="J5">
-        <v>14.09151504743224</v>
+        <v>14.09151504743221</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.09931441647787</v>
+        <v>16.0993144164779</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08373217723048</v>
+        <v>15.08373217723059</v>
       </c>
       <c r="C6">
-        <v>12.01528878972411</v>
+        <v>12.0152887897241</v>
       </c>
       <c r="D6">
-        <v>3.57227722964807</v>
+        <v>3.572277229648055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.95172008644971</v>
+        <v>26.9517200864496</v>
       </c>
       <c r="G6">
-        <v>20.14546821428644</v>
+        <v>20.14546821428632</v>
       </c>
       <c r="H6">
-        <v>17.43309026029783</v>
+        <v>17.43309026029766</v>
       </c>
       <c r="I6">
-        <v>10.16306085387401</v>
+        <v>10.16306085387406</v>
       </c>
       <c r="J6">
-        <v>14.04447937600868</v>
+        <v>14.04447937600876</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.04097544138334</v>
+        <v>16.04097544138338</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.4484610202678</v>
+        <v>15.44846102026777</v>
       </c>
       <c r="C7">
-        <v>12.31121396354041</v>
+        <v>12.31121396354035</v>
       </c>
       <c r="D7">
-        <v>3.616482835189341</v>
+        <v>3.616482835189325</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.31218050058</v>
+        <v>27.3121805005801</v>
       </c>
       <c r="G7">
-        <v>20.34542279229249</v>
+        <v>20.34542279229261</v>
       </c>
       <c r="H7">
-        <v>17.50988277767505</v>
+        <v>17.50988277767516</v>
       </c>
       <c r="I7">
-        <v>10.30711170168966</v>
+        <v>10.30711170168968</v>
       </c>
       <c r="J7">
-        <v>14.3680049141828</v>
+        <v>14.36800491418276</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.44230286890289</v>
+        <v>16.4423028689028</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.97219254808813</v>
+        <v>16.97219254808805</v>
       </c>
       <c r="C8">
-        <v>13.54987712277282</v>
+        <v>13.54987712277292</v>
       </c>
       <c r="D8">
-        <v>3.805077953653517</v>
+        <v>3.805077953653337</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.91772751466771</v>
+        <v>28.91772751466784</v>
       </c>
       <c r="G8">
-        <v>21.25631376186259</v>
+        <v>21.25631376186267</v>
       </c>
       <c r="H8">
-        <v>17.88692984452468</v>
+        <v>17.8869298445248</v>
       </c>
       <c r="I8">
         <v>10.94826733086886</v>
       </c>
       <c r="J8">
-        <v>15.7228768683463</v>
+        <v>15.72287686834627</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.12495062243546</v>
+        <v>18.12495062243543</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,10 +681,10 @@
         <v>19.65848937543755</v>
       </c>
       <c r="C9">
-        <v>15.74400796899772</v>
+        <v>15.74400796899765</v>
       </c>
       <c r="D9">
-        <v>4.150610549170098</v>
+        <v>4.150610549170194</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>32.10197167287235</v>
       </c>
       <c r="G9">
-        <v>23.13954278787856</v>
+        <v>23.13954278787858</v>
       </c>
       <c r="H9">
-        <v>18.77273174782977</v>
+        <v>18.77273174782979</v>
       </c>
       <c r="I9">
         <v>12.22071012452414</v>
       </c>
       <c r="J9">
-        <v>18.12247616679973</v>
+        <v>18.1224761667997</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.11767676205827</v>
+        <v>21.11767676205829</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.45514839493396</v>
+        <v>21.45514839493399</v>
       </c>
       <c r="C10">
-        <v>17.21995712289452</v>
+        <v>17.21995712289446</v>
       </c>
       <c r="D10">
-        <v>4.389171525703809</v>
+        <v>4.389171525703781</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.45340457151057</v>
+        <v>34.45340457151055</v>
       </c>
       <c r="G10">
-        <v>24.57935620793933</v>
+        <v>24.5793562079393</v>
       </c>
       <c r="H10">
-        <v>19.52092214413762</v>
+        <v>19.52092214413757</v>
       </c>
       <c r="I10">
         <v>13.1636171261667</v>
       </c>
       <c r="J10">
-        <v>19.73406186388701</v>
+        <v>19.73406186388702</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.1405790814782</v>
+        <v>23.14057908147818</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.23581939900035</v>
+        <v>22.23581939900037</v>
       </c>
       <c r="C11">
-        <v>17.86364078345693</v>
+        <v>17.86364078345684</v>
       </c>
       <c r="D11">
-        <v>4.494366195370112</v>
+        <v>4.494366195370106</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.52516286022882</v>
+        <v>35.52516286022873</v>
       </c>
       <c r="G11">
-        <v>25.24661408078152</v>
+        <v>25.24661408078146</v>
       </c>
       <c r="H11">
-        <v>19.88423208069385</v>
+        <v>19.88423208069384</v>
       </c>
       <c r="I11">
-        <v>13.70965294319645</v>
+        <v>13.70965294319646</v>
       </c>
       <c r="J11">
-        <v>20.43583214805197</v>
+        <v>20.43583214805193</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.0255002023682</v>
+        <v>24.02550020236816</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.52633222068598</v>
+        <v>22.52633222068597</v>
       </c>
       <c r="C12">
         <v>18.10356510289041</v>
       </c>
       <c r="D12">
-        <v>4.533727040592789</v>
+        <v>4.533727040592836</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.93136714441021</v>
+        <v>35.93136714441017</v>
       </c>
       <c r="G12">
-        <v>25.50111049124235</v>
+        <v>25.50111049124234</v>
       </c>
       <c r="H12">
         <v>20.02526773969904</v>
       </c>
       <c r="I12">
-        <v>13.91889958559663</v>
+        <v>13.91889958559662</v>
       </c>
       <c r="J12">
-        <v>20.69721030123467</v>
+        <v>20.69721030123468</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.46398967245771</v>
+        <v>22.46398967245781</v>
       </c>
       <c r="C13">
-        <v>18.05206041832033</v>
+        <v>18.05206041832025</v>
       </c>
       <c r="D13">
-        <v>4.525270942494577</v>
+        <v>4.52527094249463</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.84386630176264</v>
+        <v>35.84386630176256</v>
       </c>
       <c r="G13">
-        <v>25.44621776464576</v>
+        <v>25.44621776464569</v>
       </c>
       <c r="H13">
-        <v>19.99473669811355</v>
+        <v>19.99473669811344</v>
       </c>
       <c r="I13">
-        <v>13.87392032285829</v>
+        <v>13.87392032285828</v>
       </c>
       <c r="J13">
-        <v>20.64110962210639</v>
+        <v>20.64110962210641</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.28486219213327</v>
+        <v>24.28486219213329</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.2598215171289</v>
+        <v>22.25982151712883</v>
       </c>
       <c r="C14">
-        <v>17.88345515479517</v>
+        <v>17.88345515479513</v>
       </c>
       <c r="D14">
-        <v>4.497613895054715</v>
+        <v>4.497613895054721</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.55857384197851</v>
+        <v>35.5585738419786</v>
       </c>
       <c r="G14">
-        <v>25.26751467889956</v>
+        <v>25.26751467889963</v>
       </c>
       <c r="H14">
-        <v>19.89576490245793</v>
+        <v>19.895764902458</v>
       </c>
       <c r="I14">
-        <v>13.72690680654421</v>
+        <v>13.72690680654422</v>
       </c>
       <c r="J14">
-        <v>20.45742253488623</v>
+        <v>20.45742253488616</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.05276785653859</v>
+        <v>24.05276785653854</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.13410208695815</v>
+        <v>22.1341020869582</v>
       </c>
       <c r="C15">
-        <v>17.77968662520725</v>
+        <v>17.7796866252075</v>
       </c>
       <c r="D15">
-        <v>4.480611626452772</v>
+        <v>4.48061162645289</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.38387299456578</v>
+        <v>35.38387299456585</v>
       </c>
       <c r="G15">
-        <v>25.15829341774998</v>
+        <v>25.15829341775001</v>
       </c>
       <c r="H15">
-        <v>19.83559711799027</v>
+        <v>19.8355971179903</v>
       </c>
       <c r="I15">
-        <v>13.63660130593658</v>
+        <v>13.63660130593659</v>
       </c>
       <c r="J15">
-        <v>20.34434467008785</v>
+        <v>20.34434467008795</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.90998457192258</v>
+        <v>23.90998457192264</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.40340560560812</v>
+        <v>21.40340560560811</v>
       </c>
       <c r="C16">
-        <v>17.17734637631778</v>
+        <v>17.1773463763177</v>
       </c>
       <c r="D16">
-        <v>4.382230115040682</v>
+        <v>4.382230115040723</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.38340709415289</v>
+        <v>34.38340709415292</v>
       </c>
       <c r="G16">
-        <v>24.53599997217164</v>
+        <v>24.53599997217166</v>
       </c>
       <c r="H16">
-        <v>19.4976539660811</v>
+        <v>19.49765396608109</v>
       </c>
       <c r="I16">
-        <v>13.13549049679941</v>
+        <v>13.13549049679944</v>
       </c>
       <c r="J16">
-        <v>19.68758034030697</v>
+        <v>19.68758034030695</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.08205864158202</v>
+        <v>23.08205864158203</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.94587054457271</v>
+        <v>20.94587054457275</v>
       </c>
       <c r="C17">
-        <v>16.80083773122462</v>
+        <v>16.8008377312246</v>
       </c>
       <c r="D17">
-        <v>4.321025586139029</v>
+        <v>4.3210255861389</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.77019714512483</v>
+        <v>33.77019714512484</v>
       </c>
       <c r="G17">
-        <v>24.15741166854157</v>
+        <v>24.15741166854155</v>
       </c>
       <c r="H17">
-        <v>19.29632305738194</v>
+        <v>19.2963230573819</v>
       </c>
       <c r="I17">
-        <v>12.88925366526802</v>
+        <v>12.889253665268</v>
       </c>
       <c r="J17">
-        <v>19.27674215755129</v>
+        <v>19.27674215755128</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.5652869817034</v>
+        <v>22.56528698170341</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.67924952371661</v>
+        <v>20.67924952371657</v>
       </c>
       <c r="C18">
-        <v>16.58165878798668</v>
+        <v>16.58165878798687</v>
       </c>
       <c r="D18">
-        <v>4.285508567268892</v>
+        <v>4.285508567268897</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.41768229634332</v>
+        <v>33.41768229634329</v>
       </c>
       <c r="G18">
-        <v>23.94080741999063</v>
+        <v>23.94080741999061</v>
       </c>
       <c r="H18">
-        <v>19.18267328016885</v>
+        <v>19.18267328016884</v>
       </c>
       <c r="I18">
-        <v>12.74782804964628</v>
+        <v>12.7478280496463</v>
       </c>
       <c r="J18">
-        <v>19.03747876975751</v>
+        <v>19.03747876975752</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.26471297080176</v>
+        <v>22.26471297080174</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.58837759156348</v>
+        <v>20.58837759156355</v>
       </c>
       <c r="C19">
-        <v>16.50699369277655</v>
+        <v>16.50699369277665</v>
       </c>
       <c r="D19">
-        <v>4.273429160925126</v>
+        <v>4.273429160925032</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.29835877468765</v>
+        <v>33.29835877468766</v>
       </c>
       <c r="G19">
-        <v>23.86766554504857</v>
+        <v>23.86766554504856</v>
       </c>
       <c r="H19">
-        <v>19.14455821813669</v>
+        <v>19.14455821813666</v>
       </c>
       <c r="I19">
-        <v>12.69997666067623</v>
+        <v>12.69997666067622</v>
       </c>
       <c r="J19">
-        <v>18.95595589809929</v>
+        <v>18.95595589809936</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.16236251929554</v>
+        <v>22.16236251929561</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.99493282751962</v>
+        <v>20.99493282751977</v>
       </c>
       <c r="C20">
-        <v>16.84118786970421</v>
+        <v>16.84118786970427</v>
       </c>
       <c r="D20">
-        <v>4.327573371595733</v>
+        <v>4.327573371595651</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.83545489515396</v>
+        <v>33.83545489515398</v>
       </c>
       <c r="G20">
-        <v>24.19759380917234</v>
+        <v>24.19759380917229</v>
       </c>
       <c r="H20">
-        <v>19.31753142646663</v>
+        <v>19.31753142646653</v>
       </c>
       <c r="I20">
-        <v>12.9154444459148</v>
+        <v>12.91544444591483</v>
       </c>
       <c r="J20">
-        <v>19.32078198391167</v>
+        <v>19.32078198391181</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.62064214611103</v>
+        <v>22.62064214611106</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.31992800319398</v>
+        <v>22.3199280031939</v>
       </c>
       <c r="C21">
-        <v>17.93308101809268</v>
+        <v>17.93308101809255</v>
       </c>
       <c r="D21">
-        <v>4.505750248181051</v>
+        <v>4.5057502481812</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.64236071639691</v>
+        <v>35.64236071639679</v>
       </c>
       <c r="G21">
-        <v>25.3199540178077</v>
+        <v>25.31995401780766</v>
       </c>
       <c r="H21">
         <v>19.92474012839341</v>
       </c>
       <c r="I21">
-        <v>13.77014102058344</v>
+        <v>13.7701410205834</v>
       </c>
       <c r="J21">
-        <v>20.51149319019476</v>
+        <v>20.51149319019466</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.12106803576595</v>
+        <v>24.12106803576588</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.15618776735095</v>
+        <v>23.15618776735086</v>
       </c>
       <c r="C22">
-        <v>18.62449228119245</v>
+        <v>18.62449228119246</v>
       </c>
       <c r="D22">
-        <v>4.619441221249252</v>
+        <v>4.619441221249201</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.82542275324464</v>
+        <v>36.82542275324462</v>
       </c>
       <c r="G22">
         <v>26.06415449953618</v>
@@ -1193,16 +1193,16 @@
         <v>20.34182917027981</v>
       </c>
       <c r="I22">
-        <v>14.37570129477839</v>
+        <v>14.37570129477837</v>
       </c>
       <c r="J22">
-        <v>21.26431649378349</v>
+        <v>21.26431649378343</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.07376035039598</v>
+        <v>25.0737603503959</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.71252112785292</v>
+        <v>22.71252112785298</v>
       </c>
       <c r="C23">
-        <v>18.2574459415589</v>
+        <v>18.25744594155892</v>
       </c>
       <c r="D23">
-        <v>4.559011852813935</v>
+        <v>4.55901185281389</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.19376312105982</v>
+        <v>36.19376312105991</v>
       </c>
       <c r="G23">
-        <v>25.66595257632002</v>
+        <v>25.66595257632003</v>
       </c>
       <c r="H23">
-        <v>20.11731188270046</v>
+        <v>20.1173118827004</v>
       </c>
       <c r="I23">
-        <v>14.05348169182864</v>
+        <v>14.05348169182865</v>
       </c>
       <c r="J23">
         <v>20.86479090416558</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.56775074602587</v>
+        <v>24.56775074602589</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.97276292587559</v>
+        <v>20.97276292587556</v>
       </c>
       <c r="C24">
-        <v>16.8229540536143</v>
+        <v>16.82295405361439</v>
       </c>
       <c r="D24">
-        <v>4.324614145069209</v>
+        <v>4.324614145069064</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.80595178293307</v>
+        <v>33.80595178293308</v>
       </c>
       <c r="G24">
-        <v>24.17942419254439</v>
+        <v>24.17942419254438</v>
       </c>
       <c r="H24">
-        <v>19.30793659950603</v>
+        <v>19.30793659950605</v>
       </c>
       <c r="I24">
-        <v>12.90360316652842</v>
+        <v>12.90360316652841</v>
       </c>
       <c r="J24">
-        <v>19.30088114197696</v>
+        <v>19.30088114197699</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.96339924424219</v>
+        <v>18.96339924424218</v>
       </c>
       <c r="C25">
-        <v>15.17489155949571</v>
+        <v>15.17489155949589</v>
       </c>
       <c r="D25">
-        <v>4.059803450694047</v>
+        <v>4.059803450694057</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.23799397868176</v>
+        <v>31.23799397868166</v>
       </c>
       <c r="G25">
-        <v>22.62009799130434</v>
+        <v>22.62009799130425</v>
       </c>
       <c r="H25">
-        <v>18.51658010135647</v>
+        <v>18.51658010135639</v>
       </c>
       <c r="I25">
-        <v>11.87510450651291</v>
+        <v>11.87510450651294</v>
       </c>
       <c r="J25">
-        <v>17.50035991644763</v>
+        <v>17.50035991644769</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.36439308372562</v>
+        <v>17.36430597761331</v>
       </c>
       <c r="C2">
-        <v>13.86935754862385</v>
+        <v>13.86617568380606</v>
       </c>
       <c r="D2">
-        <v>3.854561273745586</v>
+        <v>3.857347009737276</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.35568661315884</v>
+        <v>29.33730245937425</v>
       </c>
       <c r="G2">
-        <v>21.50984448484183</v>
+        <v>20.00434687725958</v>
       </c>
       <c r="H2">
-        <v>17.99869147943288</v>
+        <v>21.54438419630055</v>
       </c>
       <c r="I2">
-        <v>11.12312769600418</v>
+        <v>17.98636518226936</v>
       </c>
       <c r="J2">
-        <v>16.07239787263884</v>
+        <v>11.12261857707425</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.07133487310897</v>
       </c>
       <c r="L2">
-        <v>18.55971227752721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.55996825159342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20385194426852</v>
+        <v>16.20389561870613</v>
       </c>
       <c r="C3">
-        <v>12.92478998687823</v>
+        <v>12.92195683826271</v>
       </c>
       <c r="D3">
-        <v>3.709221454911986</v>
+        <v>3.711615757097032</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.0885459142839</v>
+        <v>28.07131652220034</v>
       </c>
       <c r="G3">
-        <v>20.78200957022424</v>
+        <v>19.03166551351413</v>
       </c>
       <c r="H3">
-        <v>17.68544669777988</v>
+        <v>20.81555619627453</v>
       </c>
       <c r="I3">
-        <v>10.61720236023588</v>
+        <v>17.6740451595904</v>
       </c>
       <c r="J3">
-        <v>15.03905203212659</v>
+        <v>10.6167674966782</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.03820776867768</v>
       </c>
       <c r="L3">
-        <v>17.27523047586314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.27554002080202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45268160649374</v>
+        <v>15.45280598612849</v>
       </c>
       <c r="C4">
-        <v>12.31463960006979</v>
+        <v>12.3120287508765</v>
       </c>
       <c r="D4">
-        <v>3.616996616202334</v>
+        <v>3.619135564738121</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.31640751391373</v>
+        <v>27.29991317097754</v>
       </c>
       <c r="G4">
-        <v>20.34777841631927</v>
+        <v>18.43529040583003</v>
       </c>
       <c r="H4">
-        <v>17.51080176862039</v>
+        <v>20.38076079110378</v>
       </c>
       <c r="I4">
-        <v>10.30880058112565</v>
+        <v>17.49997874546102</v>
       </c>
       <c r="J4">
-        <v>14.37175058661492</v>
+        <v>10.30841666121296</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.37104569957095</v>
       </c>
       <c r="L4">
-        <v>16.44695010734532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.44728940799957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.13678105184974</v>
+        <v>15.13693858043328</v>
       </c>
       <c r="C5">
-        <v>12.05831733304565</v>
+        <v>12.05579933986402</v>
       </c>
       <c r="D5">
-        <v>3.578682750634417</v>
+        <v>3.580713900694167</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.00355109788197</v>
+        <v>26.987362703256</v>
       </c>
       <c r="G5">
-        <v>20.174105490254</v>
+        <v>18.19273104968478</v>
       </c>
       <c r="H5">
-        <v>17.44393739516116</v>
+        <v>20.20686951831527</v>
       </c>
       <c r="I5">
-        <v>10.18377816656643</v>
+        <v>17.43335240095865</v>
       </c>
       <c r="J5">
-        <v>14.09151504743221</v>
+        <v>10.1834163966016</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.09086843486529</v>
       </c>
       <c r="L5">
-        <v>16.0993144164779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.0996651664228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08373217723059</v>
+        <v>15.08389523068961</v>
       </c>
       <c r="C6">
-        <v>12.0152887897241</v>
+        <v>12.01278635843142</v>
       </c>
       <c r="D6">
-        <v>3.572277229648055</v>
+        <v>3.574290255350865</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.9517200864496</v>
+        <v>26.93558287544289</v>
       </c>
       <c r="G6">
-        <v>20.14546821428632</v>
+        <v>18.15249083412999</v>
       </c>
       <c r="H6">
-        <v>17.43309026029766</v>
+        <v>20.17819668938068</v>
       </c>
       <c r="I6">
-        <v>10.16306085387406</v>
+        <v>17.42254491599711</v>
       </c>
       <c r="J6">
-        <v>14.04447937600876</v>
+        <v>10.16270284681491</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.04384253524849</v>
       </c>
       <c r="L6">
-        <v>16.04097544138338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.04132805477462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44846102026777</v>
+        <v>15.44858584569034</v>
       </c>
       <c r="C7">
-        <v>12.31121396354035</v>
+        <v>12.30860435717338</v>
       </c>
       <c r="D7">
-        <v>3.616482835189325</v>
+        <v>3.618620345000714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.3121805005801</v>
+        <v>27.29569025807204</v>
       </c>
       <c r="G7">
-        <v>20.34542279229261</v>
+        <v>18.43201690057899</v>
       </c>
       <c r="H7">
-        <v>17.50988277767516</v>
+        <v>20.37840217529011</v>
       </c>
       <c r="I7">
-        <v>10.30711170168968</v>
+        <v>17.49906295598343</v>
       </c>
       <c r="J7">
-        <v>14.36800491418276</v>
+        <v>10.30672807482433</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.36730080679099</v>
       </c>
       <c r="L7">
-        <v>16.4423028689028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.44264232656168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.97219254808805</v>
+        <v>16.97215054543085</v>
       </c>
       <c r="C8">
-        <v>13.54987712277292</v>
+        <v>13.54681391962232</v>
       </c>
       <c r="D8">
-        <v>3.805077953653337</v>
+        <v>3.80773185469528</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.91772751466784</v>
+        <v>28.89973607562986</v>
       </c>
       <c r="G8">
-        <v>21.25631376186267</v>
+        <v>19.66892577798763</v>
       </c>
       <c r="H8">
-        <v>17.8869298445248</v>
+        <v>21.29050171422778</v>
       </c>
       <c r="I8">
-        <v>10.94826733086886</v>
+        <v>17.87491993830617</v>
       </c>
       <c r="J8">
-        <v>15.72287686834627</v>
+        <v>10.94778273667425</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.72188835504193</v>
       </c>
       <c r="L8">
-        <v>18.12495062243543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.12522578900838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.65848937543755</v>
+        <v>19.65811640443864</v>
       </c>
       <c r="C9">
-        <v>15.74400796899765</v>
+        <v>15.7401110906018</v>
       </c>
       <c r="D9">
-        <v>4.150610549170194</v>
+        <v>4.154157267228789</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.10197167287235</v>
+        <v>32.08124305718328</v>
       </c>
       <c r="G9">
-        <v>23.13954278787858</v>
+        <v>22.09286345892995</v>
       </c>
       <c r="H9">
-        <v>18.77273174782979</v>
+        <v>23.17645361433213</v>
       </c>
       <c r="I9">
-        <v>12.22071012452414</v>
+        <v>18.75849004161212</v>
       </c>
       <c r="J9">
-        <v>18.1224761667997</v>
+        <v>12.22006713122669</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.12096150550973</v>
       </c>
       <c r="L9">
-        <v>21.11767676205829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.11779539628385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.45514839493399</v>
+        <v>21.45451990721665</v>
       </c>
       <c r="C10">
-        <v>17.21995712289446</v>
+        <v>17.21546893243602</v>
       </c>
       <c r="D10">
-        <v>4.389171525703781</v>
+        <v>4.393301148958361</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.45340457151055</v>
+        <v>34.43078333852765</v>
       </c>
       <c r="G10">
-        <v>24.5793562079393</v>
+        <v>23.8657037020685</v>
       </c>
       <c r="H10">
-        <v>19.52092214413757</v>
+        <v>24.61847077428815</v>
       </c>
       <c r="I10">
-        <v>13.1636171261667</v>
+        <v>19.50512245746822</v>
       </c>
       <c r="J10">
-        <v>19.73406186388702</v>
+        <v>13.16287675401261</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.73216797115628</v>
       </c>
       <c r="L10">
-        <v>23.14057908147818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.14055533094714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.23581939900037</v>
+        <v>22.23506958470825</v>
       </c>
       <c r="C11">
-        <v>17.86364078345684</v>
+        <v>17.8588851612677</v>
       </c>
       <c r="D11">
-        <v>4.494366195370106</v>
+        <v>4.498745351675371</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.52516286022873</v>
+        <v>35.50170254595847</v>
       </c>
       <c r="G11">
-        <v>25.24661408078146</v>
+        <v>24.67024414308686</v>
       </c>
       <c r="H11">
-        <v>19.88423208069384</v>
+        <v>25.28677290696549</v>
       </c>
       <c r="I11">
-        <v>13.70965294319646</v>
+        <v>19.86774421294625</v>
       </c>
       <c r="J11">
-        <v>20.43583214805193</v>
+        <v>13.70913457561945</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.43376459161829</v>
       </c>
       <c r="L11">
-        <v>24.02550020236816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.02540336718014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.52633222068597</v>
+        <v>22.52553550474519</v>
       </c>
       <c r="C12">
-        <v>18.10356510289041</v>
+        <v>18.09870815339265</v>
       </c>
       <c r="D12">
-        <v>4.533727040592836</v>
+        <v>4.538198468073428</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.93136714441017</v>
+        <v>35.90759178369363</v>
       </c>
       <c r="G12">
-        <v>25.50111049124234</v>
+        <v>24.97468936326766</v>
       </c>
       <c r="H12">
-        <v>20.02526773969904</v>
+        <v>25.5416705868724</v>
       </c>
       <c r="I12">
-        <v>13.91889958559662</v>
+        <v>20.0085223518579</v>
       </c>
       <c r="J12">
-        <v>20.69721030123468</v>
+        <v>13.91837302300765</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.69507656744522</v>
       </c>
       <c r="L12">
-        <v>24.35578534391855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.35565939871313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.46398967245781</v>
+        <v>22.46320310413593</v>
       </c>
       <c r="C13">
-        <v>18.05206041832025</v>
+        <v>18.04722529883009</v>
       </c>
       <c r="D13">
-        <v>4.52527094249463</v>
+        <v>4.529722596045657</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.84386630176256</v>
+        <v>35.82015868046667</v>
       </c>
       <c r="G13">
-        <v>25.44621776464569</v>
+        <v>24.9091295798909</v>
       </c>
       <c r="H13">
-        <v>19.99473669811344</v>
+        <v>25.4866911827697</v>
       </c>
       <c r="I13">
-        <v>13.87392032285828</v>
+        <v>19.97804663399731</v>
       </c>
       <c r="J13">
-        <v>20.64110962210641</v>
+        <v>13.87339554630796</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.63899016349958</v>
       </c>
       <c r="L13">
-        <v>24.28486219213329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.28474258435145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.25982151712883</v>
+        <v>22.25906786480378</v>
       </c>
       <c r="C14">
-        <v>17.88345515479513</v>
+        <v>17.8786911992128</v>
       </c>
       <c r="D14">
-        <v>4.497613895054721</v>
+        <v>4.502000686915283</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.5585738419786</v>
+        <v>35.53508755761938</v>
       </c>
       <c r="G14">
-        <v>25.26751467889963</v>
+        <v>24.69529478717214</v>
       </c>
       <c r="H14">
-        <v>19.895764902458</v>
+        <v>25.30770640176812</v>
       </c>
       <c r="I14">
-        <v>13.72690680654422</v>
+        <v>19.87925578631709</v>
       </c>
       <c r="J14">
-        <v>20.45742253488616</v>
+        <v>13.72638777402051</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.45534954383676</v>
       </c>
       <c r="L14">
-        <v>24.05276785653854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.0526686567204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.1341020869582</v>
+        <v>22.13336846469515</v>
       </c>
       <c r="C15">
-        <v>17.7796866252075</v>
+        <v>17.7749662432822</v>
       </c>
       <c r="D15">
-        <v>4.48061162645289</v>
+        <v>4.484958400231982</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.38387299456585</v>
+        <v>35.36052262115702</v>
       </c>
       <c r="G15">
-        <v>25.15829341775001</v>
+        <v>24.56428954336597</v>
       </c>
       <c r="H15">
-        <v>19.8355971179903</v>
+        <v>25.19831334895598</v>
       </c>
       <c r="I15">
-        <v>13.63660130593659</v>
+        <v>19.81919924066319</v>
       </c>
       <c r="J15">
-        <v>20.34434467008795</v>
+        <v>13.63608573287017</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.34230007990002</v>
       </c>
       <c r="L15">
-        <v>23.90998457192264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.90989767795364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.40340560560811</v>
+        <v>21.40278492574616</v>
       </c>
       <c r="C16">
-        <v>17.1773463763177</v>
+        <v>17.17287567124203</v>
       </c>
       <c r="D16">
-        <v>4.382230115040723</v>
+        <v>4.386343118259764</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.38340709415292</v>
+        <v>34.36084110142231</v>
       </c>
       <c r="G16">
-        <v>24.53599997217166</v>
+        <v>23.8130898893994</v>
       </c>
       <c r="H16">
-        <v>19.49765396608109</v>
+        <v>24.57504711832935</v>
       </c>
       <c r="I16">
-        <v>13.13549049679944</v>
+        <v>19.48189968005478</v>
       </c>
       <c r="J16">
-        <v>19.68758034030695</v>
+        <v>13.13475288794351</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.68569775304023</v>
       </c>
       <c r="L16">
-        <v>23.08205864158203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.08203948051817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.94587054457275</v>
+        <v>20.94531769505583</v>
       </c>
       <c r="C17">
-        <v>16.8008377312246</v>
+        <v>16.79652040407318</v>
       </c>
       <c r="D17">
-        <v>4.3210255861389</v>
+        <v>4.32499119140054</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.77019714512484</v>
+        <v>33.74811766313221</v>
       </c>
       <c r="G17">
-        <v>24.15741166854155</v>
+        <v>23.3517804561735</v>
       </c>
       <c r="H17">
-        <v>19.2963230573819</v>
+        <v>24.19587260420171</v>
       </c>
       <c r="I17">
-        <v>12.889253665268</v>
+        <v>19.28096897646212</v>
       </c>
       <c r="J17">
-        <v>19.27674215755128</v>
+        <v>12.88854055084353</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.27495848976449</v>
       </c>
       <c r="L17">
-        <v>22.56528698170341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.56530708584553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.67924952371657</v>
+        <v>20.67873522420251</v>
       </c>
       <c r="C18">
-        <v>16.58165878798687</v>
+        <v>16.57742984497807</v>
       </c>
       <c r="D18">
-        <v>4.285508567268897</v>
+        <v>4.289387919597004</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.41768229634329</v>
+        <v>33.39588473560464</v>
       </c>
       <c r="G18">
-        <v>23.94080741999061</v>
+        <v>23.08625771415755</v>
       </c>
       <c r="H18">
-        <v>19.18267328016884</v>
+        <v>23.97893512277341</v>
       </c>
       <c r="I18">
-        <v>12.7478280496463</v>
+        <v>19.16755131938454</v>
       </c>
       <c r="J18">
-        <v>19.03747876975752</v>
+        <v>12.74712928244206</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.03575190585973</v>
       </c>
       <c r="L18">
-        <v>22.26471297080174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.26475489326826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.58837759156355</v>
+        <v>20.58787627113162</v>
       </c>
       <c r="C19">
-        <v>16.50699369277665</v>
+        <v>16.50279471154276</v>
       </c>
       <c r="D19">
-        <v>4.273429160925032</v>
+        <v>4.277279055710034</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.29835877468766</v>
+        <v>33.27665703904326</v>
       </c>
       <c r="G19">
-        <v>23.86766554504856</v>
+        <v>22.99632291201905</v>
       </c>
       <c r="H19">
-        <v>19.14455821813666</v>
+        <v>23.90568110354628</v>
       </c>
       <c r="I19">
-        <v>12.69997666067622</v>
+        <v>19.12951517582101</v>
       </c>
       <c r="J19">
-        <v>18.95595589809936</v>
+        <v>12.69928279986991</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.95424825841703</v>
       </c>
       <c r="L19">
-        <v>22.16236251929561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.16241170414474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.99493282751977</v>
+        <v>20.99437280693989</v>
       </c>
       <c r="C20">
-        <v>16.84118786970427</v>
+        <v>16.83685420004394</v>
       </c>
       <c r="D20">
-        <v>4.327573371595651</v>
+        <v>4.33155481995342</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.83545489515398</v>
+        <v>33.81332340953696</v>
       </c>
       <c r="G20">
-        <v>24.19759380917229</v>
+        <v>23.40090704177481</v>
       </c>
       <c r="H20">
-        <v>19.31753142646653</v>
+        <v>24.23611674156516</v>
       </c>
       <c r="I20">
-        <v>12.91544444591483</v>
+        <v>19.30213454178682</v>
       </c>
       <c r="J20">
-        <v>19.32078198391181</v>
+        <v>12.91472869827188</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.31898779722186</v>
       </c>
       <c r="L20">
-        <v>22.62064214611106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.62065815128288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.3199280031939</v>
+        <v>22.3191647105827</v>
       </c>
       <c r="C21">
-        <v>17.93308101809255</v>
+        <v>17.92829616389085</v>
       </c>
       <c r="D21">
-        <v>4.5057502481812</v>
+        <v>4.510156151543943</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.64236071639679</v>
+        <v>35.61880935102578</v>
       </c>
       <c r="G21">
-        <v>25.31995401780766</v>
+        <v>24.75810830810348</v>
       </c>
       <c r="H21">
-        <v>19.92474012839341</v>
+        <v>25.36022832435448</v>
       </c>
       <c r="I21">
-        <v>13.7701410205834</v>
+        <v>19.90817777939378</v>
       </c>
       <c r="J21">
-        <v>20.51149319019466</v>
+        <v>13.76962031347659</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.50940656387278</v>
       </c>
       <c r="L21">
-        <v>24.12106803576588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.12096288267996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.15618776735086</v>
+        <v>23.15528591433154</v>
       </c>
       <c r="C22">
-        <v>18.62449228119246</v>
+        <v>18.61941206484721</v>
       </c>
       <c r="D22">
-        <v>4.619441221249201</v>
+        <v>4.624111597820356</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.82542275324462</v>
+        <v>36.80095883166322</v>
       </c>
       <c r="G22">
-        <v>26.06415449953618</v>
+        <v>25.64393158991842</v>
       </c>
       <c r="H22">
-        <v>20.34182917027981</v>
+        <v>26.10560736544377</v>
       </c>
       <c r="I22">
-        <v>14.37570129477837</v>
+        <v>20.32452305335336</v>
       </c>
       <c r="J22">
-        <v>21.26431649378343</v>
+        <v>14.37515577942851</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.26203618746434</v>
       </c>
       <c r="L22">
-        <v>25.0737603503959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.07356750897601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.71252112785298</v>
+        <v>22.71169383211226</v>
       </c>
       <c r="C23">
-        <v>18.25744594155892</v>
+        <v>18.2525235121353</v>
       </c>
       <c r="D23">
-        <v>4.55901185281389</v>
+        <v>4.563542248116543</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.19376312105991</v>
+        <v>36.16978501670905</v>
       </c>
       <c r="G23">
-        <v>25.66595257632003</v>
+        <v>25.17122155407432</v>
       </c>
       <c r="H23">
-        <v>20.1173118827004</v>
+        <v>25.70677336528938</v>
       </c>
       <c r="I23">
-        <v>14.05348169182865</v>
+        <v>20.10040107404826</v>
       </c>
       <c r="J23">
-        <v>20.86479090416558</v>
+        <v>14.05294970227486</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.86261429198837</v>
       </c>
       <c r="L23">
-        <v>24.56775074602589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.56760557419042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.97276292587556</v>
+        <v>20.97220614870757</v>
       </c>
       <c r="C24">
-        <v>16.82295405361439</v>
+        <v>16.81862777174264</v>
       </c>
       <c r="D24">
-        <v>4.324614145069064</v>
+        <v>4.328588435474376</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.80595178293308</v>
+        <v>33.78384380120779</v>
       </c>
       <c r="G24">
-        <v>24.17942419254438</v>
+        <v>23.37869788115312</v>
       </c>
       <c r="H24">
-        <v>19.30793659950605</v>
+        <v>24.21791908440559</v>
       </c>
       <c r="I24">
-        <v>12.90360316652841</v>
+        <v>19.29255906007229</v>
       </c>
       <c r="J24">
-        <v>19.30088114197699</v>
+        <v>12.90288860852679</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.29909171107102</v>
       </c>
       <c r="L24">
-        <v>22.59562691982601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.5956447804789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.96339924424218</v>
+        <v>18.96311722081908</v>
       </c>
       <c r="C25">
-        <v>15.17489155949589</v>
+        <v>15.17121552894977</v>
       </c>
       <c r="D25">
-        <v>4.059803450694057</v>
+        <v>4.063121509714199</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.23799397868166</v>
+        <v>31.21798411464525</v>
       </c>
       <c r="G25">
-        <v>22.62009799130425</v>
+        <v>21.43824615001725</v>
       </c>
       <c r="H25">
-        <v>18.51658010135639</v>
+        <v>22.65623563755522</v>
       </c>
       <c r="I25">
-        <v>11.87510450651294</v>
+        <v>18.50292901726036</v>
       </c>
       <c r="J25">
-        <v>17.50035991644769</v>
+        <v>11.87450059111064</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.49898542565575</v>
       </c>
       <c r="L25">
-        <v>20.33982995942378</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.33999503918706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.36430597761331</v>
+        <v>18.2402869492251</v>
       </c>
       <c r="C2">
-        <v>13.86617568380606</v>
+        <v>9.522210538047778</v>
       </c>
       <c r="D2">
-        <v>3.857347009737276</v>
+        <v>2.357456994454719</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.33730245937425</v>
+        <v>42.86816234780008</v>
       </c>
       <c r="G2">
-        <v>20.00434687725958</v>
+        <v>2.148651330635294</v>
       </c>
       <c r="H2">
-        <v>21.54438419630055</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.98636518226936</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.12261857707425</v>
+        <v>6.702378738483283</v>
       </c>
       <c r="K2">
-        <v>16.07133487310897</v>
+        <v>14.11648768332647</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.373516660135388</v>
       </c>
       <c r="M2">
-        <v>18.55996825159342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.91585479249241</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>32.72424444128638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20389561870613</v>
+        <v>17.21345895276519</v>
       </c>
       <c r="C3">
-        <v>12.92195683826271</v>
+        <v>8.977439881435341</v>
       </c>
       <c r="D3">
-        <v>3.711615757097032</v>
+        <v>2.319636680532252</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.07131652220034</v>
+        <v>41.79990137713713</v>
       </c>
       <c r="G3">
-        <v>19.03166551351413</v>
+        <v>2.158357395226011</v>
       </c>
       <c r="H3">
-        <v>20.81555619627453</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.6740451595904</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.6167674966782</v>
+        <v>6.73807801514033</v>
       </c>
       <c r="K3">
-        <v>15.03820776867768</v>
+        <v>13.2605642084667</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.342354715054797</v>
       </c>
       <c r="M3">
-        <v>17.27554002080202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.58011508259442</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>31.96652956776174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45280598612849</v>
+        <v>16.56531132908179</v>
       </c>
       <c r="C4">
-        <v>12.3120287508765</v>
+        <v>8.628046960302983</v>
       </c>
       <c r="D4">
-        <v>3.619135564738121</v>
+        <v>2.29703327717474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.29991317097754</v>
+        <v>41.16044364216273</v>
       </c>
       <c r="G4">
-        <v>18.43529040583003</v>
+        <v>2.164467329189147</v>
       </c>
       <c r="H4">
-        <v>20.38076079110378</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.49997874546102</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.30841666121296</v>
+        <v>6.76078345237166</v>
       </c>
       <c r="K4">
-        <v>14.37104569957095</v>
+        <v>12.75014816355175</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.326058612209887</v>
       </c>
       <c r="M4">
-        <v>16.44728940799957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.37721087433927</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>31.51500069267946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.13693858043328</v>
+        <v>16.29701215724228</v>
       </c>
       <c r="C5">
-        <v>12.05579933986402</v>
+        <v>8.48192082759464</v>
       </c>
       <c r="D5">
-        <v>3.580713900694167</v>
+        <v>2.287962147440368</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.987362703256</v>
+        <v>40.90408930286698</v>
       </c>
       <c r="G5">
-        <v>18.19273104968478</v>
+        <v>2.166996933496139</v>
       </c>
       <c r="H5">
-        <v>20.20686951831527</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.43335240095865</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.1834163966016</v>
+        <v>6.770236564435512</v>
       </c>
       <c r="K5">
-        <v>14.09086843486529</v>
+        <v>12.53871708451645</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.320119943103646</v>
       </c>
       <c r="M5">
-        <v>16.0996651664228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.2954286877143</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>31.33447829248259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08389523068961</v>
+        <v>16.25221837689296</v>
       </c>
       <c r="C6">
-        <v>12.01278635843142</v>
+        <v>8.457430804208936</v>
       </c>
       <c r="D6">
-        <v>3.574290255350865</v>
+        <v>2.286463912723987</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.93558287544289</v>
+        <v>40.86178004914085</v>
       </c>
       <c r="G6">
-        <v>18.15249083412999</v>
+        <v>2.167419427974701</v>
       </c>
       <c r="H6">
-        <v>20.17819668938068</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.42254491599711</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.16270284681491</v>
+        <v>6.771818434163361</v>
       </c>
       <c r="K6">
-        <v>14.04384253524849</v>
+        <v>12.50340878729225</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.319175902707832</v>
       </c>
       <c r="M6">
-        <v>16.04132805477462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.28190600266748</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>31.30471374335287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44858584569034</v>
+        <v>16.56170944721102</v>
       </c>
       <c r="C7">
-        <v>12.30860435717338</v>
+        <v>8.626091405386829</v>
       </c>
       <c r="D7">
-        <v>3.618620345000714</v>
+        <v>2.296910393839918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.29569025807204</v>
+        <v>41.15696910845965</v>
       </c>
       <c r="G7">
-        <v>18.43201690057899</v>
+        <v>2.16450128086626</v>
       </c>
       <c r="H7">
-        <v>20.37840217529011</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.49906295598343</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.30672807482433</v>
+        <v>6.760910125029516</v>
       </c>
       <c r="K7">
-        <v>14.36730080679099</v>
+        <v>12.74731032020279</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.325975693484976</v>
       </c>
       <c r="M7">
-        <v>16.44264232656168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.37610415591079</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>31.51255197513748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.97215054543085</v>
+        <v>17.89004612246679</v>
       </c>
       <c r="C8">
-        <v>13.54681391962232</v>
+        <v>9.337462567878687</v>
       </c>
       <c r="D8">
-        <v>3.80773185469528</v>
+        <v>2.344278430058226</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.89973607562986</v>
+        <v>42.4964626973285</v>
       </c>
       <c r="G8">
-        <v>19.66892577798763</v>
+        <v>2.151967985595838</v>
       </c>
       <c r="H8">
-        <v>21.29050171422778</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.87491993830617</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10.94778273667425</v>
+        <v>6.714526479893864</v>
       </c>
       <c r="K8">
-        <v>15.72188835504193</v>
+        <v>13.79290340047279</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.362176279390991</v>
       </c>
       <c r="M8">
-        <v>18.12522578900838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.79947009849801</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>32.46015673033716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.65811640443864</v>
+        <v>20.34609380496317</v>
       </c>
       <c r="C9">
-        <v>15.7401110906018</v>
+        <v>10.61496003590107</v>
       </c>
       <c r="D9">
-        <v>4.154157267228789</v>
+        <v>2.442849476204275</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.08124305718328</v>
+        <v>45.25041312761967</v>
       </c>
       <c r="G9">
-        <v>22.09286345892995</v>
+        <v>2.128487905181259</v>
       </c>
       <c r="H9">
-        <v>23.17645361433213</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.75849004161212</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.22006713122669</v>
+        <v>6.629667740096081</v>
       </c>
       <c r="K9">
-        <v>18.12096150550973</v>
+        <v>16.10156168673265</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.456194951255428</v>
       </c>
       <c r="M9">
-        <v>21.11779539628385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.65189145975424</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>34.42616490712179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.45451990721665</v>
+        <v>22.05247723691651</v>
       </c>
       <c r="C10">
-        <v>17.21546893243602</v>
+        <v>11.48399109940839</v>
       </c>
       <c r="D10">
-        <v>4.393301148958361</v>
+        <v>2.519943718890601</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.43078333852765</v>
+        <v>47.34839271613278</v>
       </c>
       <c r="G10">
-        <v>23.8657037020685</v>
+        <v>2.11176029495464</v>
       </c>
       <c r="H10">
-        <v>24.61847077428815</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.50512245746822</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.16287675401261</v>
+        <v>6.57083648987129</v>
       </c>
       <c r="K10">
-        <v>19.73216797115628</v>
+        <v>17.66201634487186</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.540044470284958</v>
       </c>
       <c r="M10">
-        <v>23.14055533094714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.28768670879429</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.93594580213942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.23506958470825</v>
+        <v>22.83877243512316</v>
       </c>
       <c r="C11">
-        <v>17.8588851612677</v>
+        <v>11.86496754118785</v>
       </c>
       <c r="D11">
-        <v>4.498745351675371</v>
+        <v>2.556342089876881</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.50170254595847</v>
+        <v>48.31903376398694</v>
       </c>
       <c r="G11">
-        <v>24.67024414308686</v>
+        <v>2.10422763280207</v>
       </c>
       <c r="H11">
-        <v>25.28677290696549</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.86774421294625</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13.70913457561945</v>
+        <v>6.544787148747658</v>
       </c>
       <c r="K11">
-        <v>20.43376459161829</v>
+        <v>18.34179593120687</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.581567235587471</v>
       </c>
       <c r="M11">
-        <v>24.02540336718014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.57838550452429</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.637311650367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.52553550474519</v>
+        <v>23.15027367163161</v>
       </c>
       <c r="C12">
-        <v>18.09870815339265</v>
+        <v>12.00724797259667</v>
       </c>
       <c r="D12">
-        <v>4.538198468073428</v>
+        <v>2.570346051768301</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.90759178369363</v>
+        <v>48.68897941023499</v>
       </c>
       <c r="G12">
-        <v>24.97468936326766</v>
+        <v>2.101382851304838</v>
       </c>
       <c r="H12">
-        <v>25.5416705868724</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.0085223518579</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.91837302300765</v>
+        <v>6.535021218665278</v>
       </c>
       <c r="K12">
-        <v>20.69507656744522</v>
+        <v>18.59504573547888</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.597791755928438</v>
       </c>
       <c r="M12">
-        <v>24.35565939871313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.68864511913881</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.90505621739249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.46320310413593</v>
+        <v>23.08339238437047</v>
       </c>
       <c r="C13">
-        <v>18.04722529883009</v>
+        <v>11.97669233679232</v>
       </c>
       <c r="D13">
-        <v>4.529722596045657</v>
+        <v>2.567319716451858</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.82015868046667</v>
+        <v>48.60919763464103</v>
       </c>
       <c r="G13">
-        <v>24.9091295798909</v>
+        <v>2.101995242315701</v>
       </c>
       <c r="H13">
-        <v>25.4866911827697</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.97804663399731</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.87339554630796</v>
+        <v>6.537120180581685</v>
       </c>
       <c r="K13">
-        <v>20.63899016349958</v>
+        <v>18.54068656095816</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.59427499281928</v>
       </c>
       <c r="M13">
-        <v>24.28474258435145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.66489116650044</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.84729557787328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.25906786480378</v>
+        <v>22.86449292369877</v>
       </c>
       <c r="C14">
-        <v>17.8786911992128</v>
+        <v>11.87671237156938</v>
       </c>
       <c r="D14">
-        <v>4.502000686915283</v>
+        <v>2.557489596784488</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.53508755761938</v>
+        <v>48.34942116825246</v>
       </c>
       <c r="G14">
-        <v>24.69529478717214</v>
+        <v>2.103993457765102</v>
       </c>
       <c r="H14">
-        <v>25.30770640176812</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.87925578631709</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.72638777402051</v>
+        <v>6.543981753022761</v>
       </c>
       <c r="K14">
-        <v>20.45534954383676</v>
+        <v>18.36271352173818</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.58289191089804</v>
       </c>
       <c r="M14">
-        <v>24.0526686567204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.58745318959337</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.65929555238754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.13336846469515</v>
+        <v>22.7298045637032</v>
       </c>
       <c r="C15">
-        <v>17.7749662432822</v>
+        <v>11.81521549956666</v>
       </c>
       <c r="D15">
-        <v>4.484958400231982</v>
+        <v>2.551498055031588</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.36052262115702</v>
+        <v>48.19061342213904</v>
       </c>
       <c r="G15">
-        <v>24.56428954336597</v>
+        <v>2.105218315389104</v>
       </c>
       <c r="H15">
-        <v>25.19831334895598</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.81919924066319</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>13.63608573287017</v>
+        <v>6.548197347960392</v>
       </c>
       <c r="K15">
-        <v>20.34230007990002</v>
+        <v>18.25316203238198</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.575985120882301</v>
       </c>
       <c r="M15">
-        <v>23.90989767795364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.54004269666807</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.54442278610807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.40278492574616</v>
+        <v>22.00273204658829</v>
       </c>
       <c r="C16">
-        <v>17.17287567124203</v>
+        <v>11.45881083502818</v>
       </c>
       <c r="D16">
-        <v>4.386343118259764</v>
+        <v>2.517594174314388</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.36084110142231</v>
+        <v>47.28528910743104</v>
       </c>
       <c r="G16">
-        <v>23.8130898893994</v>
+        <v>2.112253837948128</v>
       </c>
       <c r="H16">
-        <v>24.57504711832935</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.48189968005478</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.13475288794351</v>
+        <v>6.572552878721553</v>
       </c>
       <c r="K16">
-        <v>19.68569775304023</v>
+        <v>17.61699899586827</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.537400094786581</v>
       </c>
       <c r="M16">
-        <v>23.08203948051817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.26871526270656</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.89040711573153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.94531769505583</v>
+        <v>21.56434471592816</v>
       </c>
       <c r="C17">
-        <v>16.79652040407318</v>
+        <v>11.23654252626442</v>
       </c>
       <c r="D17">
-        <v>4.32499119140054</v>
+        <v>2.497155303245527</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.74811766313221</v>
+        <v>46.73408449852082</v>
       </c>
       <c r="G17">
-        <v>23.3517804561735</v>
+        <v>2.116587291442956</v>
       </c>
       <c r="H17">
-        <v>24.19587260420171</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.28096897646212</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.88854055084353</v>
+        <v>6.587674023628481</v>
       </c>
       <c r="K17">
-        <v>19.27495848976449</v>
+        <v>17.21913696066875</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.514605063675289</v>
       </c>
       <c r="M17">
-        <v>22.56530708584553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.10261296987422</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.49294990839859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.67873522420251</v>
+        <v>21.31014501623894</v>
       </c>
       <c r="C18">
-        <v>16.57742984497807</v>
+        <v>11.10734351635619</v>
       </c>
       <c r="D18">
-        <v>4.289387919597004</v>
+        <v>2.485522390993348</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.39588473560464</v>
+        <v>46.41857105268956</v>
       </c>
       <c r="G18">
-        <v>23.08625771415755</v>
+        <v>2.119087231474662</v>
       </c>
       <c r="H18">
-        <v>23.97893512277341</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.16755131938454</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.74712928244206</v>
+        <v>6.596438712818236</v>
       </c>
       <c r="K18">
-        <v>19.03575190585973</v>
+        <v>16.98745580238255</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.501811075778583</v>
       </c>
       <c r="M18">
-        <v>22.26475489326826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.00721496170247</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>35.26570796260599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.58787627113162</v>
+        <v>21.22372534262119</v>
       </c>
       <c r="C19">
-        <v>16.50279471154276</v>
+        <v>11.06336393700728</v>
       </c>
       <c r="D19">
-        <v>4.277279055710034</v>
+        <v>2.481603965118577</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.27665703904326</v>
+        <v>46.31200488586675</v>
       </c>
       <c r="G19">
-        <v>22.99632291201905</v>
+        <v>2.11993504495327</v>
       </c>
       <c r="H19">
-        <v>23.90568110354628</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.12951517582101</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.69928279986991</v>
+        <v>6.599417985339969</v>
       </c>
       <c r="K19">
-        <v>18.95424825841703</v>
+        <v>16.90851996807625</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.497533285117572</v>
       </c>
       <c r="M19">
-        <v>22.16241170414474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.97494009708829</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>35.18900092896794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.99437280693989</v>
+        <v>21.61122407670405</v>
       </c>
       <c r="C20">
-        <v>16.83685420004394</v>
+        <v>11.26034321668407</v>
       </c>
       <c r="D20">
-        <v>4.33155481995342</v>
+        <v>2.499318124158586</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.81332340953696</v>
+        <v>46.79260317023574</v>
       </c>
       <c r="G20">
-        <v>23.40090704177481</v>
+        <v>2.116125239900124</v>
       </c>
       <c r="H20">
-        <v>24.23611674156516</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.30213454178682</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.91472869827188</v>
+        <v>6.586057404880792</v>
       </c>
       <c r="K20">
-        <v>19.31898779722186</v>
+        <v>17.26178303898869</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.516998710770679</v>
       </c>
       <c r="M20">
-        <v>22.62065815128288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.1202806838496</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.53511832453374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.3191647105827</v>
+        <v>22.92891503478413</v>
       </c>
       <c r="C21">
-        <v>17.92829616389085</v>
+        <v>11.90613215720563</v>
       </c>
       <c r="D21">
-        <v>4.510156151543943</v>
+        <v>2.560370694992259</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.61880935102578</v>
+        <v>48.42565846169889</v>
       </c>
       <c r="G21">
-        <v>24.75810830810348</v>
+        <v>2.1034063539125</v>
       </c>
       <c r="H21">
-        <v>25.36022832435448</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.90817777939378</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.76962031347659</v>
+        <v>6.541963707524595</v>
       </c>
       <c r="K21">
-        <v>20.50940656387278</v>
+        <v>18.41510030519252</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.586221682589005</v>
       </c>
       <c r="M21">
-        <v>24.12096288267996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.61019394723239</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.71445665100235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.15528591433154</v>
+        <v>23.82702899881635</v>
       </c>
       <c r="C22">
-        <v>18.61941206484721</v>
+        <v>12.3166565334797</v>
       </c>
       <c r="D22">
-        <v>4.624111597820356</v>
+        <v>2.601575208512423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.80095883166322</v>
+        <v>49.50691547607654</v>
       </c>
       <c r="G22">
-        <v>25.64393158991842</v>
+        <v>2.095136711747111</v>
       </c>
       <c r="H22">
-        <v>26.10560736544377</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.32452305335336</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>14.37515577942851</v>
+        <v>6.513717238799593</v>
       </c>
       <c r="K22">
-        <v>21.26203618746434</v>
+        <v>19.14465008607569</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.634389633308587</v>
       </c>
       <c r="M22">
-        <v>25.07356750897601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.93141623255766</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.49782324601061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.71169383211226</v>
+        <v>23.35012958391396</v>
       </c>
       <c r="C23">
-        <v>18.2525235121353</v>
+        <v>12.09857835317702</v>
       </c>
       <c r="D23">
-        <v>4.563542248116543</v>
+        <v>2.57945345139906</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.16978501670905</v>
+        <v>48.92852176079089</v>
       </c>
       <c r="G23">
-        <v>25.17122155407432</v>
+        <v>2.099547666211803</v>
       </c>
       <c r="H23">
-        <v>25.70677336528938</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>20.10040107404826</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>14.05294970227486</v>
+        <v>6.528742103659455</v>
       </c>
       <c r="K23">
-        <v>20.86261429198837</v>
+        <v>18.75743475285132</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.608408407282207</v>
       </c>
       <c r="M23">
-        <v>24.56760557419042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.75988582216283</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.07854371307084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.97220614870757</v>
+        <v>21.59003666185145</v>
       </c>
       <c r="C24">
-        <v>16.81862777174264</v>
+        <v>11.2495873344267</v>
       </c>
       <c r="D24">
-        <v>4.328588435474376</v>
+        <v>2.498339948512102</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.78384380120779</v>
+        <v>46.76614257876066</v>
       </c>
       <c r="G24">
-        <v>23.37869788115312</v>
+        <v>2.116334106428044</v>
       </c>
       <c r="H24">
-        <v>24.21791908440559</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.29255906007229</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.90288860852679</v>
+        <v>6.586788055691671</v>
       </c>
       <c r="K24">
-        <v>19.29909171107102</v>
+        <v>17.24251193161925</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.515915574766821</v>
       </c>
       <c r="M24">
-        <v>22.5956447804789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.11229280730665</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.51605005828425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.96311722081908</v>
+        <v>19.69856293055132</v>
       </c>
       <c r="C25">
-        <v>15.17121552894977</v>
+        <v>10.28177838530559</v>
       </c>
       <c r="D25">
-        <v>4.063121509714199</v>
+        <v>2.415458269822883</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.21798411464525</v>
+        <v>44.49216664222401</v>
       </c>
       <c r="G25">
-        <v>21.43824615001725</v>
+        <v>2.134736624883441</v>
       </c>
       <c r="H25">
-        <v>22.65623563755522</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.50292901726036</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>11.87450059111064</v>
+        <v>6.651991563754563</v>
       </c>
       <c r="K25">
-        <v>17.49898542565575</v>
+        <v>15.49926938901173</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.428220412405679</v>
       </c>
       <c r="M25">
-        <v>20.33999503918706</v>
+        <v>12.41936589281227</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.88286232009287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.2402869492251</v>
+        <v>18.59077839980514</v>
       </c>
       <c r="C2">
-        <v>9.522210538047778</v>
+        <v>12.43784585248798</v>
       </c>
       <c r="D2">
-        <v>2.357456994454719</v>
+        <v>4.459512839364129</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.86816234780008</v>
+        <v>16.26538627359636</v>
       </c>
       <c r="G2">
-        <v>2.148651330635294</v>
+        <v>19.83305229957897</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.70560787815769</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.02905148947907</v>
       </c>
       <c r="J2">
-        <v>6.702378738483283</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.11648768332647</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.373516660135388</v>
+        <v>6.897322091944405</v>
       </c>
       <c r="M2">
-        <v>11.91585479249241</v>
+        <v>11.39552594013735</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.95191591284248</v>
       </c>
       <c r="O2">
-        <v>32.72424444128638</v>
+        <v>12.4926417802686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.21345895276519</v>
+        <v>17.37859087581012</v>
       </c>
       <c r="C3">
-        <v>8.977439881435341</v>
+        <v>12.08406983071848</v>
       </c>
       <c r="D3">
-        <v>2.319636680532252</v>
+        <v>4.263883594009664</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.79990137713713</v>
+        <v>15.7501729027517</v>
       </c>
       <c r="G3">
-        <v>2.158357395226011</v>
+        <v>19.07918864785424</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.69938917687513</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.16442478949683</v>
       </c>
       <c r="J3">
-        <v>6.73807801514033</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.2605642084667</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.342354715054797</v>
+        <v>6.82762000264</v>
       </c>
       <c r="M3">
-        <v>11.58011508259442</v>
+        <v>10.87097303203589</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.04815553490138</v>
       </c>
       <c r="O3">
-        <v>31.96652956776174</v>
+        <v>12.32364443405643</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.56531132908179</v>
+        <v>16.58954319022837</v>
       </c>
       <c r="C4">
-        <v>8.628046960302983</v>
+        <v>11.86127135561326</v>
       </c>
       <c r="D4">
-        <v>2.29703327717474</v>
+        <v>4.138543281228067</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.16044364216273</v>
+        <v>15.44028948950746</v>
       </c>
       <c r="G4">
-        <v>2.164467329189147</v>
+        <v>18.62415638959239</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.700938620693186</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.25809218482153</v>
       </c>
       <c r="J4">
-        <v>6.76078345237166</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>12.75014816355175</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.326058612209887</v>
+        <v>6.788168100757419</v>
       </c>
       <c r="M4">
-        <v>11.37721087433927</v>
+        <v>10.53884230545161</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.11069301136884</v>
       </c>
       <c r="O4">
-        <v>31.51500069267946</v>
+        <v>12.23032184254308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.29701215724228</v>
+        <v>16.25671382097821</v>
       </c>
       <c r="C5">
-        <v>8.48192082759464</v>
+        <v>11.76917329471097</v>
       </c>
       <c r="D5">
-        <v>2.287962147440368</v>
+        <v>4.08619123408965</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40.90408930286698</v>
+        <v>15.31581706688772</v>
       </c>
       <c r="G5">
-        <v>2.166996933496139</v>
+        <v>18.44099866864525</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.702879334710146</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.298799673038</v>
       </c>
       <c r="J5">
-        <v>6.770236564435512</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>12.53871708451645</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.320119943103646</v>
+        <v>6.772931484545309</v>
       </c>
       <c r="M5">
-        <v>11.2954286877143</v>
+        <v>10.40114717515208</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.1370306753887</v>
       </c>
       <c r="O5">
-        <v>31.33447829248259</v>
+        <v>12.19489017079074</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.25221837689296</v>
+        <v>16.2007653184632</v>
       </c>
       <c r="C6">
-        <v>8.457430804208936</v>
+        <v>11.75380459415938</v>
       </c>
       <c r="D6">
-        <v>2.286463912723987</v>
+        <v>4.077422468816835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.86178004914085</v>
+        <v>15.29526306958981</v>
       </c>
       <c r="G6">
-        <v>2.167419427974701</v>
+        <v>18.41073160669812</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.703279469762507</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.30570911498635</v>
       </c>
       <c r="J6">
-        <v>6.771818434163361</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.50340878729225</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.319175902707832</v>
+        <v>6.770452147692281</v>
       </c>
       <c r="M6">
-        <v>11.28190600266748</v>
+        <v>10.37814686536793</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.14145518136731</v>
       </c>
       <c r="O6">
-        <v>31.30471374335287</v>
+        <v>12.18916268850003</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.56170944721102</v>
+        <v>16.5851002707388</v>
       </c>
       <c r="C7">
-        <v>8.626091405386829</v>
+        <v>11.86003444266432</v>
       </c>
       <c r="D7">
-        <v>2.296910393839918</v>
+        <v>4.13784234952256</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.15696910845965</v>
+        <v>15.43860324872483</v>
       </c>
       <c r="G7">
-        <v>2.16450128086626</v>
+        <v>18.62167665967608</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.700959546528281</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.25863105460867</v>
       </c>
       <c r="J7">
-        <v>6.760910125029516</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>12.74731032020279</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.325975693484976</v>
+        <v>6.787959214432932</v>
       </c>
       <c r="M7">
-        <v>11.37610415591079</v>
+        <v>10.5369945567679</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.11104477286252</v>
       </c>
       <c r="O7">
-        <v>31.51255197513748</v>
+        <v>12.22983352282434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.89004612246679</v>
+        <v>18.18208568041069</v>
       </c>
       <c r="C8">
-        <v>9.337462567878687</v>
+        <v>12.31707742119278</v>
       </c>
       <c r="D8">
-        <v>2.344278430058226</v>
+        <v>4.393165180207694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.4964626973285</v>
+        <v>16.08650905828438</v>
       </c>
       <c r="G8">
-        <v>2.151967985595838</v>
+        <v>19.57166812629641</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.702325505882188</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.07346802136429</v>
       </c>
       <c r="J8">
-        <v>6.714526479893864</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>13.79290340047279</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.362176279390991</v>
+        <v>6.872594485502645</v>
       </c>
       <c r="M8">
-        <v>11.79947009849801</v>
+        <v>11.21684583535888</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.98437574083223</v>
       </c>
       <c r="O8">
-        <v>32.46015673033716</v>
+        <v>12.43219027680817</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.34609380496317</v>
+        <v>20.96029120862431</v>
       </c>
       <c r="C9">
-        <v>10.61496003590107</v>
+        <v>13.16522150390804</v>
       </c>
       <c r="D9">
-        <v>2.442849476204275</v>
+        <v>4.851016579712684</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.25041312761967</v>
+        <v>17.40050425338119</v>
       </c>
       <c r="G9">
-        <v>2.128487905181259</v>
+        <v>21.48447084184882</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.749358417837351</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.79950850155664</v>
       </c>
       <c r="J9">
-        <v>6.629667740096081</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>16.10156168673265</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.456194951255428</v>
+        <v>7.06506677096684</v>
       </c>
       <c r="M9">
-        <v>12.65189145975424</v>
+        <v>12.5192918687718</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.76397673410661</v>
       </c>
       <c r="O9">
-        <v>34.42616490712179</v>
+        <v>12.91266106290912</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05247723691651</v>
+        <v>22.78857334923159</v>
       </c>
       <c r="C10">
-        <v>11.48399109940839</v>
+        <v>13.75443074081695</v>
       </c>
       <c r="D10">
-        <v>2.519943718890601</v>
+        <v>5.159793151782481</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.34839271613278</v>
+        <v>18.38261456365885</v>
       </c>
       <c r="G10">
-        <v>2.11176029495464</v>
+        <v>22.90526281233452</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.813288129651418</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.66049713930447</v>
       </c>
       <c r="J10">
-        <v>6.57083648987129</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.66201634487186</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.540044470284958</v>
+        <v>7.222478796441297</v>
       </c>
       <c r="M10">
-        <v>13.28768670879429</v>
+        <v>13.57350573331701</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.62011362358693</v>
       </c>
       <c r="O10">
-        <v>35.93594580213942</v>
+        <v>13.3171804503484</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83877243512316</v>
+        <v>23.57471636313009</v>
       </c>
       <c r="C11">
-        <v>11.86496754118785</v>
+        <v>14.01429855307295</v>
       </c>
       <c r="D11">
-        <v>2.556342089876881</v>
+        <v>5.294044163860537</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.31903376398694</v>
+        <v>18.83122131234072</v>
       </c>
       <c r="G11">
-        <v>2.10422763280207</v>
+        <v>23.55235190857294</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.849223563140871</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.61260730170182</v>
       </c>
       <c r="J11">
-        <v>6.544787148747658</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.34179593120687</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.581567235587471</v>
+        <v>7.297505123491383</v>
       </c>
       <c r="M11">
-        <v>13.57838550452429</v>
+        <v>14.02821835803358</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.55883555939188</v>
       </c>
       <c r="O11">
-        <v>36.637311650367</v>
+        <v>13.51236142614793</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.15027367163161</v>
+        <v>23.86591160414384</v>
       </c>
       <c r="C12">
-        <v>12.00724797259667</v>
+        <v>14.11147150944193</v>
       </c>
       <c r="D12">
-        <v>2.570346051768301</v>
+        <v>5.343974106255729</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.68897941023499</v>
+        <v>19.00123138865852</v>
       </c>
       <c r="G12">
-        <v>2.101382851304838</v>
+        <v>23.79731854668206</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.863853621921847</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.59683827799975</v>
       </c>
       <c r="J12">
-        <v>6.535021218665278</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>18.59504573547888</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.597791755928438</v>
+        <v>7.326400607123633</v>
       </c>
       <c r="M12">
-        <v>13.68864511913881</v>
+        <v>14.19685585819434</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.53625323280863</v>
       </c>
       <c r="O12">
-        <v>36.90505621739249</v>
+        <v>13.58786559282689</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08339238437047</v>
+        <v>23.80348576465992</v>
       </c>
       <c r="C13">
-        <v>11.97669233679232</v>
+        <v>14.09059929148592</v>
       </c>
       <c r="D13">
-        <v>2.567319716451858</v>
+        <v>5.333261381774334</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.60919763464103</v>
+        <v>18.96461270453651</v>
       </c>
       <c r="G13">
-        <v>2.101995242315701</v>
+        <v>23.74456636181736</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.860656753006356</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.60012661440632</v>
       </c>
       <c r="J13">
-        <v>6.537120180581685</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>18.54068656095816</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.59427499281928</v>
+        <v>7.320156010134098</v>
       </c>
       <c r="M13">
-        <v>13.66489116650044</v>
+        <v>14.1606943600273</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.54108866973937</v>
       </c>
       <c r="O13">
-        <v>36.84729557787328</v>
+        <v>13.57153377948672</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86449292369877</v>
+        <v>23.59880314529643</v>
       </c>
       <c r="C14">
-        <v>11.87671237156938</v>
+        <v>14.02231806128273</v>
       </c>
       <c r="D14">
-        <v>2.557489596784488</v>
+        <v>5.298170200153951</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.34942116825246</v>
+        <v>18.84520618420342</v>
       </c>
       <c r="G14">
-        <v>2.103993457765102</v>
+        <v>23.57250783409468</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.850406498559308</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.61126163163267</v>
       </c>
       <c r="J14">
-        <v>6.543981753022761</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.36271352173818</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.58289191089804</v>
+        <v>7.299872701353594</v>
       </c>
       <c r="M14">
-        <v>13.58745318959337</v>
+        <v>14.04216332264256</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.55696508455683</v>
       </c>
       <c r="O14">
-        <v>36.65929555238754</v>
+        <v>13.51854134626748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.7298045637032</v>
+        <v>23.47258416405426</v>
       </c>
       <c r="C15">
-        <v>11.81521549956666</v>
+        <v>13.98033158941412</v>
       </c>
       <c r="D15">
-        <v>2.551498055031588</v>
+        <v>5.276557211518512</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.19061342213904</v>
+        <v>18.77207986558392</v>
       </c>
       <c r="G15">
-        <v>2.105218315389104</v>
+        <v>23.46710278236975</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.844262087716588</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.61839505512387</v>
       </c>
       <c r="J15">
-        <v>6.548197347960392</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.25316203238198</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.575985120882301</v>
+        <v>7.287511486759432</v>
       </c>
       <c r="M15">
-        <v>13.54004269666807</v>
+        <v>13.96909773269119</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.56677162004313</v>
       </c>
       <c r="O15">
-        <v>36.54442278610807</v>
+        <v>13.48628904159986</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.00273204658829</v>
+        <v>22.73628467419399</v>
       </c>
       <c r="C16">
-        <v>11.45881083502818</v>
+        <v>13.73727822828155</v>
       </c>
       <c r="D16">
-        <v>2.517594174314388</v>
+        <v>5.150893190170629</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.28528910743104</v>
+        <v>18.35332239082085</v>
       </c>
       <c r="G16">
-        <v>2.112253837948128</v>
+        <v>22.86297313865464</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.81108073423848</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.66394914128928</v>
       </c>
       <c r="J16">
-        <v>6.572552878721553</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>17.61699899586827</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.537400094786581</v>
+        <v>7.217643862282502</v>
       </c>
       <c r="M16">
-        <v>13.26871526270656</v>
+        <v>13.5432908318983</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.62420406469666</v>
       </c>
       <c r="O16">
-        <v>35.89040711573153</v>
+        <v>13.30464861488973</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.56434471592816</v>
+        <v>22.27295684331698</v>
       </c>
       <c r="C17">
-        <v>11.23654252626442</v>
+        <v>13.5860369459853</v>
       </c>
       <c r="D17">
-        <v>2.497155303245527</v>
+        <v>5.072199662433313</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.73408449852082</v>
+        <v>18.09680002008961</v>
       </c>
       <c r="G17">
-        <v>2.116587291442956</v>
+        <v>22.49241561585865</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.79250688193058</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.6959372451146</v>
       </c>
       <c r="J17">
-        <v>6.587674023628481</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>17.21913696066875</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.514605063675289</v>
+        <v>7.175653218992228</v>
       </c>
       <c r="M17">
-        <v>13.10261296987422</v>
+        <v>13.2757205327956</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.66051996386014</v>
       </c>
       <c r="O17">
-        <v>35.49294990839859</v>
+        <v>13.19607002283362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.31014501623894</v>
+        <v>22.00217221953665</v>
       </c>
       <c r="C18">
-        <v>11.10734351635619</v>
+        <v>13.49828135606507</v>
       </c>
       <c r="D18">
-        <v>2.485522390993348</v>
+        <v>5.026353078683859</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.41857105268956</v>
+        <v>17.94943516173415</v>
       </c>
       <c r="G18">
-        <v>2.119087231474662</v>
+        <v>22.27936154028499</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.782466682898968</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.71577063770533</v>
       </c>
       <c r="J18">
-        <v>6.596438712818236</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>16.98745580238255</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.501811075778583</v>
+        <v>7.151823574841814</v>
       </c>
       <c r="M18">
-        <v>13.00721496170247</v>
+        <v>13.11948019209631</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.68179852014579</v>
       </c>
       <c r="O18">
-        <v>35.26570796260599</v>
+        <v>13.13467021588404</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.22372534262119</v>
+        <v>21.90975077578397</v>
       </c>
       <c r="C19">
-        <v>11.06336393700728</v>
+        <v>13.46843924500701</v>
       </c>
       <c r="D19">
-        <v>2.481603965118577</v>
+        <v>5.010730383230867</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.31200488586675</v>
+        <v>17.89957518007537</v>
       </c>
       <c r="G19">
-        <v>2.11993504495327</v>
+        <v>22.20724501683677</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.779176539401591</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.72272753616524</v>
       </c>
       <c r="J19">
-        <v>6.599417985339969</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.90851996807625</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.497533285117572</v>
+        <v>7.143810817939576</v>
       </c>
       <c r="M19">
-        <v>12.97494009708829</v>
+        <v>13.06617722962275</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.68906948430245</v>
       </c>
       <c r="O19">
-        <v>35.18900092896794</v>
+        <v>13.11406223027303</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.61122407670405</v>
+        <v>22.32272259799889</v>
       </c>
       <c r="C20">
-        <v>11.26034321668407</v>
+        <v>13.6022165262851</v>
       </c>
       <c r="D20">
-        <v>2.499318124158586</v>
+        <v>5.08063729578392</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.79260317023574</v>
+        <v>18.12408964473367</v>
       </c>
       <c r="G20">
-        <v>2.116125239900124</v>
+        <v>22.53185514865288</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.794417283608242</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.69238243828571</v>
       </c>
       <c r="J20">
-        <v>6.586057404880792</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>17.26178303898869</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.516998710770679</v>
+        <v>7.180089890259016</v>
       </c>
       <c r="M20">
-        <v>13.1202806838496</v>
+        <v>13.30444598462973</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.65661348522985</v>
       </c>
       <c r="O20">
-        <v>35.53511832453374</v>
+        <v>13.20751962385084</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92891503478413</v>
+        <v>23.65909938939364</v>
       </c>
       <c r="C21">
-        <v>11.90613215720563</v>
+        <v>14.04240782113899</v>
       </c>
       <c r="D21">
-        <v>2.560370694992259</v>
+        <v>5.308502074101178</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.42565846169889</v>
+        <v>18.88027614588909</v>
       </c>
       <c r="G21">
-        <v>2.1034063539125</v>
+        <v>23.62304884183529</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.853389223556589</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.60792550764203</v>
       </c>
       <c r="J21">
-        <v>6.541963707524595</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>18.41510030519252</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.586221682589005</v>
+        <v>7.305817306192386</v>
       </c>
       <c r="M21">
-        <v>13.61019394723239</v>
+        <v>14.07707497870383</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.55228471088622</v>
       </c>
       <c r="O21">
-        <v>36.71445665100235</v>
+        <v>13.53406337676007</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.82702899881635</v>
+        <v>24.49463658424611</v>
       </c>
       <c r="C22">
-        <v>12.3166565334797</v>
+        <v>14.32288702709807</v>
       </c>
       <c r="D22">
-        <v>2.601575208512423</v>
+        <v>5.452127758315271</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.50691547607654</v>
+        <v>19.37521090815989</v>
       </c>
       <c r="G22">
-        <v>2.095136711747111</v>
+        <v>24.3357252930871</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.897904219433056</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.56659499530169</v>
       </c>
       <c r="J22">
-        <v>6.513717238799593</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>19.14465008607569</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.634389633308587</v>
+        <v>7.390808736230515</v>
       </c>
       <c r="M22">
-        <v>13.93141623255766</v>
+        <v>14.56133972124122</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.48773959359681</v>
       </c>
       <c r="O22">
-        <v>37.49782324601061</v>
+        <v>13.75675832579056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.35012958391396</v>
+        <v>24.05214183774924</v>
       </c>
       <c r="C23">
-        <v>12.09857835317702</v>
+        <v>14.17386748444616</v>
       </c>
       <c r="D23">
-        <v>2.57945345139906</v>
+        <v>5.375960723288699</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.92852176079089</v>
+        <v>19.11102784049056</v>
       </c>
       <c r="G23">
-        <v>2.099547666211803</v>
+        <v>23.95545253251008</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.873587467174094</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.58733125053432</v>
       </c>
       <c r="J23">
-        <v>6.528742103659455</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>18.75743475285132</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.608408407282207</v>
+        <v>7.345191498108577</v>
       </c>
       <c r="M23">
-        <v>13.75988582216283</v>
+        <v>14.30476381746012</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.5218472794656</v>
       </c>
       <c r="O23">
-        <v>37.07854371307084</v>
+        <v>13.63705749177133</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.59003666185145</v>
+        <v>22.30023724423996</v>
       </c>
       <c r="C24">
-        <v>11.2495873344267</v>
+        <v>13.59490424075142</v>
       </c>
       <c r="D24">
-        <v>2.498339948512102</v>
+        <v>5.076824523881992</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.76614257876066</v>
+        <v>18.11175164238584</v>
       </c>
       <c r="G24">
-        <v>2.116334106428044</v>
+        <v>22.51402457036581</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.79355160608388</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.69398508379151</v>
       </c>
       <c r="J24">
-        <v>6.586788055691671</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>17.24251193161925</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.515915574766821</v>
+        <v>7.178083100911932</v>
       </c>
       <c r="M24">
-        <v>13.11229280730665</v>
+        <v>13.29146671797879</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.65837835985176</v>
       </c>
       <c r="O24">
-        <v>35.51605005828425</v>
+        <v>13.2023400704726</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.69856293055132</v>
+        <v>20.24629777957195</v>
       </c>
       <c r="C25">
-        <v>10.28177838530559</v>
+        <v>12.94143158533069</v>
       </c>
       <c r="D25">
-        <v>2.415458269822883</v>
+        <v>4.731913923422396</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.49216664222401</v>
+        <v>17.04143368373719</v>
       </c>
       <c r="G25">
-        <v>2.134736624883441</v>
+        <v>20.96330585839635</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.731640619534256</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.86328491916109</v>
       </c>
       <c r="J25">
-        <v>6.651991563754563</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>15.49926938901173</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.428220412405679</v>
+        <v>7.010170821228528</v>
       </c>
       <c r="M25">
-        <v>12.41936589281227</v>
+        <v>12.13645652590021</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.82050600565818</v>
       </c>
       <c r="O25">
-        <v>33.88286232009287</v>
+        <v>12.7736420308367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.59077839980514</v>
+        <v>12.70776290365992</v>
       </c>
       <c r="C2">
-        <v>12.43784585248798</v>
+        <v>12.69131016872478</v>
       </c>
       <c r="D2">
-        <v>4.459512839364129</v>
+        <v>4.182622127043061</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.26538627359636</v>
+        <v>20.78720747333976</v>
       </c>
       <c r="G2">
-        <v>19.83305229957897</v>
+        <v>22.84119725964578</v>
       </c>
       <c r="H2">
-        <v>7.70560787815769</v>
+        <v>12.71106418598867</v>
       </c>
       <c r="I2">
-        <v>12.02905148947907</v>
+        <v>20.07234005538666</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.897322091944405</v>
+        <v>11.03312828331078</v>
       </c>
       <c r="M2">
-        <v>11.39552594013735</v>
+        <v>14.17802749424162</v>
       </c>
       <c r="N2">
-        <v>11.95191591284248</v>
+        <v>17.28809807930063</v>
       </c>
       <c r="O2">
-        <v>12.4926417802686</v>
+        <v>18.56714811764315</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.37859087581012</v>
+        <v>12.20832658026121</v>
       </c>
       <c r="C3">
-        <v>12.08406983071848</v>
+        <v>12.57743168253566</v>
       </c>
       <c r="D3">
-        <v>4.263883594009664</v>
+        <v>4.108591130166841</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.7501729027517</v>
+        <v>20.7681487588767</v>
       </c>
       <c r="G3">
-        <v>19.07918864785424</v>
+        <v>22.78730416526058</v>
       </c>
       <c r="H3">
-        <v>7.69938917687513</v>
+        <v>12.74648852071505</v>
       </c>
       <c r="I3">
-        <v>12.16442478949683</v>
+        <v>20.16415224079659</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.82762000264</v>
+        <v>11.04888789219697</v>
       </c>
       <c r="M3">
-        <v>10.87097303203589</v>
+        <v>14.08556281132667</v>
       </c>
       <c r="N3">
-        <v>12.04815553490138</v>
+        <v>17.32739653074592</v>
       </c>
       <c r="O3">
-        <v>12.32364443405643</v>
+        <v>18.60702234619806</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.58954319022837</v>
+        <v>11.89193475148971</v>
       </c>
       <c r="C4">
-        <v>11.86127135561326</v>
+        <v>12.5067366346511</v>
       </c>
       <c r="D4">
-        <v>4.138543281228067</v>
+        <v>4.061835208402136</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.44028948950746</v>
+        <v>20.76257606239422</v>
       </c>
       <c r="G4">
-        <v>18.62415638959239</v>
+        <v>22.76285955512033</v>
       </c>
       <c r="H4">
-        <v>7.700938620693186</v>
+        <v>12.77043138438719</v>
       </c>
       <c r="I4">
-        <v>12.25809218482153</v>
+        <v>20.22461299346757</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.788168100757419</v>
+        <v>11.06027358841669</v>
       </c>
       <c r="M4">
-        <v>10.53884230545161</v>
+        <v>14.03041156531913</v>
       </c>
       <c r="N4">
-        <v>12.11069301136884</v>
+        <v>17.35320943252564</v>
       </c>
       <c r="O4">
-        <v>12.23032184254308</v>
+        <v>18.63601129818921</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.25671382097821</v>
+        <v>11.76073905452347</v>
       </c>
       <c r="C5">
-        <v>11.76917329471097</v>
+        <v>12.47775028203376</v>
       </c>
       <c r="D5">
-        <v>4.08619123408965</v>
+        <v>4.042467594534772</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.31581706688772</v>
+        <v>20.76184924666492</v>
       </c>
       <c r="G5">
-        <v>18.44099866864525</v>
+        <v>22.75507969245062</v>
       </c>
       <c r="H5">
-        <v>7.702879334710146</v>
+        <v>12.78073920496492</v>
       </c>
       <c r="I5">
-        <v>12.298799673038</v>
+        <v>20.25027833518541</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.772931484545309</v>
+        <v>11.06534335862155</v>
       </c>
       <c r="M5">
-        <v>10.40114717515208</v>
+        <v>14.00836291690018</v>
       </c>
       <c r="N5">
-        <v>12.1370306753887</v>
+        <v>17.36415244622912</v>
       </c>
       <c r="O5">
-        <v>12.19489017079074</v>
+        <v>18.64895525354677</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.2007653184632</v>
+        <v>11.73882322128641</v>
       </c>
       <c r="C6">
-        <v>11.75380459415938</v>
+        <v>12.47292689141063</v>
       </c>
       <c r="D6">
-        <v>4.077422468816835</v>
+        <v>4.039233026864216</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.29526306958981</v>
+        <v>20.76182187425209</v>
       </c>
       <c r="G6">
-        <v>18.41073160669812</v>
+        <v>22.75391976741738</v>
       </c>
       <c r="H6">
-        <v>7.703279469762507</v>
+        <v>12.78248407403709</v>
       </c>
       <c r="I6">
-        <v>12.30570911498635</v>
+        <v>20.25460205702457</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.770452147692281</v>
+        <v>11.06621116613827</v>
       </c>
       <c r="M6">
-        <v>10.37814686536793</v>
+        <v>14.00472799322111</v>
       </c>
       <c r="N6">
-        <v>12.14145518136731</v>
+        <v>17.36599515800569</v>
       </c>
       <c r="O6">
-        <v>12.18916268850003</v>
+        <v>18.6511728056407</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.5851002707388</v>
+        <v>11.89017430528027</v>
       </c>
       <c r="C7">
-        <v>11.86003444266432</v>
+        <v>12.5063464110985</v>
       </c>
       <c r="D7">
-        <v>4.13784234952256</v>
+        <v>4.061575264774799</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.43860324872483</v>
+        <v>20.76256000561537</v>
       </c>
       <c r="G7">
-        <v>18.62167665967608</v>
+        <v>22.76274579276737</v>
       </c>
       <c r="H7">
-        <v>7.700959546528281</v>
+        <v>12.77056816911158</v>
       </c>
       <c r="I7">
-        <v>12.25863105460867</v>
+        <v>20.22495496760178</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.787959214432932</v>
+        <v>11.06034021980435</v>
       </c>
       <c r="M7">
-        <v>10.5369945567679</v>
+        <v>14.03011246170277</v>
       </c>
       <c r="N7">
-        <v>12.11104477286252</v>
+        <v>17.35335529592619</v>
       </c>
       <c r="O7">
-        <v>12.22983352282434</v>
+        <v>18.63618128998401</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.18208568041069</v>
+        <v>12.53768222413327</v>
       </c>
       <c r="C8">
-        <v>12.31707742119278</v>
+        <v>12.65221543866398</v>
       </c>
       <c r="D8">
-        <v>4.393165180207694</v>
+        <v>4.157373703895566</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.08650905828438</v>
+        <v>20.77936596575148</v>
       </c>
       <c r="G8">
-        <v>19.57166812629641</v>
+        <v>22.82082582156576</v>
       </c>
       <c r="H8">
-        <v>7.702325505882188</v>
+        <v>12.72282331894077</v>
       </c>
       <c r="I8">
-        <v>12.07346802136429</v>
+        <v>20.10314801636012</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.872594485502645</v>
+        <v>11.03820758744758</v>
       </c>
       <c r="M8">
-        <v>11.21684583535888</v>
+        <v>14.14581988828823</v>
       </c>
       <c r="N8">
-        <v>11.98437574083223</v>
+        <v>17.30129920621343</v>
       </c>
       <c r="O8">
-        <v>12.43219027680817</v>
+        <v>18.57996020247926</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.96029120862431</v>
+        <v>13.72312888668779</v>
       </c>
       <c r="C9">
-        <v>13.16522150390804</v>
+        <v>12.9313959827734</v>
       </c>
       <c r="D9">
-        <v>4.851016579712684</v>
+        <v>4.334381108428358</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.40050425338119</v>
+        <v>20.86077109379478</v>
       </c>
       <c r="G9">
-        <v>21.48447084184882</v>
+        <v>23.00285259179319</v>
       </c>
       <c r="H9">
-        <v>7.749358417837351</v>
+        <v>12.64660385267464</v>
       </c>
       <c r="I9">
-        <v>11.79950850155664</v>
+        <v>19.89675445547395</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.06506677096684</v>
+        <v>11.00835666687917</v>
       </c>
       <c r="M9">
-        <v>12.5192918687718</v>
+        <v>14.38478018275042</v>
       </c>
       <c r="N9">
-        <v>11.76397673410661</v>
+        <v>17.21254327631753</v>
       </c>
       <c r="O9">
-        <v>12.91266106290912</v>
+        <v>18.50555719838466</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.78857334923159</v>
+        <v>14.53457379173383</v>
       </c>
       <c r="C10">
-        <v>13.75443074081695</v>
+        <v>13.13135559138001</v>
       </c>
       <c r="D10">
-        <v>5.159793151782481</v>
+        <v>4.457142801667773</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.38261456365885</v>
+        <v>20.94977542106611</v>
       </c>
       <c r="G10">
-        <v>22.90526281233452</v>
+        <v>23.17728706770177</v>
       </c>
       <c r="H10">
-        <v>7.813288129651418</v>
+        <v>12.60123588367079</v>
       </c>
       <c r="I10">
-        <v>11.66049713930447</v>
+        <v>19.76496004842377</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.222478796441297</v>
+        <v>10.99466886271093</v>
       </c>
       <c r="M10">
-        <v>13.57350573331701</v>
+        <v>14.56657122816658</v>
       </c>
       <c r="N10">
-        <v>11.62011362358693</v>
+        <v>17.15541483117702</v>
       </c>
       <c r="O10">
-        <v>13.3171804503484</v>
+        <v>18.47285550969034</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.57471636313009</v>
+        <v>14.88943867919518</v>
       </c>
       <c r="C11">
-        <v>14.01429855307295</v>
+        <v>13.2210020943582</v>
       </c>
       <c r="D11">
-        <v>5.294044163860537</v>
+        <v>4.511279262628511</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.83122131234072</v>
+        <v>20.99650325521111</v>
       </c>
       <c r="G11">
-        <v>23.55235190857294</v>
+        <v>23.26523904279984</v>
       </c>
       <c r="H11">
-        <v>7.849223563140871</v>
+        <v>12.58290838826547</v>
       </c>
       <c r="I11">
-        <v>11.61260730170182</v>
+        <v>19.70932318769093</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.297505123491383</v>
+        <v>10.9902267666829</v>
       </c>
       <c r="M11">
-        <v>14.02821835803358</v>
+        <v>14.65037741689308</v>
       </c>
       <c r="N11">
-        <v>11.55883555939188</v>
+        <v>17.13117128143998</v>
       </c>
       <c r="O11">
-        <v>13.51236142614793</v>
+        <v>18.4627638620713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.86591160414384</v>
+        <v>15.02167223785595</v>
       </c>
       <c r="C12">
-        <v>14.11147150944193</v>
+        <v>13.25474302439954</v>
       </c>
       <c r="D12">
-        <v>5.343974106255729</v>
+        <v>4.531523685942976</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.00123138865852</v>
+        <v>21.01508419394041</v>
       </c>
       <c r="G12">
-        <v>23.79731854668206</v>
+        <v>23.29975643853343</v>
       </c>
       <c r="H12">
-        <v>7.863853621921847</v>
+        <v>12.57630072712931</v>
       </c>
       <c r="I12">
-        <v>11.59683827799975</v>
+        <v>19.68887682617747</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.326400607123633</v>
+        <v>10.98880068698967</v>
       </c>
       <c r="M12">
-        <v>14.19685585819434</v>
+        <v>14.68225079300929</v>
       </c>
       <c r="N12">
-        <v>11.53625323280863</v>
+        <v>17.12224106836674</v>
       </c>
       <c r="O12">
-        <v>13.58786559282689</v>
+        <v>18.45963111409364</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.80348576465992</v>
+        <v>14.99329018841697</v>
       </c>
       <c r="C13">
-        <v>14.09059929148592</v>
+        <v>13.24748575153866</v>
       </c>
       <c r="D13">
-        <v>5.333261381774334</v>
+        <v>4.52717522303267</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.96461270453651</v>
+        <v>21.01104323698746</v>
       </c>
       <c r="G13">
-        <v>23.74456636181736</v>
+        <v>23.29226902519771</v>
       </c>
       <c r="H13">
-        <v>7.860656753006356</v>
+        <v>12.57770901000628</v>
       </c>
       <c r="I13">
-        <v>11.60012661440632</v>
+        <v>19.6932526261088</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.320156010134098</v>
+        <v>10.98909644107005</v>
       </c>
       <c r="M13">
-        <v>14.1606943600273</v>
+        <v>14.67538050848112</v>
       </c>
       <c r="N13">
-        <v>11.54108866973937</v>
+        <v>17.12415322644433</v>
       </c>
       <c r="O13">
-        <v>13.57153377948672</v>
+        <v>18.46027516805644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.59880314529643</v>
+        <v>14.90036111905312</v>
       </c>
       <c r="C14">
-        <v>14.02231806128273</v>
+        <v>13.22378221074353</v>
       </c>
       <c r="D14">
-        <v>5.298170200153951</v>
+        <v>4.512949967862942</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.84520618420342</v>
+        <v>20.99801422941733</v>
       </c>
       <c r="G14">
-        <v>23.57250783409468</v>
+        <v>23.26805467366338</v>
       </c>
       <c r="H14">
-        <v>7.850406498559308</v>
+        <v>12.58235810537159</v>
       </c>
       <c r="I14">
-        <v>11.61126163163267</v>
+        <v>19.70762857754173</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.299872701353594</v>
+        <v>10.99010431428535</v>
       </c>
       <c r="M14">
-        <v>14.04216332264256</v>
+        <v>14.65299702148732</v>
       </c>
       <c r="N14">
-        <v>11.55696508455683</v>
+        <v>17.13043157434505</v>
       </c>
       <c r="O14">
-        <v>13.51854134626748</v>
+        <v>18.46249232283846</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.47258416405426</v>
+        <v>14.84315731737011</v>
       </c>
       <c r="C15">
-        <v>13.98033158941412</v>
+        <v>13.20923574861212</v>
       </c>
       <c r="D15">
-        <v>5.276557211518512</v>
+        <v>4.504202973505816</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.77207986558392</v>
+        <v>20.99014863274348</v>
       </c>
       <c r="G15">
-        <v>23.46710278236975</v>
+        <v>23.25337972381611</v>
       </c>
       <c r="H15">
-        <v>7.844262087716588</v>
+        <v>12.58524912829052</v>
       </c>
       <c r="I15">
-        <v>11.61839505512387</v>
+        <v>19.71651531968778</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.287511486759432</v>
+        <v>10.99075499203359</v>
       </c>
       <c r="M15">
-        <v>13.96909773269119</v>
+        <v>14.63930378995092</v>
       </c>
       <c r="N15">
-        <v>11.56677162004313</v>
+        <v>17.13430982289745</v>
       </c>
       <c r="O15">
-        <v>13.48628904159986</v>
+        <v>18.46394010346377</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.73628467419399</v>
+        <v>14.51108707116289</v>
       </c>
       <c r="C16">
-        <v>13.73727822828155</v>
+        <v>13.1254690368657</v>
       </c>
       <c r="D16">
-        <v>5.150893190170629</v>
+        <v>4.453569590823665</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.35332239082085</v>
+        <v>20.94684628247445</v>
       </c>
       <c r="G16">
-        <v>22.86297313865464</v>
+        <v>23.17171020314955</v>
       </c>
       <c r="H16">
-        <v>7.81108073423848</v>
+        <v>12.6024801507135</v>
       </c>
       <c r="I16">
-        <v>11.66394914128928</v>
+        <v>19.76868303086074</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.217643862282502</v>
+        <v>10.9949950270548</v>
       </c>
       <c r="M16">
-        <v>13.5432908318983</v>
+        <v>14.56111475906313</v>
       </c>
       <c r="N16">
-        <v>11.62420406469666</v>
+        <v>17.157034259194</v>
       </c>
       <c r="O16">
-        <v>13.30464861488973</v>
+        <v>18.47361137083675</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.27295684331698</v>
+        <v>14.30364723246644</v>
       </c>
       <c r="C17">
-        <v>13.5860369459853</v>
+        <v>13.07373157906143</v>
       </c>
       <c r="D17">
-        <v>5.072199662433313</v>
+        <v>4.422062605836294</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.09680002008961</v>
+        <v>20.92187228875226</v>
       </c>
       <c r="G17">
-        <v>22.49241561585865</v>
+        <v>23.12379462383211</v>
       </c>
       <c r="H17">
-        <v>7.79250688193058</v>
+        <v>12.61364285622319</v>
       </c>
       <c r="I17">
-        <v>11.6959372451146</v>
+        <v>19.80179286816051</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.175653218992228</v>
+        <v>10.99805283903564</v>
       </c>
       <c r="M17">
-        <v>13.2757205327956</v>
+        <v>14.5134169172086</v>
       </c>
       <c r="N17">
-        <v>11.66051996386014</v>
+        <v>17.17142136246748</v>
       </c>
       <c r="O17">
-        <v>13.19607002283362</v>
+        <v>18.48077045444373</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.00217221953665</v>
+        <v>14.18299533084551</v>
       </c>
       <c r="C18">
-        <v>13.49828135606507</v>
+        <v>13.04385067795543</v>
       </c>
       <c r="D18">
-        <v>5.026353078683859</v>
+        <v>4.403780382675728</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.94943516173415</v>
+        <v>20.90809593533315</v>
       </c>
       <c r="G18">
-        <v>22.27936154028499</v>
+        <v>23.09704606958049</v>
       </c>
       <c r="H18">
-        <v>7.782466682898968</v>
+        <v>12.62028082045236</v>
       </c>
       <c r="I18">
-        <v>11.71577063770533</v>
+        <v>19.82124303360698</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.151823574841814</v>
+        <v>10.99997962186756</v>
       </c>
       <c r="M18">
-        <v>13.11948019209631</v>
+        <v>14.48608802642946</v>
       </c>
       <c r="N18">
-        <v>11.68179852014579</v>
+        <v>17.17986067375099</v>
       </c>
       <c r="O18">
-        <v>13.13467021588404</v>
+        <v>18.48533849188179</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.90975077578397</v>
+        <v>14.14191797913313</v>
       </c>
       <c r="C19">
-        <v>13.46843924500701</v>
+        <v>13.03371293638706</v>
       </c>
       <c r="D19">
-        <v>5.010730383230867</v>
+        <v>4.397563136618069</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.89957518007537</v>
+        <v>20.90353280795248</v>
       </c>
       <c r="G19">
-        <v>22.20724501683677</v>
+        <v>23.08812951109152</v>
       </c>
       <c r="H19">
-        <v>7.779176539401591</v>
+        <v>12.62256566220378</v>
       </c>
       <c r="I19">
-        <v>11.72272753616524</v>
+        <v>19.82789826173835</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.143810817939576</v>
+        <v>11.00066086936246</v>
       </c>
       <c r="M19">
-        <v>13.06617722962275</v>
+        <v>14.47685373435124</v>
       </c>
       <c r="N19">
-        <v>11.68906948430245</v>
+        <v>17.18274630346622</v>
       </c>
       <c r="O19">
-        <v>13.11406223027303</v>
+        <v>18.48696246536672</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.32272259799889</v>
+        <v>14.32586876375347</v>
       </c>
       <c r="C20">
-        <v>13.6022165262851</v>
+        <v>13.07925196200382</v>
       </c>
       <c r="D20">
-        <v>5.08063729578392</v>
+        <v>4.4254332382847</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.12408964473367</v>
+        <v>20.92447003028871</v>
       </c>
       <c r="G20">
-        <v>22.53185514865288</v>
+        <v>23.12881153273427</v>
       </c>
       <c r="H20">
-        <v>7.794417283608242</v>
+        <v>12.61243205740461</v>
       </c>
       <c r="I20">
-        <v>11.69238243828571</v>
+        <v>19.7982262133181</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.180089890259016</v>
+        <v>10.99770994516962</v>
       </c>
       <c r="M20">
-        <v>13.30444598462973</v>
+        <v>14.51848365598054</v>
       </c>
       <c r="N20">
-        <v>11.65661348522985</v>
+        <v>17.1698728376644</v>
       </c>
       <c r="O20">
-        <v>13.20751962385084</v>
+        <v>18.47996174458903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.65909938939364</v>
+        <v>14.92771557157753</v>
       </c>
       <c r="C21">
-        <v>14.04240782113899</v>
+        <v>13.23075024667185</v>
       </c>
       <c r="D21">
-        <v>5.308502074101178</v>
+        <v>4.517135292726413</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.88027614588909</v>
+        <v>21.00181721085599</v>
       </c>
       <c r="G21">
-        <v>23.62304884183529</v>
+        <v>23.27513433687901</v>
       </c>
       <c r="H21">
-        <v>7.853389223556589</v>
+        <v>12.58098352550835</v>
       </c>
       <c r="I21">
-        <v>11.60792550764203</v>
+        <v>19.70338911756792</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.305817306192386</v>
+        <v>10.98980133345883</v>
       </c>
       <c r="M21">
-        <v>14.07707497870383</v>
+        <v>14.65956802753269</v>
       </c>
       <c r="N21">
-        <v>11.55228471088622</v>
+        <v>17.12858068288496</v>
       </c>
       <c r="O21">
-        <v>13.53406337676007</v>
+        <v>18.46182239464338</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.49463658424611</v>
+        <v>15.30851351695131</v>
       </c>
       <c r="C22">
-        <v>14.32288702709807</v>
+        <v>13.32855329375342</v>
       </c>
       <c r="D22">
-        <v>5.452127758315271</v>
+        <v>4.575572150217563</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.37521090815989</v>
+        <v>21.05752695506977</v>
       </c>
       <c r="G22">
-        <v>24.3357252930871</v>
+        <v>23.37781519382322</v>
       </c>
       <c r="H22">
-        <v>7.897904219433056</v>
+        <v>12.5623686362246</v>
       </c>
       <c r="I22">
-        <v>11.56659499530169</v>
+        <v>19.64503436093638</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.390808736230515</v>
+        <v>10.98612470329616</v>
       </c>
       <c r="M22">
-        <v>14.56133972124122</v>
+        <v>14.75256786666709</v>
       </c>
       <c r="N22">
-        <v>11.48773959359681</v>
+        <v>17.10305252219388</v>
       </c>
       <c r="O22">
-        <v>13.75675832579056</v>
+        <v>18.45398184442754</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.05214183774924</v>
+        <v>15.10645013404494</v>
       </c>
       <c r="C23">
-        <v>14.17386748444616</v>
+        <v>13.27647018972868</v>
       </c>
       <c r="D23">
-        <v>5.375960723288699</v>
+        <v>4.544523362806483</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.11102784049056</v>
+        <v>21.02732559396424</v>
       </c>
       <c r="G23">
-        <v>23.95545253251008</v>
+        <v>23.32237627512529</v>
       </c>
       <c r="H23">
-        <v>7.873587467174094</v>
+        <v>12.57212628805301</v>
       </c>
       <c r="I23">
-        <v>11.58733125053432</v>
+        <v>19.67584709943421</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.345191498108577</v>
+        <v>10.98795067305931</v>
       </c>
       <c r="M23">
-        <v>14.30476381746012</v>
+        <v>14.70286671110003</v>
       </c>
       <c r="N23">
-        <v>11.5218472794656</v>
+        <v>17.1165440967457</v>
       </c>
       <c r="O23">
-        <v>13.63705749177133</v>
+        <v>18.45779902093464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.30023724423996</v>
+        <v>14.31582673781545</v>
       </c>
       <c r="C24">
-        <v>13.59490424075142</v>
+        <v>13.07675662028608</v>
       </c>
       <c r="D24">
-        <v>5.076824523881992</v>
+        <v>4.423909899222409</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.11175164238584</v>
+        <v>20.92329377910987</v>
       </c>
       <c r="G24">
-        <v>22.51402457036581</v>
+        <v>23.12654089832796</v>
       </c>
       <c r="H24">
-        <v>7.79355160608388</v>
+        <v>12.61297877311464</v>
       </c>
       <c r="I24">
-        <v>11.69398508379151</v>
+        <v>19.79983740575198</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.178083100911932</v>
+        <v>10.99786444163549</v>
       </c>
       <c r="M24">
-        <v>13.29146671797879</v>
+        <v>14.51619269132034</v>
       </c>
       <c r="N24">
-        <v>11.65837835985176</v>
+        <v>17.17057240245661</v>
       </c>
       <c r="O24">
-        <v>13.2023400704726</v>
+        <v>18.48032595385224</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.24629777957195</v>
+        <v>13.41236759686366</v>
       </c>
       <c r="C25">
-        <v>12.94143158533069</v>
+        <v>12.85670614079146</v>
       </c>
       <c r="D25">
-        <v>4.731913923422396</v>
+        <v>4.287729364564778</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.04143368373719</v>
+        <v>20.83359145171703</v>
       </c>
       <c r="G25">
-        <v>20.96330585839635</v>
+        <v>22.94638993247635</v>
       </c>
       <c r="H25">
-        <v>7.731640619534256</v>
+        <v>12.66535758752067</v>
       </c>
       <c r="I25">
-        <v>11.86328491916109</v>
+        <v>19.94910839729458</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.010170821228528</v>
+        <v>11.01498288780364</v>
       </c>
       <c r="M25">
-        <v>12.13645652590021</v>
+        <v>14.31895848987504</v>
       </c>
       <c r="N25">
-        <v>11.82050600565818</v>
+        <v>17.23513200502069</v>
       </c>
       <c r="O25">
-        <v>12.7736420308367</v>
+        <v>18.52183492305214</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70776290365992</v>
+        <v>24.98371051250663</v>
       </c>
       <c r="C2">
-        <v>12.69131016872478</v>
+        <v>18.35080476836368</v>
       </c>
       <c r="D2">
-        <v>4.182622127043061</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.089173518499756</v>
       </c>
       <c r="F2">
-        <v>20.78720747333976</v>
+        <v>11.96975067980497</v>
       </c>
       <c r="G2">
-        <v>22.84119725964578</v>
+        <v>2.056899586337271</v>
       </c>
       <c r="H2">
-        <v>12.71106418598867</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20.07234005538666</v>
-      </c>
-      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>11.03312828331078</v>
-      </c>
-      <c r="M2">
-        <v>14.17802749424162</v>
-      </c>
       <c r="N2">
-        <v>17.28809807930063</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.56714811764315</v>
+        <v>8.947849919547686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.20832658026121</v>
+        <v>23.35569231186523</v>
       </c>
       <c r="C3">
-        <v>12.57743168253566</v>
+        <v>17.24963294786852</v>
       </c>
       <c r="D3">
-        <v>4.108591130166841</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.83908754230777</v>
       </c>
       <c r="F3">
-        <v>20.7681487588767</v>
+        <v>11.85507024103254</v>
       </c>
       <c r="G3">
-        <v>22.78730416526058</v>
+        <v>2.062253644693342</v>
       </c>
       <c r="H3">
-        <v>12.74648852071505</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20.16415224079659</v>
-      </c>
-      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>11.04888789219697</v>
-      </c>
-      <c r="M3">
-        <v>14.08556281132667</v>
-      </c>
       <c r="N3">
-        <v>17.32739653074592</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18.60702234619806</v>
+        <v>9.190290097306722</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89193475148971</v>
+        <v>22.29763183517912</v>
       </c>
       <c r="C4">
-        <v>12.5067366346511</v>
+        <v>16.53752526906367</v>
       </c>
       <c r="D4">
-        <v>4.061835208402136</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.678891198735841</v>
       </c>
       <c r="F4">
-        <v>20.76257606239422</v>
+        <v>11.8175835282642</v>
       </c>
       <c r="G4">
-        <v>22.76285955512033</v>
+        <v>2.065633202108127</v>
       </c>
       <c r="H4">
-        <v>12.77043138438719</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20.22461299346757</v>
-      </c>
-      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>11.06027358841669</v>
-      </c>
-      <c r="M4">
-        <v>14.03041156531913</v>
-      </c>
       <c r="N4">
-        <v>17.35320943252564</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>18.63601129818921</v>
+        <v>9.363295804814371</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.76073905452347</v>
+        <v>21.85172299442845</v>
       </c>
       <c r="C5">
-        <v>12.47775028203376</v>
+        <v>16.23837554612769</v>
       </c>
       <c r="D5">
-        <v>4.042467594534772</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.611990250956106</v>
       </c>
       <c r="F5">
-        <v>20.76184924666492</v>
+        <v>11.81020969203352</v>
       </c>
       <c r="G5">
-        <v>22.75507969245062</v>
+        <v>2.067034236322081</v>
       </c>
       <c r="H5">
-        <v>12.78073920496492</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>20.25027833518541</v>
-      </c>
-      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>11.06534335862155</v>
-      </c>
-      <c r="M5">
-        <v>14.00836291690018</v>
-      </c>
       <c r="N5">
-        <v>17.36415244622912</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>18.64895525354677</v>
+        <v>9.439340535101762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.73882322128641</v>
+        <v>21.77678887795699</v>
       </c>
       <c r="C6">
-        <v>12.47292689141063</v>
+        <v>16.18816399667611</v>
       </c>
       <c r="D6">
-        <v>4.039233026864216</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.600785258106357</v>
       </c>
       <c r="F6">
-        <v>20.76182187425209</v>
+        <v>11.80945049947943</v>
       </c>
       <c r="G6">
-        <v>22.75391976741738</v>
+        <v>2.067268335570854</v>
       </c>
       <c r="H6">
-        <v>12.78248407403709</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20.25460205702457</v>
-      </c>
-      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>11.06621116613827</v>
-      </c>
-      <c r="M6">
-        <v>14.00472799322111</v>
-      </c>
       <c r="N6">
-        <v>17.36599515800569</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>18.6511728056407</v>
+        <v>9.452287985975296</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.89017430528027</v>
+        <v>22.29167788440014</v>
       </c>
       <c r="C7">
-        <v>12.5063464110985</v>
+        <v>16.53352697086502</v>
       </c>
       <c r="D7">
-        <v>4.061575264774799</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.677995432642146</v>
       </c>
       <c r="F7">
-        <v>20.76256000561537</v>
+        <v>11.81745262375414</v>
       </c>
       <c r="G7">
-        <v>22.76274579276737</v>
+        <v>2.065651999570962</v>
       </c>
       <c r="H7">
-        <v>12.77056816911158</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20.22495496760178</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>11.06034021980435</v>
-      </c>
-      <c r="M7">
-        <v>14.03011246170277</v>
-      </c>
       <c r="N7">
-        <v>17.35335529592619</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>18.63618128998401</v>
+        <v>9.364299588684341</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.53768222413327</v>
+        <v>24.43447168232198</v>
       </c>
       <c r="C8">
-        <v>12.65221543866398</v>
+        <v>17.97863288239513</v>
       </c>
       <c r="D8">
-        <v>4.157373703895566</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.004349900372382</v>
       </c>
       <c r="F8">
-        <v>20.77936596575148</v>
+        <v>11.9231653212557</v>
       </c>
       <c r="G8">
-        <v>22.82082582156576</v>
+        <v>2.058726953574421</v>
       </c>
       <c r="H8">
-        <v>12.72282331894077</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>20.10314801636012</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>11.03820758744758</v>
-      </c>
-      <c r="M8">
-        <v>14.14581988828823</v>
-      </c>
       <c r="N8">
-        <v>17.30129920621343</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>18.57996020247926</v>
+        <v>9.026099236753396</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.72312888668779</v>
+        <v>28.17525212689236</v>
       </c>
       <c r="C9">
-        <v>12.9313959827734</v>
+        <v>20.52453043416131</v>
       </c>
       <c r="D9">
-        <v>4.334381108428358</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.589879235097844</v>
       </c>
       <c r="F9">
-        <v>20.86077109379478</v>
+        <v>12.40532323887103</v>
       </c>
       <c r="G9">
-        <v>23.00285259179319</v>
+        <v>2.045846017866762</v>
       </c>
       <c r="H9">
-        <v>12.64660385267464</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.89675445547395</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>11.00835666687917</v>
-      </c>
-      <c r="M9">
-        <v>14.38478018275042</v>
-      </c>
       <c r="N9">
-        <v>17.21254327631753</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.50555719838466</v>
+        <v>8.580485091280046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.53457379173383</v>
+        <v>30.64667305069434</v>
       </c>
       <c r="C10">
-        <v>13.13135559138001</v>
+        <v>22.2178557599</v>
       </c>
       <c r="D10">
-        <v>4.457142801667773</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.985120987772013</v>
       </c>
       <c r="F10">
-        <v>20.94977542106611</v>
+        <v>12.94052390689108</v>
       </c>
       <c r="G10">
-        <v>23.17728706770177</v>
+        <v>2.036760854244872</v>
       </c>
       <c r="H10">
-        <v>12.60123588367079</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.76496004842377</v>
-      </c>
-      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>10.99466886271093</v>
-      </c>
-      <c r="M10">
-        <v>14.56657122816658</v>
-      </c>
       <c r="N10">
-        <v>17.15541483117702</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.47285550969034</v>
+        <v>8.424026119361564</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.88943867919518</v>
+        <v>31.71193436504113</v>
       </c>
       <c r="C11">
-        <v>13.2210020943582</v>
+        <v>22.94976312580754</v>
       </c>
       <c r="D11">
-        <v>4.511279262628511</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>6.157109210671551</v>
       </c>
       <c r="F11">
-        <v>20.99650325521111</v>
+        <v>13.22470699885162</v>
       </c>
       <c r="G11">
-        <v>23.26523904279984</v>
+        <v>2.032698581724072</v>
       </c>
       <c r="H11">
-        <v>12.58290838826547</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.70932318769093</v>
-      </c>
-      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>10.9902267666829</v>
-      </c>
-      <c r="M11">
-        <v>14.65037741689308</v>
-      </c>
       <c r="N11">
-        <v>17.13117128143998</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.4627638620713</v>
+        <v>8.398568960905164</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.02167223785595</v>
+        <v>32.10693262299534</v>
       </c>
       <c r="C12">
-        <v>13.25474302439954</v>
+        <v>23.22141592866466</v>
       </c>
       <c r="D12">
-        <v>4.531523685942976</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.221101905615672</v>
       </c>
       <c r="F12">
-        <v>21.01508419394041</v>
+        <v>13.3382039000068</v>
       </c>
       <c r="G12">
-        <v>23.29975643853343</v>
+        <v>2.031169448501527</v>
       </c>
       <c r="H12">
-        <v>12.57630072712931</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.68887682617747</v>
-      </c>
-      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>10.98880068698967</v>
-      </c>
-      <c r="M12">
-        <v>14.68225079300929</v>
-      </c>
       <c r="N12">
-        <v>17.12224106836674</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.45963111409364</v>
+        <v>8.396193066185592</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.99329018841697</v>
+        <v>32.02223444297735</v>
       </c>
       <c r="C13">
-        <v>13.24748575153866</v>
+        <v>23.16315506878629</v>
       </c>
       <c r="D13">
-        <v>4.52717522303267</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>6.207370583900915</v>
       </c>
       <c r="F13">
-        <v>21.01104323698746</v>
+        <v>13.31349876578895</v>
       </c>
       <c r="G13">
-        <v>23.29226902519771</v>
+        <v>2.031498383864999</v>
       </c>
       <c r="H13">
-        <v>12.57770901000628</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.6932526261088</v>
-      </c>
-      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>10.98909644107005</v>
-      </c>
-      <c r="M13">
-        <v>14.67538050848112</v>
-      </c>
       <c r="N13">
-        <v>17.12415322644433</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.46027516805644</v>
+        <v>8.396371200272643</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90036111905312</v>
+        <v>31.74459877363176</v>
       </c>
       <c r="C14">
-        <v>13.22378221074353</v>
+        <v>22.97222234982596</v>
       </c>
       <c r="D14">
-        <v>4.512949967862942</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>6.162396740027436</v>
       </c>
       <c r="F14">
-        <v>20.99801422941733</v>
+        <v>13.233926578021</v>
       </c>
       <c r="G14">
-        <v>23.26805467366338</v>
+        <v>2.032572601362332</v>
       </c>
       <c r="H14">
-        <v>12.58235810537159</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.70762857754173</v>
-      </c>
-      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>10.99010431428535</v>
-      </c>
-      <c r="M14">
-        <v>14.65299702148732</v>
-      </c>
       <c r="N14">
-        <v>17.13043157434505</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.46249232283846</v>
+        <v>8.39822412156485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.84315731737011</v>
+        <v>31.5734487008391</v>
       </c>
       <c r="C15">
-        <v>13.20923574861212</v>
+        <v>22.8545543734233</v>
       </c>
       <c r="D15">
-        <v>4.504202973505816</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>6.134700796341821</v>
       </c>
       <c r="F15">
-        <v>20.99014863274348</v>
+        <v>13.18595238563745</v>
       </c>
       <c r="G15">
-        <v>23.25337972381611</v>
+        <v>2.033231752922316</v>
       </c>
       <c r="H15">
-        <v>12.58524912829052</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.71651531968778</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>10.99075499203359</v>
-      </c>
-      <c r="M15">
-        <v>14.63930378995092</v>
-      </c>
       <c r="N15">
-        <v>17.13430982289745</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.46394010346377</v>
+        <v>8.400324813993718</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.51108707116289</v>
+        <v>30.57587611342716</v>
       </c>
       <c r="C16">
-        <v>13.1254690368657</v>
+        <v>22.16925242424012</v>
       </c>
       <c r="D16">
-        <v>4.453569590823665</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.973722823824498</v>
       </c>
       <c r="F16">
-        <v>20.94684628247445</v>
+        <v>12.92277481143978</v>
       </c>
       <c r="G16">
-        <v>23.17171020314955</v>
+        <v>2.037027671025148</v>
       </c>
       <c r="H16">
-        <v>12.6024801507135</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.76868303086074</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>10.9949950270548</v>
-      </c>
-      <c r="M16">
-        <v>14.56111475906313</v>
-      </c>
       <c r="N16">
-        <v>17.157034259194</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.47361137083675</v>
+        <v>8.426669670877358</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.30364723246644</v>
+        <v>29.94884889891307</v>
       </c>
       <c r="C17">
-        <v>13.07373157906143</v>
+        <v>21.7390158847224</v>
       </c>
       <c r="D17">
-        <v>4.422062605836294</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.872957379736494</v>
       </c>
       <c r="F17">
-        <v>20.92187228875226</v>
+        <v>12.77178978429814</v>
       </c>
       <c r="G17">
-        <v>23.12379462383211</v>
+        <v>2.039373746075245</v>
       </c>
       <c r="H17">
-        <v>12.61364285622319</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.80179286816051</v>
-      </c>
-      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>10.99805283903564</v>
-      </c>
-      <c r="M17">
-        <v>14.5134169172086</v>
-      </c>
       <c r="N17">
-        <v>17.17142136246748</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>18.48077045444373</v>
+        <v>8.455043397140193</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.18299533084551</v>
+        <v>29.58264014438648</v>
       </c>
       <c r="C18">
-        <v>13.04385067795543</v>
+        <v>21.48793948692022</v>
       </c>
       <c r="D18">
-        <v>4.403780382675728</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>5.814265129380098</v>
       </c>
       <c r="F18">
-        <v>20.90809593533315</v>
+        <v>12.68878188544905</v>
       </c>
       <c r="G18">
-        <v>23.09704606958049</v>
+        <v>2.040729856560593</v>
       </c>
       <c r="H18">
-        <v>12.62028082045236</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.82124303360698</v>
-      </c>
-      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>10.99997962186756</v>
-      </c>
-      <c r="M18">
-        <v>14.48608802642946</v>
-      </c>
       <c r="N18">
-        <v>17.17986067375099</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.48533849188179</v>
+        <v>8.475626381115298</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.14191797913313</v>
+        <v>29.45769067403642</v>
       </c>
       <c r="C19">
-        <v>13.03371293638706</v>
+        <v>21.40230802618977</v>
       </c>
       <c r="D19">
-        <v>4.397563136618069</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>5.794267233057262</v>
       </c>
       <c r="F19">
-        <v>20.90353280795248</v>
+        <v>12.66133371426644</v>
       </c>
       <c r="G19">
-        <v>23.08812951109152</v>
+        <v>2.041190193819032</v>
       </c>
       <c r="H19">
-        <v>12.62256566220378</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.82789826173835</v>
-      </c>
-      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>11.00066086936246</v>
-      </c>
-      <c r="M19">
-        <v>14.47685373435124</v>
-      </c>
       <c r="N19">
-        <v>17.18274630346622</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.48696246536672</v>
+        <v>8.483305968298904</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.32586876375347</v>
+        <v>30.01617174234608</v>
       </c>
       <c r="C20">
-        <v>13.07925196200382</v>
+        <v>21.78518943059252</v>
       </c>
       <c r="D20">
-        <v>4.4254332382847</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.883760171608206</v>
       </c>
       <c r="F20">
-        <v>20.92447003028871</v>
+        <v>12.78746515185425</v>
       </c>
       <c r="G20">
-        <v>23.12881153273427</v>
+        <v>2.039123314864497</v>
       </c>
       <c r="H20">
-        <v>12.61243205740461</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.7982262133181</v>
-      </c>
-      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>10.99770994516962</v>
-      </c>
-      <c r="M20">
-        <v>14.51848365598054</v>
-      </c>
       <c r="N20">
-        <v>17.1698728376644</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.47996174458903</v>
+        <v>8.451576611453584</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.92771557157753</v>
+        <v>31.82637412615086</v>
       </c>
       <c r="C21">
-        <v>13.23075024667185</v>
+        <v>23.02845312156512</v>
       </c>
       <c r="D21">
-        <v>4.517135292726413</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6.175637541355583</v>
       </c>
       <c r="F21">
-        <v>21.00181721085599</v>
+        <v>13.25713923071785</v>
       </c>
       <c r="G21">
-        <v>23.27513433687901</v>
+        <v>2.032256837295023</v>
       </c>
       <c r="H21">
-        <v>12.58098352550835</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.70338911756792</v>
-      </c>
-      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>10.98980133345883</v>
-      </c>
-      <c r="M21">
-        <v>14.65956802753269</v>
-      </c>
       <c r="N21">
-        <v>17.12858068288496</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.46182239464338</v>
+        <v>8.397477455934141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.30851351695131</v>
+        <v>32.9605717256979</v>
       </c>
       <c r="C22">
-        <v>13.32855329375342</v>
+        <v>23.80892834006813</v>
       </c>
       <c r="D22">
-        <v>4.575572150217563</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>6.359775168598141</v>
       </c>
       <c r="F22">
-        <v>21.05752695506977</v>
+        <v>13.59836782739251</v>
       </c>
       <c r="G22">
-        <v>23.37781519382322</v>
+        <v>2.027822080147187</v>
       </c>
       <c r="H22">
-        <v>12.5623686362246</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.64503436093638</v>
-      </c>
-      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>10.98612470329616</v>
-      </c>
-      <c r="M22">
-        <v>14.75256786666709</v>
-      </c>
       <c r="N22">
-        <v>17.10305252219388</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.45398184442754</v>
+        <v>8.404742105068278</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.10645013404494</v>
+        <v>32.35966928736635</v>
       </c>
       <c r="C23">
-        <v>13.27647018972868</v>
+        <v>23.39529993411157</v>
       </c>
       <c r="D23">
-        <v>4.544523362806483</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.262106186387219</v>
       </c>
       <c r="F23">
-        <v>21.02732559396424</v>
+        <v>13.41311556461324</v>
       </c>
       <c r="G23">
-        <v>23.32237627512529</v>
+        <v>2.030184502594279</v>
       </c>
       <c r="H23">
-        <v>12.57212628805301</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.67584709943421</v>
-      </c>
-      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>10.98795067305931</v>
-      </c>
-      <c r="M23">
-        <v>14.70286671110003</v>
-      </c>
       <c r="N23">
-        <v>17.1165440967457</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.45779902093464</v>
+        <v>8.396750486255597</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.31582673781545</v>
+        <v>29.98575291582253</v>
       </c>
       <c r="C24">
-        <v>13.07675662028608</v>
+        <v>21.76432598251279</v>
       </c>
       <c r="D24">
-        <v>4.423909899222409</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.878878598288005</v>
       </c>
       <c r="F24">
-        <v>20.92329377910987</v>
+        <v>12.78036649898229</v>
       </c>
       <c r="G24">
-        <v>23.12654089832796</v>
+        <v>2.039236511938483</v>
       </c>
       <c r="H24">
-        <v>12.61297877311464</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.79983740575198</v>
-      </c>
-      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>10.99786444163549</v>
-      </c>
-      <c r="M24">
-        <v>14.51619269132034</v>
-      </c>
       <c r="N24">
-        <v>17.17057240245661</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.48032595385224</v>
+        <v>8.453130696572336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.41236759686366</v>
+        <v>27.2122437783038</v>
       </c>
       <c r="C25">
-        <v>12.85670614079146</v>
+        <v>19.8668655243521</v>
       </c>
       <c r="D25">
-        <v>4.287729364564778</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.437516571740286</v>
       </c>
       <c r="F25">
-        <v>20.83359145171703</v>
+        <v>12.24380839798648</v>
       </c>
       <c r="G25">
-        <v>22.94638993247635</v>
+        <v>2.049260552717838</v>
       </c>
       <c r="H25">
-        <v>12.66535758752067</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>19.94910839729458</v>
-      </c>
-      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>11.01498288780364</v>
-      </c>
-      <c r="M25">
-        <v>14.31895848987504</v>
-      </c>
       <c r="N25">
-        <v>17.23513200502069</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.52183492305214</v>
+        <v>8.673908509820352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,923 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.98371051250663</v>
+        <v>24.53385390950702</v>
       </c>
       <c r="C2">
-        <v>18.35080476836368</v>
+        <v>19.06711810869958</v>
       </c>
       <c r="D2">
-        <v>5.089173518499756</v>
+        <v>5.314687705786882</v>
       </c>
       <c r="F2">
-        <v>11.96975067980497</v>
+        <v>12.75558816062829</v>
       </c>
       <c r="G2">
-        <v>2.056899586337271</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>2.069199448610653</v>
       </c>
       <c r="I2">
+        <v>3.220110002747786</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>8.947849919547686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.01491832863072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.35569231186523</v>
+        <v>22.93203602917848</v>
       </c>
       <c r="C3">
-        <v>17.24963294786852</v>
+        <v>17.97227376874388</v>
       </c>
       <c r="D3">
-        <v>4.83908754230777</v>
+        <v>5.063862826760223</v>
       </c>
       <c r="F3">
-        <v>11.85507024103254</v>
+        <v>12.6959423033754</v>
       </c>
       <c r="G3">
-        <v>2.062253644693342</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>2.073787816640307</v>
       </c>
       <c r="I3">
+        <v>3.034492381375355</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>9.190290097306722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.24894800762833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.29763183517912</v>
+        <v>21.88929505810731</v>
       </c>
       <c r="C4">
-        <v>16.53752526906367</v>
+        <v>17.27090139500353</v>
       </c>
       <c r="D4">
-        <v>4.678891198735841</v>
+        <v>4.904270761660214</v>
       </c>
       <c r="F4">
-        <v>11.8175835282642</v>
+        <v>12.67987917096372</v>
       </c>
       <c r="G4">
-        <v>2.065633202108127</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>2.076691844614752</v>
       </c>
       <c r="I4">
+        <v>2.917689665062674</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>9.363295804814371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.40660905326871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.85172299442845</v>
+        <v>21.44926521820415</v>
       </c>
       <c r="C5">
-        <v>16.23837554612769</v>
+        <v>16.99368229355842</v>
       </c>
       <c r="D5">
-        <v>4.611990250956106</v>
+        <v>4.840864807649962</v>
       </c>
       <c r="F5">
-        <v>11.81020969203352</v>
+        <v>12.66611688429246</v>
       </c>
       <c r="G5">
-        <v>2.067034236322081</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>2.077902723150761</v>
       </c>
       <c r="I5">
+        <v>2.869845503232816</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>9.439340535101762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.46619636482705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.77678887795699</v>
+        <v>21.3750852236567</v>
       </c>
       <c r="C6">
-        <v>16.18816399667611</v>
+        <v>16.96655713079997</v>
       </c>
       <c r="D6">
-        <v>4.600785258106357</v>
+        <v>4.833909333834689</v>
       </c>
       <c r="F6">
-        <v>11.80945049947943</v>
+        <v>12.64928146920682</v>
       </c>
       <c r="G6">
-        <v>2.067268335570854</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>2.078111421006362</v>
       </c>
       <c r="I6">
+        <v>2.862639495840858</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>9.452287985975296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.46661463253633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.29167788440014</v>
+        <v>21.88286519703079</v>
       </c>
       <c r="C7">
-        <v>16.53352697086502</v>
+        <v>17.318975901659</v>
       </c>
       <c r="D7">
-        <v>4.677995432642146</v>
+        <v>4.913261108003987</v>
       </c>
       <c r="F7">
-        <v>11.81745262375414</v>
+        <v>12.63919404939067</v>
       </c>
       <c r="G7">
-        <v>2.065651999570962</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>2.076724694390269</v>
       </c>
       <c r="I7">
+        <v>2.918839928339288</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>9.364299588684341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.38085073453139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.43447168232198</v>
+        <v>23.99315377193818</v>
       </c>
       <c r="C8">
-        <v>17.97863288239513</v>
+        <v>18.75986097746637</v>
       </c>
       <c r="D8">
-        <v>5.004349900372382</v>
+        <v>5.241801640666059</v>
       </c>
       <c r="F8">
-        <v>11.9231653212557</v>
+        <v>12.67753412917214</v>
       </c>
       <c r="G8">
-        <v>2.058726953574421</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>2.070783518480227</v>
       </c>
       <c r="I8">
+        <v>3.158546728378457</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>9.026099236753396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.0567964244743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.17525212689236</v>
+        <v>27.66466234263435</v>
       </c>
       <c r="C9">
-        <v>20.52453043416131</v>
+        <v>21.26631122079471</v>
       </c>
       <c r="D9">
-        <v>5.589879235097844</v>
+        <v>5.823547058764007</v>
       </c>
       <c r="F9">
-        <v>12.40532323887103</v>
+        <v>12.9976325744347</v>
       </c>
       <c r="G9">
-        <v>2.045846017866762</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>2.059772414510673</v>
       </c>
       <c r="I9">
+        <v>3.604992535839462</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>8.580485091280046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>9.593785348830334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.64667305069434</v>
+        <v>30.08049797284568</v>
       </c>
       <c r="C10">
-        <v>22.2178557599</v>
+        <v>22.98259475193397</v>
       </c>
       <c r="D10">
-        <v>5.985120987772013</v>
+        <v>6.225285967079124</v>
       </c>
       <c r="F10">
-        <v>12.94052390689108</v>
+        <v>13.33073241745573</v>
       </c>
       <c r="G10">
-        <v>2.036760854244872</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>2.052059268433938</v>
       </c>
       <c r="I10">
+        <v>3.922072829363777</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>8.424026119361564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>9.335051150040485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.71193436504113</v>
+        <v>31.11873641494</v>
       </c>
       <c r="C11">
-        <v>22.94976312580754</v>
+        <v>23.79490541957205</v>
       </c>
       <c r="D11">
-        <v>6.157109210671551</v>
+        <v>6.414209914125276</v>
       </c>
       <c r="F11">
-        <v>13.22470699885162</v>
+        <v>13.44946161840823</v>
       </c>
       <c r="G11">
-        <v>2.032698581724072</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>2.048639138853842</v>
       </c>
       <c r="I11">
+        <v>4.067042648647408</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>8.398568960905164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9.196560385663087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.10693262299534</v>
+        <v>31.50363810293012</v>
       </c>
       <c r="C12">
-        <v>23.22141592866466</v>
+        <v>24.06268494221255</v>
       </c>
       <c r="D12">
-        <v>6.221101905615672</v>
+        <v>6.47767653949748</v>
       </c>
       <c r="F12">
-        <v>13.3382039000068</v>
+        <v>13.5310222688367</v>
       </c>
       <c r="G12">
-        <v>2.031169448501527</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>2.047344342141149</v>
       </c>
       <c r="I12">
+        <v>4.120094869365594</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>8.396193066185592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.172673532971658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.02223444297735</v>
+        <v>31.42118511280263</v>
       </c>
       <c r="C13">
-        <v>23.16315506878629</v>
+        <v>23.9983293298254</v>
       </c>
       <c r="D13">
-        <v>6.207370583900915</v>
+        <v>6.462657441019854</v>
       </c>
       <c r="F13">
-        <v>13.31349876578895</v>
+        <v>13.51971832963163</v>
       </c>
       <c r="G13">
-        <v>2.031498383864999</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>2.047620999838445</v>
       </c>
       <c r="I13">
+        <v>4.108322174163146</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>8.396371200272643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.182563173527289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.74459877363176</v>
+        <v>31.15060064420495</v>
       </c>
       <c r="C14">
-        <v>22.97222234982596</v>
+        <v>23.81408037256253</v>
       </c>
       <c r="D14">
-        <v>6.162396740027436</v>
+        <v>6.418855248450933</v>
       </c>
       <c r="F14">
-        <v>13.233926578021</v>
+        <v>13.4588399682049</v>
       </c>
       <c r="G14">
-        <v>2.032572601362332</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>2.048531659945297</v>
       </c>
       <c r="I14">
+        <v>4.071254209255661</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>8.39822412156485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.196604822808361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.5734487008391</v>
+        <v>30.98362043796636</v>
       </c>
       <c r="C15">
-        <v>22.8545543734233</v>
+        <v>23.71438219004465</v>
       </c>
       <c r="D15">
-        <v>6.134700796341821</v>
+        <v>6.394674964362923</v>
       </c>
       <c r="F15">
-        <v>13.18595238563745</v>
+        <v>13.40927532528132</v>
       </c>
       <c r="G15">
-        <v>2.033231752922316</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>2.049094286920452</v>
       </c>
       <c r="I15">
+        <v>4.049301864210974</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>8.400324813993718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.196056459645943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.57587611342716</v>
+        <v>30.0103560442967</v>
       </c>
       <c r="C16">
-        <v>22.16925242424012</v>
+        <v>23.04718615958642</v>
       </c>
       <c r="D16">
-        <v>5.973722823824498</v>
+        <v>6.236602630188007</v>
       </c>
       <c r="F16">
-        <v>12.92277481143978</v>
+        <v>13.21433231638923</v>
       </c>
       <c r="G16">
-        <v>2.037027671025148</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>2.052315720833751</v>
       </c>
       <c r="I16">
+        <v>3.918263667120823</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>8.426669670877358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.263116517923597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.94884889891307</v>
+        <v>29.39792772792876</v>
       </c>
       <c r="C17">
-        <v>21.7390158847224</v>
+        <v>22.62970615923267</v>
       </c>
       <c r="D17">
-        <v>5.872957379736494</v>
+        <v>6.137877505585496</v>
       </c>
       <c r="F17">
-        <v>12.77178978429814</v>
+        <v>13.10203914420649</v>
       </c>
       <c r="G17">
-        <v>2.039373746075245</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>2.054310099301877</v>
       </c>
       <c r="I17">
+        <v>3.837485020575172</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>8.455043397140193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.311545787828495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.58264014438648</v>
+        <v>29.04034465329137</v>
       </c>
       <c r="C18">
-        <v>21.48793948692022</v>
+        <v>22.34973559939036</v>
       </c>
       <c r="D18">
-        <v>5.814265129380098</v>
+        <v>6.073078769751543</v>
       </c>
       <c r="F18">
-        <v>12.68878188544905</v>
+        <v>13.07365788302978</v>
       </c>
       <c r="G18">
-        <v>2.040729856560593</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>2.055454222181956</v>
       </c>
       <c r="I18">
+        <v>3.788375503269076</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>8.475626381115298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.366448366605903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45769067403642</v>
+        <v>28.91803709798217</v>
       </c>
       <c r="C19">
-        <v>21.40230802618977</v>
+        <v>22.28278822665724</v>
       </c>
       <c r="D19">
-        <v>5.794267233057262</v>
+        <v>6.056708650161928</v>
       </c>
       <c r="F19">
-        <v>12.66133371426644</v>
+        <v>13.03865494327525</v>
       </c>
       <c r="G19">
-        <v>2.041190193819032</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>2.055850407708506</v>
       </c>
       <c r="I19">
+        <v>3.773577769615472</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>8.483305968298904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9.366545054533692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.01617174234608</v>
+        <v>29.46373399999934</v>
       </c>
       <c r="C20">
-        <v>21.78518943059252</v>
+        <v>22.67159728157691</v>
       </c>
       <c r="D20">
-        <v>5.883760171608206</v>
+        <v>6.147879369903306</v>
       </c>
       <c r="F20">
-        <v>12.78746515185425</v>
+        <v>13.11633502915989</v>
       </c>
       <c r="G20">
-        <v>2.039123314864497</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>2.054096327992672</v>
       </c>
       <c r="I20">
+        <v>3.845899825266375</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>8.451576611453584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9.308051498185465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.82637412615086</v>
+        <v>31.22996165241411</v>
       </c>
       <c r="C21">
-        <v>23.02845312156512</v>
+        <v>23.90711366645766</v>
       </c>
       <c r="D21">
-        <v>6.175637541355583</v>
+        <v>6.439594274273031</v>
       </c>
       <c r="F21">
-        <v>13.25713923071785</v>
+        <v>13.44039644319587</v>
       </c>
       <c r="G21">
-        <v>2.032256837295023</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>2.048273914821479</v>
       </c>
       <c r="I21">
+        <v>4.084398083163364</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>8.397477455934141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9.164710717969951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.9605717256979</v>
+        <v>32.33475555212598</v>
       </c>
       <c r="C22">
-        <v>23.80892834006813</v>
+        <v>24.63857118961131</v>
       </c>
       <c r="D22">
-        <v>6.359775168598141</v>
+        <v>6.614498155966358</v>
       </c>
       <c r="F22">
-        <v>13.59836782739251</v>
+        <v>13.72219132991699</v>
       </c>
       <c r="G22">
-        <v>2.027822080147187</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>2.044512503741833</v>
       </c>
       <c r="I22">
+        <v>4.236099864775229</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>8.404742105068278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9.131711481491791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.35966928736635</v>
+        <v>31.75007127485545</v>
       </c>
       <c r="C23">
-        <v>23.39529993411157</v>
+        <v>24.2042969633457</v>
       </c>
       <c r="D23">
-        <v>6.262106186387219</v>
+        <v>6.512296390881469</v>
       </c>
       <c r="F23">
-        <v>13.41311556461324</v>
+        <v>13.61297576769999</v>
       </c>
       <c r="G23">
-        <v>2.030184502594279</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>2.046503180115379</v>
       </c>
       <c r="I23">
+        <v>4.152858098330267</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>8.396750486255597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>9.180219962713023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.98575291582253</v>
+        <v>29.43471007114272</v>
       </c>
       <c r="C24">
-        <v>21.76432598251279</v>
+        <v>22.57552183139464</v>
       </c>
       <c r="D24">
-        <v>5.878878598288005</v>
+        <v>6.127888728196136</v>
       </c>
       <c r="F24">
-        <v>12.78036649898229</v>
+        <v>13.18048988028064</v>
       </c>
       <c r="G24">
-        <v>2.039236511938483</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>2.054172278923447</v>
       </c>
       <c r="I24">
+        <v>3.837629260715437</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>8.453130696572336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9.36166169825445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.2122437783038</v>
+        <v>26.72035304269055</v>
       </c>
       <c r="C25">
-        <v>19.8668655243521</v>
+        <v>20.69415554653931</v>
       </c>
       <c r="D25">
-        <v>5.437516571740286</v>
+        <v>5.687195642255703</v>
       </c>
       <c r="F25">
-        <v>12.24380839798648</v>
+        <v>12.8203726208852</v>
       </c>
       <c r="G25">
-        <v>2.049260552717838</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>2.062706514262684</v>
       </c>
       <c r="I25">
+        <v>3.489586375791201</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>8.673908509820352</v>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9.653978804612695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -427,37 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.53385390950702</v>
+        <v>12.82654804784184</v>
       </c>
       <c r="C2">
-        <v>19.06711810869958</v>
+        <v>8.371298315615682</v>
       </c>
       <c r="D2">
-        <v>5.314687705786882</v>
+        <v>6.298827022480269</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>12.75558816062829</v>
+        <v>21.81536373552344</v>
       </c>
       <c r="G2">
-        <v>2.069199448610653</v>
+        <v>23.93811350371559</v>
+      </c>
+      <c r="H2">
+        <v>3.307306745292014</v>
       </c>
       <c r="I2">
-        <v>3.220110002747786</v>
+        <v>3.746530772850477</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.795091956988914</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.37341171899</v>
+      </c>
+      <c r="L2">
+        <v>6.492308764494754</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.08438403566629</v>
+      </c>
+      <c r="N2">
+        <v>6.896048558410669</v>
+      </c>
+      <c r="O2">
+        <v>9.818528862557343</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.01491832863072</v>
+        <v>15.9684662185562</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -465,37 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.93203602917848</v>
+        <v>12.00529728400475</v>
       </c>
       <c r="C3">
-        <v>17.97227376874388</v>
+        <v>8.23547631697971</v>
       </c>
       <c r="D3">
-        <v>5.063862826760223</v>
+        <v>6.105458867501209</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12.6959423033754</v>
+        <v>21.74655584083742</v>
       </c>
       <c r="G3">
-        <v>2.073787816640307</v>
+        <v>23.91313936294618</v>
+      </c>
+      <c r="H3">
+        <v>3.477064652019621</v>
       </c>
       <c r="I3">
-        <v>3.034492381375355</v>
+        <v>3.877412805559021</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.855406747405487</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.49139829613075</v>
+      </c>
+      <c r="L3">
+        <v>6.466633196279009</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.53660873726242</v>
+      </c>
+      <c r="N3">
+        <v>6.747334187537319</v>
+      </c>
+      <c r="O3">
+        <v>9.433700681122541</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.24894800762833</v>
+        <v>16.03840947789464</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -503,37 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.88929505810731</v>
+        <v>11.46970723161125</v>
       </c>
       <c r="C4">
-        <v>17.27090139500353</v>
+        <v>8.151038451319673</v>
       </c>
       <c r="D4">
-        <v>4.904270761660214</v>
+        <v>5.984602689576015</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12.67987917096372</v>
+        <v>21.71118782586281</v>
       </c>
       <c r="G4">
-        <v>2.076691844614752</v>
+        <v>23.90811906059376</v>
+      </c>
+      <c r="H4">
+        <v>3.585293355060962</v>
       </c>
       <c r="I4">
-        <v>2.917689665062674</v>
+        <v>3.961521255723194</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.894854331694267</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.5673303707323</v>
+      </c>
+      <c r="L4">
+        <v>6.45008570306898</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.18488082026203</v>
+      </c>
+      <c r="N4">
+        <v>6.655059159227708</v>
+      </c>
+      <c r="O4">
+        <v>9.18979073040024</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.40660905326871</v>
+        <v>16.08651367415604</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -541,37 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.44926521820415</v>
+        <v>11.24132327415805</v>
       </c>
       <c r="C5">
-        <v>16.99368229355842</v>
+        <v>8.119264127016677</v>
       </c>
       <c r="D5">
-        <v>4.840864807649962</v>
+        <v>5.93528422796817</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12.66611688429246</v>
+        <v>21.69250591060827</v>
       </c>
       <c r="G5">
-        <v>2.077902723150761</v>
+        <v>23.89890019342504</v>
+      </c>
+      <c r="H5">
+        <v>3.630676230839613</v>
       </c>
       <c r="I5">
-        <v>2.869845503232816</v>
+        <v>3.999167445246989</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.909939788996494</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.59504478996723</v>
+      </c>
+      <c r="L5">
+        <v>6.442658636231477</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.03925963722219</v>
+      </c>
+      <c r="N5">
+        <v>6.618361747648066</v>
+      </c>
+      <c r="O5">
+        <v>9.088847500042561</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.46619636482705</v>
+        <v>16.10342654702052</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -579,37 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.3750852236567</v>
+        <v>11.20018263644332</v>
       </c>
       <c r="C6">
-        <v>16.96655713079997</v>
+        <v>8.117543270066674</v>
       </c>
       <c r="D6">
-        <v>4.833909333834689</v>
+        <v>5.927560755379779</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>12.64928146920682</v>
+        <v>21.68219815731505</v>
       </c>
       <c r="G6">
-        <v>2.078111421006362</v>
+        <v>23.88566635519101</v>
+      </c>
+      <c r="H6">
+        <v>3.638594376913969</v>
       </c>
       <c r="I6">
-        <v>2.862639495840858</v>
+        <v>4.00857611971134</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.910539038243456</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.59469759259862</v>
+      </c>
+      <c r="L6">
+        <v>6.440820697121423</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.0166688438189</v>
+      </c>
+      <c r="N6">
+        <v>6.613621439294269</v>
+      </c>
+      <c r="O6">
+        <v>9.072286763939291</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.46661463253633</v>
+        <v>16.10147411688008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -617,37 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.88286519703079</v>
+        <v>11.45934878732882</v>
       </c>
       <c r="C7">
-        <v>17.318975901659</v>
+        <v>8.160368293719147</v>
       </c>
       <c r="D7">
-        <v>4.913261108003987</v>
+        <v>5.985270464654705</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>12.63919404939067</v>
+        <v>21.69103512298606</v>
       </c>
       <c r="G7">
-        <v>2.076724694390269</v>
+        <v>23.8756806417803</v>
+      </c>
+      <c r="H7">
+        <v>3.586759217536274</v>
       </c>
       <c r="I7">
-        <v>2.918839928339288</v>
+        <v>3.970211882081841</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.889767078149331</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.55406536624704</v>
+      </c>
+      <c r="L7">
+        <v>6.448388472979094</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.18781985347604</v>
+      </c>
+      <c r="N7">
+        <v>6.658266860788655</v>
+      </c>
+      <c r="O7">
+        <v>9.189253075046908</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.38085073453139</v>
+        <v>16.07355308508615</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -655,37 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.99315377193818</v>
+        <v>12.54094675902676</v>
       </c>
       <c r="C8">
-        <v>18.75986097746637</v>
+        <v>8.337668554364818</v>
       </c>
       <c r="D8">
-        <v>5.241801640666059</v>
+        <v>6.234331693612314</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>12.67753412917214</v>
+        <v>21.76419523425427</v>
       </c>
       <c r="G8">
-        <v>2.070783518480227</v>
+        <v>23.88495554836365</v>
+      </c>
+      <c r="H8">
+        <v>3.36607422828899</v>
       </c>
       <c r="I8">
-        <v>3.158546728378457</v>
+        <v>3.801224628197413</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.80844703223611</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.39544050237205</v>
+      </c>
+      <c r="L8">
+        <v>6.481593143729722</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.90492748682406</v>
+      </c>
+      <c r="N8">
+        <v>6.849773578845117</v>
+      </c>
+      <c r="O8">
+        <v>9.688491300952006</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.0567964244743</v>
+        <v>15.97416920864105</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -693,37 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.66466234263435</v>
+        <v>14.42544425680382</v>
       </c>
       <c r="C9">
-        <v>21.26631122079471</v>
+        <v>8.659577525407212</v>
       </c>
       <c r="D9">
-        <v>5.823547058764007</v>
+        <v>6.701020995976351</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>12.9976325744347</v>
+        <v>21.99827016881652</v>
       </c>
       <c r="G9">
-        <v>2.059772414510673</v>
+        <v>24.04529317489435</v>
+      </c>
+      <c r="H9">
+        <v>2.963129833678333</v>
       </c>
       <c r="I9">
-        <v>3.604992535839462</v>
+        <v>3.485905666872854</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.677892601935957</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.13678063331597</v>
+      </c>
+      <c r="L9">
+        <v>6.543263869592477</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.17739885590471</v>
+      </c>
+      <c r="N9">
+        <v>7.209859789682365</v>
+      </c>
+      <c r="O9">
+        <v>10.60117479343848</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9.593785348830334</v>
+        <v>15.84504014062154</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -731,37 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.08049797284568</v>
+        <v>15.651134379572</v>
       </c>
       <c r="C10">
-        <v>22.98259475193397</v>
+        <v>8.920911489683171</v>
       </c>
       <c r="D10">
-        <v>6.225285967079124</v>
+        <v>6.984991350557221</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>13.33073241745573</v>
+        <v>22.08420872098426</v>
       </c>
       <c r="G10">
-        <v>2.052059268433938</v>
+        <v>24.05970643481795</v>
+      </c>
+      <c r="H10">
+        <v>2.710696954220417</v>
       </c>
       <c r="I10">
-        <v>3.922072829363777</v>
+        <v>3.280609590758042</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.568486017278435</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.9044347991307</v>
+      </c>
+      <c r="L10">
+        <v>6.567475357777865</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.04940410420959</v>
+      </c>
+      <c r="N10">
+        <v>7.396729783696003</v>
+      </c>
+      <c r="O10">
+        <v>11.17247186078091</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9.335051150040485</v>
+        <v>15.71251498247165</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -769,37 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.11873641494</v>
+        <v>16.11995562193669</v>
       </c>
       <c r="C11">
-        <v>23.79490541957205</v>
+        <v>9.295980019959021</v>
       </c>
       <c r="D11">
-        <v>6.414209914125276</v>
+        <v>6.72912571082438</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>13.44946161840823</v>
+        <v>21.13941950518103</v>
       </c>
       <c r="G11">
-        <v>2.048639138853842</v>
+        <v>22.79051978925086</v>
+      </c>
+      <c r="H11">
+        <v>3.453367065638046</v>
       </c>
       <c r="I11">
-        <v>4.067042648647408</v>
+        <v>3.238447773608862</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.311951917018263</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.33065741084902</v>
+      </c>
+      <c r="L11">
+        <v>6.483182879292859</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.5671228972061</v>
+      </c>
+      <c r="N11">
+        <v>6.882223705702409</v>
+      </c>
+      <c r="O11">
+        <v>10.94990058636559</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9.196560385663087</v>
+        <v>15.12976520725343</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -807,37 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50363810293012</v>
+        <v>16.27614635483237</v>
       </c>
       <c r="C12">
-        <v>24.06268494221255</v>
+        <v>9.571597742980567</v>
       </c>
       <c r="D12">
-        <v>6.47767653949748</v>
+        <v>6.449457235362202</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>13.5310222688367</v>
+        <v>20.35230759104306</v>
       </c>
       <c r="G12">
-        <v>2.047344342141149</v>
+        <v>21.76191587848855</v>
+      </c>
+      <c r="H12">
+        <v>4.643182251348978</v>
       </c>
       <c r="I12">
-        <v>4.120094869365594</v>
+        <v>3.227552573456639</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.127468683085864</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.93253719424344</v>
+      </c>
+      <c r="L12">
+        <v>6.479225797279963</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.82307024212031</v>
+      </c>
+      <c r="N12">
+        <v>6.430585804432348</v>
+      </c>
+      <c r="O12">
+        <v>10.63598419323319</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.172673532971658</v>
+        <v>14.6876809333708</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -845,37 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42118511280263</v>
+        <v>16.19814256540185</v>
       </c>
       <c r="C13">
-        <v>23.9983293298254</v>
+        <v>9.800198248552928</v>
       </c>
       <c r="D13">
-        <v>6.462657441019854</v>
+        <v>6.131869352443098</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>13.51971832963163</v>
+        <v>19.60946154784427</v>
       </c>
       <c r="G13">
-        <v>2.047620999838445</v>
+        <v>20.80826941532081</v>
+      </c>
+      <c r="H13">
+        <v>5.959303875173553</v>
       </c>
       <c r="I13">
-        <v>4.108322174163146</v>
+        <v>3.253542029418234</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.979803125511742</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.62778574351303</v>
+      </c>
+      <c r="L13">
+        <v>6.531666334982339</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.90570432248658</v>
+      </c>
+      <c r="N13">
+        <v>6.008675330144618</v>
+      </c>
+      <c r="O13">
+        <v>10.22703406642413</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.182563173527289</v>
+        <v>14.30864658862026</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -883,37 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.15060064420495</v>
+        <v>16.03489068029869</v>
       </c>
       <c r="C14">
-        <v>23.81408037256253</v>
+        <v>9.945695839623209</v>
       </c>
       <c r="D14">
-        <v>6.418855248450933</v>
+        <v>5.891362003260305</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>13.4588399682049</v>
+        <v>19.11055240109639</v>
       </c>
       <c r="G14">
-        <v>2.048531659945297</v>
+        <v>20.17557263705078</v>
+      </c>
+      <c r="H14">
+        <v>6.918506145415404</v>
       </c>
       <c r="I14">
-        <v>4.071254209255661</v>
+        <v>3.291018924720569</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.893299625418315</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.45960963765783</v>
+      </c>
+      <c r="L14">
+        <v>6.60097724607096</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.88745161005199</v>
+      </c>
+      <c r="N14">
+        <v>5.737714929198182</v>
+      </c>
+      <c r="O14">
+        <v>9.89399954747987</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.196604822808361</v>
+        <v>14.07278327064798</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -921,37 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.98362043796636</v>
+        <v>15.94200884760321</v>
       </c>
       <c r="C15">
-        <v>23.71438219004465</v>
+        <v>9.97337054679239</v>
       </c>
       <c r="D15">
-        <v>6.394674964362923</v>
+        <v>5.825187846478124</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>13.40927532528132</v>
+        <v>18.99354516577027</v>
       </c>
       <c r="G15">
-        <v>2.049094286920452</v>
+        <v>20.029369004992</v>
+      </c>
+      <c r="H15">
+        <v>7.144878883014711</v>
       </c>
       <c r="I15">
-        <v>4.049301864210974</v>
+        <v>3.312376424242199</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.878571186940965</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.43344251878493</v>
+      </c>
+      <c r="L15">
+        <v>6.62036592732971</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.84712121324935</v>
+      </c>
+      <c r="N15">
+        <v>5.675675105844666</v>
+      </c>
+      <c r="O15">
+        <v>9.792915158503153</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.196056459645943</v>
+        <v>14.0251652727298</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -959,37 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.0103560442967</v>
+        <v>15.44944408050802</v>
       </c>
       <c r="C16">
-        <v>23.04718615958642</v>
+        <v>9.823322765176441</v>
       </c>
       <c r="D16">
-        <v>6.236602630188007</v>
+        <v>5.758762077454203</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>13.21433231638923</v>
+        <v>19.09519560678295</v>
       </c>
       <c r="G16">
-        <v>2.052315720833751</v>
+        <v>20.19771352391103</v>
+      </c>
+      <c r="H16">
+        <v>6.966609503768143</v>
       </c>
       <c r="I16">
-        <v>3.918263667120823</v>
+        <v>3.400142185294897</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.952985679517857</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.59099680140872</v>
+      </c>
+      <c r="L16">
+        <v>6.592881229962331</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.47998909011915</v>
+      </c>
+      <c r="N16">
+        <v>5.676492895609873</v>
+      </c>
+      <c r="O16">
+        <v>9.617674028245515</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.263116517923597</v>
+        <v>14.15362641536466</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -997,37 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.39792772792876</v>
+        <v>15.1537800582353</v>
       </c>
       <c r="C17">
-        <v>22.62970615923267</v>
+        <v>9.627206851242887</v>
       </c>
       <c r="D17">
-        <v>6.137877505585496</v>
+        <v>5.838305384506181</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>13.10203914420649</v>
+        <v>19.43566992740323</v>
       </c>
       <c r="G17">
-        <v>2.054310099301877</v>
+        <v>20.65831009031737</v>
+      </c>
+      <c r="H17">
+        <v>6.293304378616062</v>
       </c>
       <c r="I17">
-        <v>3.837485020575172</v>
+        <v>3.44825274465492</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.055325670317236</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.79746217724086</v>
+      </c>
+      <c r="L17">
+        <v>6.529985435763419</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.20296687556152</v>
+      </c>
+      <c r="N17">
+        <v>5.816788423002024</v>
+      </c>
+      <c r="O17">
+        <v>9.665054958079336</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.311545787828495</v>
+        <v>14.37518456878865</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1035,37 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.04034465329137</v>
+        <v>15.00689626250176</v>
       </c>
       <c r="C18">
-        <v>22.34973559939036</v>
+        <v>9.369205046357957</v>
       </c>
       <c r="D18">
-        <v>6.073078769751543</v>
+        <v>6.052882847396114</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>13.07365788302978</v>
+        <v>20.0404482952951</v>
       </c>
       <c r="G18">
-        <v>2.055454222181956</v>
+        <v>21.45354498300118</v>
+      </c>
+      <c r="H18">
+        <v>5.167290127118762</v>
       </c>
       <c r="I18">
-        <v>3.788375503269076</v>
+        <v>3.456848775166329</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.198589523806062</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.08977105680083</v>
+      </c>
+      <c r="L18">
+        <v>6.462185790786743</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.97387521451595</v>
+      </c>
+      <c r="N18">
+        <v>6.117466441470848</v>
+      </c>
+      <c r="O18">
+        <v>9.909019080031937</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.366448366605903</v>
+        <v>14.7154980294998</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1073,37 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.91803709798217</v>
+        <v>14.98261240352871</v>
       </c>
       <c r="C19">
-        <v>22.28278822665724</v>
+        <v>9.126000016686222</v>
       </c>
       <c r="D19">
-        <v>6.056708650161928</v>
+        <v>6.362489824999031</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>13.03865494327525</v>
+        <v>20.79564717837394</v>
       </c>
       <c r="G19">
-        <v>2.055850407708506</v>
+        <v>22.42686556252287</v>
+      </c>
+      <c r="H19">
+        <v>3.913031958906456</v>
       </c>
       <c r="I19">
-        <v>3.773577769615472</v>
+        <v>3.448075875205965</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.359658011398862</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.4298519425748</v>
+      </c>
+      <c r="L19">
+        <v>6.445126457788907</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.81298589173415</v>
+      </c>
+      <c r="N19">
+        <v>6.562676752634451</v>
+      </c>
+      <c r="O19">
+        <v>10.29001471810814</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9.366545054533692</v>
+        <v>15.11511350781374</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1111,37 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.46373399999934</v>
+        <v>15.32143842829907</v>
       </c>
       <c r="C20">
-        <v>22.67159728157691</v>
+        <v>8.885016484193027</v>
       </c>
       <c r="D20">
-        <v>6.147879369903306</v>
+        <v>6.912987294348072</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>13.11633502915989</v>
+        <v>21.99533771049951</v>
       </c>
       <c r="G20">
-        <v>2.054096327992672</v>
+        <v>23.94896976578768</v>
+      </c>
+      <c r="H20">
+        <v>2.777777962571093</v>
       </c>
       <c r="I20">
-        <v>3.845899825266375</v>
+        <v>3.360636798369804</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.579345916995404</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.92054573011391</v>
+      </c>
+      <c r="L20">
+        <v>6.556321688821192</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.83966340947227</v>
+      </c>
+      <c r="N20">
+        <v>7.355260159703021</v>
+      </c>
+      <c r="O20">
+        <v>11.02485934442413</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9.308051498185465</v>
+        <v>15.70281976245166</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1149,37 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22996165241411</v>
+        <v>16.2284935511114</v>
       </c>
       <c r="C21">
-        <v>23.90711366645766</v>
+        <v>9.038606990917717</v>
       </c>
       <c r="D21">
-        <v>6.439594274273031</v>
+        <v>7.193708486293156</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>13.44039644319587</v>
+        <v>22.25911728850465</v>
       </c>
       <c r="G21">
-        <v>2.048273914821479</v>
+        <v>24.22365430408552</v>
+      </c>
+      <c r="H21">
+        <v>2.551644268688608</v>
       </c>
       <c r="I21">
-        <v>4.084398083163364</v>
+        <v>3.197137453098701</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.539365541163152</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.84023073469779</v>
+      </c>
+      <c r="L21">
+        <v>6.600802763230313</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.45572990582546</v>
+      </c>
+      <c r="N21">
+        <v>7.605374082431131</v>
+      </c>
+      <c r="O21">
+        <v>11.53258888774472</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9.164710717969951</v>
+        <v>15.71096380121267</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1187,37 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.33475555212598</v>
+        <v>16.79802882162828</v>
       </c>
       <c r="C22">
-        <v>24.63857118961131</v>
+        <v>9.138372365537331</v>
       </c>
       <c r="D22">
-        <v>6.614498155966358</v>
+        <v>7.349408821000883</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>13.72219132991699</v>
+        <v>22.40516679708816</v>
       </c>
       <c r="G22">
-        <v>2.044512503741833</v>
+        <v>24.38045574427969</v>
+      </c>
+      <c r="H22">
+        <v>2.418107167515086</v>
       </c>
       <c r="I22">
-        <v>4.236099864775229</v>
+        <v>3.084187597665773</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.510414385107826</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.78131902184532</v>
+      </c>
+      <c r="L22">
+        <v>6.622404957475679</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.84605327648733</v>
+      </c>
+      <c r="N22">
+        <v>7.725819720696697</v>
+      </c>
+      <c r="O22">
+        <v>11.82623395462562</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9.131711481491791</v>
+        <v>15.70841836396323</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1225,37 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.75007127485545</v>
+        <v>16.50276731300199</v>
       </c>
       <c r="C23">
-        <v>24.2042969633457</v>
+        <v>9.073570132042338</v>
       </c>
       <c r="D23">
-        <v>6.512296390881469</v>
+        <v>7.265312870705933</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>13.61297576769999</v>
+        <v>22.34860799360774</v>
       </c>
       <c r="G23">
-        <v>2.046503180115379</v>
+        <v>24.33182815410648</v>
+      </c>
+      <c r="H23">
+        <v>2.488340681198983</v>
       </c>
       <c r="I23">
-        <v>4.152858098330267</v>
+        <v>3.133511706174215</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.531677058750354</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.82812695926396</v>
+      </c>
+      <c r="L23">
+        <v>6.612515011649914</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.63447940616198</v>
+      </c>
+      <c r="N23">
+        <v>7.657822083416697</v>
+      </c>
+      <c r="O23">
+        <v>11.6696750750843</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9.180219962713023</v>
+        <v>15.72431283621013</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1263,37 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43471007114272</v>
+        <v>15.32098777392025</v>
       </c>
       <c r="C24">
-        <v>22.57552183139464</v>
+        <v>8.844411900761269</v>
       </c>
       <c r="D24">
-        <v>6.127888728196136</v>
+        <v>6.941884378866145</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>13.18048988028064</v>
+        <v>22.11408189976184</v>
       </c>
       <c r="G24">
-        <v>2.054172278923447</v>
+        <v>24.11504398184109</v>
+      </c>
+      <c r="H24">
+        <v>2.76170764669321</v>
       </c>
       <c r="I24">
-        <v>3.837629260715437</v>
+        <v>3.343502175853013</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.607911130334507</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.9883937680714</v>
+      </c>
+      <c r="L24">
+        <v>6.571389202962828</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.80966983434713</v>
+      </c>
+      <c r="N24">
+        <v>7.402650433102258</v>
+      </c>
+      <c r="O24">
+        <v>11.05920520081095</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9.36166169825445</v>
+        <v>15.77288008333113</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1301,37 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.72035304269055</v>
+        <v>13.9310915401437</v>
       </c>
       <c r="C25">
-        <v>20.69415554653931</v>
+        <v>8.591260609108252</v>
       </c>
       <c r="D25">
-        <v>5.687195642255703</v>
+        <v>6.579394155326493</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>12.8203726208852</v>
+        <v>21.8939933850839</v>
       </c>
       <c r="G25">
-        <v>2.062706514262684</v>
+        <v>23.9353671045451</v>
+      </c>
+      <c r="H25">
+        <v>3.070186725868685</v>
       </c>
       <c r="I25">
-        <v>3.489586375791201</v>
+        <v>3.582834925539094</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.70168024835807</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.17938098449507</v>
+      </c>
+      <c r="L25">
+        <v>6.524611609466195</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.85491422080991</v>
+      </c>
+      <c r="N25">
+        <v>7.119916137900403</v>
+      </c>
+      <c r="O25">
+        <v>10.36304140823213</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9.653978804612695</v>
+        <v>15.85178167290457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.82654804784184</v>
+        <v>12.82410551515043</v>
       </c>
       <c r="C2">
-        <v>8.371298315615682</v>
+        <v>7.998864469596201</v>
       </c>
       <c r="D2">
-        <v>6.298827022480269</v>
+        <v>6.345526202130481</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.81536373552344</v>
+        <v>21.24101533281253</v>
       </c>
       <c r="G2">
-        <v>23.93811350371559</v>
+        <v>22.66145616364279</v>
       </c>
       <c r="H2">
-        <v>3.307306745292014</v>
+        <v>3.17531171528156</v>
       </c>
       <c r="I2">
-        <v>3.746530772850477</v>
+        <v>3.569712368694976</v>
       </c>
       <c r="J2">
-        <v>9.795091956988914</v>
+        <v>9.798099760748952</v>
       </c>
       <c r="K2">
-        <v>16.37341171899</v>
+        <v>15.76163890405612</v>
       </c>
       <c r="L2">
-        <v>6.492308764494754</v>
+        <v>12.51665733824921</v>
       </c>
       <c r="M2">
-        <v>11.08438403566629</v>
+        <v>10.74933368779899</v>
       </c>
       <c r="N2">
-        <v>6.896048558410669</v>
+        <v>6.424701065482092</v>
       </c>
       <c r="O2">
-        <v>9.818528862557343</v>
+        <v>11.17282550020283</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.088690372979377</v>
       </c>
       <c r="Q2">
-        <v>15.9684662185562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.814859583360864</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.52015446206959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.00529728400475</v>
+        <v>12.02793828161643</v>
       </c>
       <c r="C3">
-        <v>8.23547631697971</v>
+        <v>7.800957153653368</v>
       </c>
       <c r="D3">
-        <v>6.105458867501209</v>
+        <v>6.152268749837973</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.74655584083742</v>
+        <v>21.20704064355005</v>
       </c>
       <c r="G3">
-        <v>23.91313936294618</v>
+        <v>22.73850445193994</v>
       </c>
       <c r="H3">
-        <v>3.477064652019621</v>
+        <v>3.334928427341648</v>
       </c>
       <c r="I3">
-        <v>3.877412805559021</v>
+        <v>3.687167266502076</v>
       </c>
       <c r="J3">
-        <v>9.855406747405487</v>
+        <v>9.833444417932366</v>
       </c>
       <c r="K3">
-        <v>16.49139829613075</v>
+        <v>15.89583474307125</v>
       </c>
       <c r="L3">
-        <v>6.466633196279009</v>
+        <v>12.67264405154574</v>
       </c>
       <c r="M3">
-        <v>10.53660873726242</v>
+        <v>10.83633544607361</v>
       </c>
       <c r="N3">
-        <v>6.747334187537319</v>
+        <v>6.402209705037196</v>
       </c>
       <c r="O3">
-        <v>9.433700681122541</v>
+        <v>10.61414734389986</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.939193881647837</v>
       </c>
       <c r="Q3">
-        <v>16.03840947789464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.425265937520392</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.60978823314505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.46970723161125</v>
+        <v>11.50907186021793</v>
       </c>
       <c r="C4">
-        <v>8.151038451319673</v>
+        <v>7.67829372327714</v>
       </c>
       <c r="D4">
-        <v>5.984602689576015</v>
+        <v>6.031643873781565</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.71118782586281</v>
+        <v>21.19200458497113</v>
       </c>
       <c r="G4">
-        <v>23.90811906059376</v>
+        <v>22.79697587611817</v>
       </c>
       <c r="H4">
-        <v>3.585293355060962</v>
+        <v>3.436715743679267</v>
       </c>
       <c r="I4">
-        <v>3.961521255723194</v>
+        <v>3.762912950836227</v>
       </c>
       <c r="J4">
-        <v>9.894854331694267</v>
+        <v>9.856211783349828</v>
       </c>
       <c r="K4">
-        <v>16.5673303707323</v>
+        <v>15.98083779989004</v>
       </c>
       <c r="L4">
-        <v>6.45008570306898</v>
+        <v>12.77126960242483</v>
       </c>
       <c r="M4">
-        <v>10.18488082026203</v>
+        <v>10.9042903025822</v>
       </c>
       <c r="N4">
-        <v>6.655059159227708</v>
+        <v>6.387662462773494</v>
       </c>
       <c r="O4">
-        <v>9.18979073040024</v>
+        <v>10.25556377586395</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.846799889486411</v>
       </c>
       <c r="Q4">
-        <v>16.08651367415604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.178118838163897</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.66909671636497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24132327415805</v>
+        <v>11.28788787450562</v>
       </c>
       <c r="C5">
-        <v>8.119264127016677</v>
+        <v>7.631627680865593</v>
       </c>
       <c r="D5">
-        <v>5.93528422796817</v>
+        <v>5.982460477645227</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.69250591060827</v>
+        <v>21.18142052056554</v>
       </c>
       <c r="G5">
-        <v>23.89890019342504</v>
+        <v>22.81397739421423</v>
       </c>
       <c r="H5">
-        <v>3.630676230839613</v>
+        <v>3.479413255242784</v>
       </c>
       <c r="I5">
-        <v>3.999167445246989</v>
+        <v>3.797539978471529</v>
       </c>
       <c r="J5">
-        <v>9.909939788996494</v>
+        <v>9.864145126404845</v>
       </c>
       <c r="K5">
-        <v>16.59504478996723</v>
+        <v>16.01217164642622</v>
       </c>
       <c r="L5">
-        <v>6.442658636231477</v>
+        <v>12.8080961145496</v>
       </c>
       <c r="M5">
-        <v>10.03925963722219</v>
+        <v>10.93370451215598</v>
       </c>
       <c r="N5">
-        <v>6.618361747648066</v>
+        <v>6.381086438630884</v>
       </c>
       <c r="O5">
-        <v>9.088847500042561</v>
+        <v>10.10711184172119</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.810120228369038</v>
       </c>
       <c r="Q5">
-        <v>16.10342654702052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.075776792834937</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.69043360906731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.20018263644332</v>
+        <v>11.24800898076122</v>
       </c>
       <c r="C6">
-        <v>8.117543270066674</v>
+        <v>7.628275629723298</v>
       </c>
       <c r="D6">
-        <v>5.927560755379779</v>
+        <v>5.974758768972918</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.68219815731505</v>
+        <v>21.17254451207206</v>
       </c>
       <c r="G6">
-        <v>23.88566635519101</v>
+        <v>22.80532319782814</v>
       </c>
       <c r="H6">
-        <v>3.638594376913969</v>
+        <v>3.486875466657045</v>
       </c>
       <c r="I6">
-        <v>4.00857611971134</v>
+        <v>3.806997200885648</v>
       </c>
       <c r="J6">
-        <v>9.910539038243456</v>
+        <v>9.863509954692042</v>
       </c>
       <c r="K6">
-        <v>16.59469759259862</v>
+        <v>16.01258423048209</v>
       </c>
       <c r="L6">
-        <v>6.440820697121423</v>
+        <v>12.80927719438999</v>
       </c>
       <c r="M6">
-        <v>10.0166688438189</v>
+        <v>10.93649452659934</v>
       </c>
       <c r="N6">
-        <v>6.613621439294269</v>
+        <v>6.379421016595487</v>
       </c>
       <c r="O6">
-        <v>9.072286763939291</v>
+        <v>10.08404057308913</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.805354513707809</v>
       </c>
       <c r="Q6">
-        <v>16.10147411688008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.058975715707376</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.68929792850592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.45934878732882</v>
+        <v>11.49965938064041</v>
       </c>
       <c r="C7">
-        <v>8.160368293719147</v>
+        <v>7.687140155031856</v>
       </c>
       <c r="D7">
-        <v>5.985270464654705</v>
+        <v>6.035446784222872</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.69103512298606</v>
+        <v>21.16182559895618</v>
       </c>
       <c r="G7">
-        <v>23.8756806417803</v>
+        <v>22.82315179775518</v>
       </c>
       <c r="H7">
-        <v>3.586759217536274</v>
+        <v>3.438561754215837</v>
       </c>
       <c r="I7">
-        <v>3.970211882081841</v>
+        <v>3.773439880779549</v>
       </c>
       <c r="J7">
-        <v>9.889767078149331</v>
+        <v>9.824098798226963</v>
       </c>
       <c r="K7">
-        <v>16.55406536624704</v>
+        <v>15.9630936822448</v>
       </c>
       <c r="L7">
-        <v>6.448388472979094</v>
+        <v>12.75350563221654</v>
       </c>
       <c r="M7">
-        <v>10.18781985347604</v>
+        <v>10.89545617143418</v>
       </c>
       <c r="N7">
-        <v>6.658266860788655</v>
+        <v>6.385725475542624</v>
       </c>
       <c r="O7">
-        <v>9.189253075046908</v>
+        <v>10.25723623827932</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.849909412620311</v>
       </c>
       <c r="Q7">
-        <v>16.07355308508615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.178026328000149</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.64902556404765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.54094675902676</v>
+        <v>12.54929638219876</v>
       </c>
       <c r="C8">
-        <v>8.337668554364818</v>
+        <v>7.938601175177137</v>
       </c>
       <c r="D8">
-        <v>6.234331693612314</v>
+        <v>6.291137147448802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.76419523425427</v>
+        <v>21.16832703092453</v>
       </c>
       <c r="G8">
-        <v>23.88495554836365</v>
+        <v>22.83743898103087</v>
       </c>
       <c r="H8">
-        <v>3.36607422828899</v>
+        <v>3.231931670559141</v>
       </c>
       <c r="I8">
-        <v>3.801224628197413</v>
+        <v>3.622956544896026</v>
       </c>
       <c r="J8">
-        <v>9.80844703223611</v>
+        <v>9.715952155083468</v>
       </c>
       <c r="K8">
-        <v>16.39544050237205</v>
+        <v>15.77387357092046</v>
       </c>
       <c r="L8">
-        <v>6.481593143729722</v>
+        <v>12.53903903983684</v>
       </c>
       <c r="M8">
-        <v>10.90492748682406</v>
+        <v>10.7560945795762</v>
       </c>
       <c r="N8">
-        <v>6.849773578845117</v>
+        <v>6.414166146724909</v>
       </c>
       <c r="O8">
-        <v>9.688491300952006</v>
+        <v>10.9859132303056</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.041964765673489</v>
       </c>
       <c r="Q8">
-        <v>15.97416920864105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.684692646530076</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.50875466447296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.42544425680382</v>
+        <v>14.37814845673959</v>
       </c>
       <c r="C9">
-        <v>8.659577525407212</v>
+        <v>8.409139716929307</v>
       </c>
       <c r="D9">
-        <v>6.701020995976351</v>
+        <v>6.760372335651723</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.99827016881652</v>
+        <v>21.30103656554211</v>
       </c>
       <c r="G9">
-        <v>24.04529317489435</v>
+        <v>22.80266026775758</v>
       </c>
       <c r="H9">
-        <v>2.963129833678333</v>
+        <v>2.853358100591615</v>
       </c>
       <c r="I9">
-        <v>3.485905666872854</v>
+        <v>3.339147867751201</v>
       </c>
       <c r="J9">
-        <v>9.677892601935957</v>
+        <v>9.616302422907806</v>
       </c>
       <c r="K9">
-        <v>16.13678063331597</v>
+        <v>15.46491194964678</v>
       </c>
       <c r="L9">
-        <v>6.543263869592477</v>
+        <v>12.17995114003827</v>
       </c>
       <c r="M9">
-        <v>12.17739885590471</v>
+        <v>10.62364889346444</v>
       </c>
       <c r="N9">
-        <v>7.209859789682365</v>
+        <v>6.467906155484986</v>
       </c>
       <c r="O9">
-        <v>10.60117479343848</v>
+        <v>12.28384005390103</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.405985681311697</v>
       </c>
       <c r="Q9">
-        <v>15.84504014062154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.60770311795396</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.31859766535859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.651134379572</v>
+        <v>15.5740438329235</v>
       </c>
       <c r="C10">
-        <v>8.920911489683171</v>
+        <v>8.76612788631895</v>
       </c>
       <c r="D10">
-        <v>6.984991350557221</v>
+        <v>7.062198065867352</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.08420872098426</v>
+        <v>21.26026651273495</v>
       </c>
       <c r="G10">
-        <v>24.05970643481795</v>
+        <v>23.03918044099592</v>
       </c>
       <c r="H10">
-        <v>2.710696954220417</v>
+        <v>2.619725397954757</v>
       </c>
       <c r="I10">
-        <v>3.280609590758042</v>
+        <v>3.15892463122187</v>
       </c>
       <c r="J10">
-        <v>9.568486017278435</v>
+        <v>9.383662309554429</v>
       </c>
       <c r="K10">
-        <v>15.9044347991307</v>
+        <v>15.17240054206231</v>
       </c>
       <c r="L10">
-        <v>6.567475357777865</v>
+        <v>11.8731328290934</v>
       </c>
       <c r="M10">
-        <v>13.04940410420959</v>
+        <v>10.53570398034832</v>
       </c>
       <c r="N10">
-        <v>7.396729783696003</v>
+        <v>6.487543040454486</v>
       </c>
       <c r="O10">
-        <v>11.17247186078091</v>
+        <v>13.16616041197877</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.595698742483082</v>
       </c>
       <c r="Q10">
-        <v>15.71251498247165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.18670263344999</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.10171956252822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.11995562193669</v>
+        <v>16.05605077014421</v>
       </c>
       <c r="C11">
-        <v>9.295980019959021</v>
+        <v>9.167990920900362</v>
       </c>
       <c r="D11">
-        <v>6.72912571082438</v>
+        <v>6.835781846800877</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.13941950518103</v>
+        <v>20.25058597798524</v>
       </c>
       <c r="G11">
-        <v>22.79051978925086</v>
+        <v>22.56083668828784</v>
       </c>
       <c r="H11">
-        <v>3.453367065638046</v>
+        <v>3.388721163050194</v>
       </c>
       <c r="I11">
-        <v>3.238447773608862</v>
+        <v>3.130178552336413</v>
       </c>
       <c r="J11">
-        <v>9.311951917018263</v>
+        <v>8.929375011579717</v>
       </c>
       <c r="K11">
-        <v>15.33065741084902</v>
+        <v>14.61004463772181</v>
       </c>
       <c r="L11">
-        <v>6.483182879292859</v>
+        <v>11.44541024230592</v>
       </c>
       <c r="M11">
-        <v>13.5671228972061</v>
+        <v>10.14121774452675</v>
       </c>
       <c r="N11">
-        <v>6.882223705702409</v>
+        <v>6.420081267604341</v>
       </c>
       <c r="O11">
-        <v>10.94990058636559</v>
+        <v>13.66559484846769</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.06916869208308</v>
       </c>
       <c r="Q11">
-        <v>15.12976520725343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.96734117683734</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.47724008389573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.27614635483237</v>
+        <v>16.22741735076202</v>
       </c>
       <c r="C12">
-        <v>9.571597742980567</v>
+        <v>9.440615137171703</v>
       </c>
       <c r="D12">
-        <v>6.449457235362202</v>
+        <v>6.566500212870323</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.35230759104306</v>
+        <v>19.47587671787799</v>
       </c>
       <c r="G12">
-        <v>21.76191587848855</v>
+        <v>21.91525369285726</v>
       </c>
       <c r="H12">
-        <v>4.643182251348978</v>
+        <v>4.596151498212564</v>
       </c>
       <c r="I12">
-        <v>3.227552573456639</v>
+        <v>3.121830343978439</v>
       </c>
       <c r="J12">
-        <v>9.127468683085864</v>
+        <v>8.721187541394279</v>
       </c>
       <c r="K12">
-        <v>14.93253719424344</v>
+        <v>14.25422093375844</v>
       </c>
       <c r="L12">
-        <v>6.479225797279963</v>
+        <v>11.20162813222444</v>
       </c>
       <c r="M12">
-        <v>13.82307024212031</v>
+        <v>9.85764279673888</v>
       </c>
       <c r="N12">
-        <v>6.430585804432348</v>
+        <v>6.430638922641263</v>
       </c>
       <c r="O12">
-        <v>10.63598419323319</v>
+        <v>13.90672386974899</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.606248703492039</v>
       </c>
       <c r="Q12">
-        <v>14.6876809333708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.65336753820657</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.04789320318515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19814256540185</v>
+        <v>16.16595077506024</v>
       </c>
       <c r="C13">
-        <v>9.800198248552928</v>
+        <v>9.656714726696416</v>
       </c>
       <c r="D13">
-        <v>6.131869352443098</v>
+        <v>6.239085682398715</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.60946154784427</v>
+        <v>18.82489214186575</v>
       </c>
       <c r="G13">
-        <v>20.80826941532081</v>
+        <v>20.90231494464023</v>
       </c>
       <c r="H13">
-        <v>5.959303875173553</v>
+        <v>5.920800742886013</v>
       </c>
       <c r="I13">
-        <v>3.253542029418234</v>
+        <v>3.144098517665324</v>
       </c>
       <c r="J13">
-        <v>8.979803125511742</v>
+        <v>8.664187825871666</v>
       </c>
       <c r="K13">
-        <v>14.62778574351303</v>
+        <v>14.02136301219111</v>
       </c>
       <c r="L13">
-        <v>6.531666334982339</v>
+        <v>11.05579974994236</v>
       </c>
       <c r="M13">
-        <v>13.90570432248658</v>
+        <v>9.642965777844241</v>
       </c>
       <c r="N13">
-        <v>6.008675330144618</v>
+        <v>6.495708899856166</v>
       </c>
       <c r="O13">
-        <v>10.22703406642413</v>
+        <v>13.97816791812532</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.173448918623948</v>
       </c>
       <c r="Q13">
-        <v>14.30864658862026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.24082812906375</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.73641250520161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.03489068029869</v>
+        <v>16.01519187221924</v>
       </c>
       <c r="C14">
-        <v>9.945695839623209</v>
+        <v>9.789672733413019</v>
       </c>
       <c r="D14">
-        <v>5.891362003260305</v>
+        <v>5.983377337068263</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.11055240109639</v>
+        <v>18.42069329697298</v>
       </c>
       <c r="G14">
-        <v>20.17557263705078</v>
+        <v>20.04996400955391</v>
       </c>
       <c r="H14">
-        <v>6.918506145415404</v>
+        <v>6.883185860132612</v>
       </c>
       <c r="I14">
-        <v>3.291018924720569</v>
+        <v>3.176703526732374</v>
       </c>
       <c r="J14">
-        <v>8.893299625418315</v>
+        <v>8.675069289961462</v>
       </c>
       <c r="K14">
-        <v>14.45960963765783</v>
+        <v>13.91118222292728</v>
       </c>
       <c r="L14">
-        <v>6.60097724607096</v>
+        <v>10.99031260175919</v>
       </c>
       <c r="M14">
-        <v>13.88745161005199</v>
+        <v>9.52724550753152</v>
       </c>
       <c r="N14">
-        <v>5.737714929198182</v>
+        <v>6.572044726813394</v>
       </c>
       <c r="O14">
-        <v>9.89399954747987</v>
+        <v>13.95346801486771</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.895507479094286</v>
       </c>
       <c r="Q14">
-        <v>14.07278327064798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.903609837334947</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.56765457119675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.94200884760321</v>
+        <v>15.92583070008743</v>
       </c>
       <c r="C15">
-        <v>9.97337054679239</v>
+        <v>9.81389317694555</v>
       </c>
       <c r="D15">
-        <v>5.825187846478124</v>
+        <v>5.910090462389358</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.99354516577027</v>
+        <v>18.33953139969659</v>
       </c>
       <c r="G15">
-        <v>20.029369004992</v>
+        <v>19.78010009761489</v>
       </c>
       <c r="H15">
-        <v>7.144878883014711</v>
+        <v>7.109617881471578</v>
       </c>
       <c r="I15">
-        <v>3.312376424242199</v>
+        <v>3.196262560446792</v>
       </c>
       <c r="J15">
-        <v>8.878571186940965</v>
+        <v>8.69941402529804</v>
       </c>
       <c r="K15">
-        <v>14.43344251878493</v>
+        <v>13.9027921762474</v>
       </c>
       <c r="L15">
-        <v>6.62036592732971</v>
+        <v>10.98623901964296</v>
       </c>
       <c r="M15">
-        <v>13.84712121324935</v>
+        <v>9.51113332759604</v>
       </c>
       <c r="N15">
-        <v>5.675675105844666</v>
+        <v>6.592810488879042</v>
       </c>
       <c r="O15">
-        <v>9.792915158503153</v>
+        <v>13.91221563147568</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.832102552411976</v>
       </c>
       <c r="Q15">
-        <v>14.0251652727298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.8007754325879</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.54478989498162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.44944408050802</v>
+        <v>15.43797085201008</v>
       </c>
       <c r="C16">
-        <v>9.823322765176441</v>
+        <v>9.655100327532553</v>
       </c>
       <c r="D16">
-        <v>5.758762077454203</v>
+        <v>5.815629113021713</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.09519560678295</v>
+        <v>18.54801865417493</v>
       </c>
       <c r="G16">
-        <v>20.19771352391103</v>
+        <v>19.39445322639258</v>
       </c>
       <c r="H16">
-        <v>6.966609503768143</v>
+        <v>6.924854144439182</v>
       </c>
       <c r="I16">
-        <v>3.400142185294897</v>
+        <v>3.272324587446316</v>
       </c>
       <c r="J16">
-        <v>8.952985679517857</v>
+        <v>8.922572743355248</v>
       </c>
       <c r="K16">
-        <v>14.59099680140872</v>
+        <v>14.09182877185343</v>
       </c>
       <c r="L16">
-        <v>6.592881229962331</v>
+        <v>11.11318116866592</v>
       </c>
       <c r="M16">
-        <v>13.47998909011915</v>
+        <v>9.636679634578627</v>
       </c>
       <c r="N16">
-        <v>5.676492895609873</v>
+        <v>6.564057354072697</v>
       </c>
       <c r="O16">
-        <v>9.617674028245515</v>
+        <v>13.55063077686118</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.835844648943725</v>
       </c>
       <c r="Q16">
-        <v>14.15362641536466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.619360857649717</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.74366816549117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.1537800582353</v>
+        <v>15.14000764632797</v>
       </c>
       <c r="C17">
-        <v>9.627206851242887</v>
+        <v>9.453867167182482</v>
       </c>
       <c r="D17">
-        <v>5.838305384506181</v>
+        <v>5.885059838191223</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.43566992740323</v>
+        <v>18.91207734339401</v>
       </c>
       <c r="G17">
-        <v>20.65831009031737</v>
+        <v>19.61612942578924</v>
       </c>
       <c r="H17">
-        <v>6.293304378616062</v>
+        <v>6.243674315883846</v>
       </c>
       <c r="I17">
-        <v>3.44825274465492</v>
+        <v>3.314558610975979</v>
       </c>
       <c r="J17">
-        <v>9.055325670317236</v>
+        <v>9.088117628481237</v>
       </c>
       <c r="K17">
-        <v>14.79746217724086</v>
+        <v>14.29296073746322</v>
       </c>
       <c r="L17">
-        <v>6.529985435763419</v>
+        <v>11.25484024103764</v>
       </c>
       <c r="M17">
-        <v>13.20296687556152</v>
+        <v>9.784678683767419</v>
       </c>
       <c r="N17">
-        <v>5.816788423002024</v>
+        <v>6.497118796743829</v>
       </c>
       <c r="O17">
-        <v>9.665054958079336</v>
+        <v>13.28009745245851</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.981449581272699</v>
       </c>
       <c r="Q17">
-        <v>14.37518456878865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.664876924747166</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.97912786530509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.00689626250176</v>
+        <v>14.98297897617214</v>
       </c>
       <c r="C18">
-        <v>9.369205046357957</v>
+        <v>9.194507261317101</v>
       </c>
       <c r="D18">
-        <v>6.052882847396114</v>
+        <v>6.097768497162847</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.0404482952951</v>
+        <v>19.49126910779747</v>
       </c>
       <c r="G18">
-        <v>21.45354498300118</v>
+        <v>20.26655904186604</v>
       </c>
       <c r="H18">
-        <v>5.167290127118762</v>
+        <v>5.105477504847125</v>
       </c>
       <c r="I18">
-        <v>3.456848775166329</v>
+        <v>3.319588163777466</v>
       </c>
       <c r="J18">
-        <v>9.198589523806062</v>
+        <v>9.248265762318898</v>
       </c>
       <c r="K18">
-        <v>15.08977105680083</v>
+        <v>14.55345463066133</v>
       </c>
       <c r="L18">
-        <v>6.462185790786743</v>
+        <v>11.44679114206783</v>
       </c>
       <c r="M18">
-        <v>12.97387521451595</v>
+        <v>9.982816107558707</v>
       </c>
       <c r="N18">
-        <v>6.117466441470848</v>
+        <v>6.421408913952206</v>
       </c>
       <c r="O18">
-        <v>9.909019080031937</v>
+        <v>13.0608060832101</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.289963147668161</v>
       </c>
       <c r="Q18">
-        <v>14.7154980294998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.90983493728044</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.29992979463939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98261240352871</v>
+        <v>14.94273039869628</v>
       </c>
       <c r="C19">
-        <v>9.126000016686222</v>
+        <v>8.953295731511426</v>
       </c>
       <c r="D19">
-        <v>6.362489824999031</v>
+        <v>6.409996500092878</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.79564717837394</v>
+        <v>20.18975645949881</v>
       </c>
       <c r="G19">
-        <v>22.42686556252287</v>
+        <v>21.1297940724773</v>
       </c>
       <c r="H19">
-        <v>3.913031958906456</v>
+        <v>3.833120950738004</v>
       </c>
       <c r="I19">
-        <v>3.448075875205965</v>
+        <v>3.312851449011247</v>
       </c>
       <c r="J19">
-        <v>9.359658011398862</v>
+        <v>9.399585039030406</v>
       </c>
       <c r="K19">
-        <v>15.4298519425748</v>
+        <v>14.84348320892936</v>
       </c>
       <c r="L19">
-        <v>6.445126457788907</v>
+        <v>11.66487319166397</v>
       </c>
       <c r="M19">
-        <v>12.81298589173415</v>
+        <v>10.20664208668952</v>
       </c>
       <c r="N19">
-        <v>6.562676752634451</v>
+        <v>6.392166930828282</v>
       </c>
       <c r="O19">
-        <v>10.29001471810814</v>
+        <v>12.91204941434463</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.744807260860059</v>
       </c>
       <c r="Q19">
-        <v>15.11511350781374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.29366806006307</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.65891418079603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.32143842829907</v>
+        <v>15.2501524905342</v>
       </c>
       <c r="C20">
-        <v>8.885016484193027</v>
+        <v>8.721690406760654</v>
       </c>
       <c r="D20">
-        <v>6.912987294348072</v>
+        <v>6.975522851951366</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.99533771049951</v>
+        <v>21.24276462927223</v>
       </c>
       <c r="G20">
-        <v>23.94896976578768</v>
+        <v>22.65806494002011</v>
       </c>
       <c r="H20">
-        <v>2.777777962571093</v>
+        <v>2.680637908602103</v>
       </c>
       <c r="I20">
-        <v>3.360636798369804</v>
+        <v>3.236403318740181</v>
       </c>
       <c r="J20">
-        <v>9.579345916995404</v>
+        <v>9.516136821725212</v>
       </c>
       <c r="K20">
-        <v>15.92054573011391</v>
+        <v>15.22521800138638</v>
       </c>
       <c r="L20">
-        <v>6.556321688821192</v>
+        <v>11.93469681582212</v>
       </c>
       <c r="M20">
-        <v>12.83966340947227</v>
+        <v>10.53648446577443</v>
       </c>
       <c r="N20">
-        <v>7.355260159703021</v>
+        <v>6.478957593167388</v>
       </c>
       <c r="O20">
-        <v>11.02485934442413</v>
+        <v>12.95702704900042</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.553186687539136</v>
       </c>
       <c r="Q20">
-        <v>15.70281976245166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.03581379881404</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.14262268050734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.2284935511114</v>
+        <v>16.14286187681955</v>
       </c>
       <c r="C21">
-        <v>9.038606990917717</v>
+        <v>8.899016972221744</v>
       </c>
       <c r="D21">
-        <v>7.193708486293156</v>
+        <v>7.322976328629477</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.25911728850465</v>
+        <v>21.20381927040483</v>
       </c>
       <c r="G21">
-        <v>24.22365430408552</v>
+        <v>24.24832532783861</v>
       </c>
       <c r="H21">
-        <v>2.551644268688608</v>
+        <v>2.474500000877095</v>
       </c>
       <c r="I21">
-        <v>3.197137453098701</v>
+        <v>3.097404016305772</v>
       </c>
       <c r="J21">
-        <v>9.539365541163152</v>
+        <v>8.970058739167037</v>
       </c>
       <c r="K21">
-        <v>15.84023073469779</v>
+        <v>14.99266386661573</v>
       </c>
       <c r="L21">
-        <v>6.600802763230313</v>
+        <v>11.70249923374677</v>
       </c>
       <c r="M21">
-        <v>13.45572990582546</v>
+        <v>10.47527599621763</v>
       </c>
       <c r="N21">
-        <v>7.605374082431131</v>
+        <v>6.511653741637609</v>
       </c>
       <c r="O21">
-        <v>11.53258888774472</v>
+        <v>13.56618898260444</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.808510053750932</v>
       </c>
       <c r="Q21">
-        <v>15.71096380121267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.55625106142415</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.93469198147536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.79802882162828</v>
+        <v>16.70551357856076</v>
       </c>
       <c r="C22">
-        <v>9.138372365537331</v>
+        <v>9.009989169012886</v>
       </c>
       <c r="D22">
-        <v>7.349408821000883</v>
+        <v>7.5255363211927</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.40516679708816</v>
+        <v>21.13941372692221</v>
       </c>
       <c r="G22">
-        <v>24.38045574427969</v>
+        <v>25.41791829947235</v>
       </c>
       <c r="H22">
-        <v>2.418107167515086</v>
+        <v>2.353610566536041</v>
       </c>
       <c r="I22">
-        <v>3.084187597665773</v>
+        <v>2.997780016020122</v>
       </c>
       <c r="J22">
-        <v>9.510414385107826</v>
+        <v>8.661064016511048</v>
       </c>
       <c r="K22">
-        <v>15.78131902184532</v>
+        <v>14.82779611096848</v>
       </c>
       <c r="L22">
-        <v>6.622404957475679</v>
+        <v>11.54702986168426</v>
       </c>
       <c r="M22">
-        <v>13.84605327648733</v>
+        <v>10.4322184723318</v>
       </c>
       <c r="N22">
-        <v>7.725819720696697</v>
+        <v>6.526738898286764</v>
       </c>
       <c r="O22">
-        <v>11.82623395462562</v>
+        <v>13.95061405252908</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.932017774604954</v>
       </c>
       <c r="Q22">
-        <v>15.70841836396323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.85789793146847</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.77972012170224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50276731300199</v>
+        <v>16.41227528909158</v>
       </c>
       <c r="C23">
-        <v>9.073570132042338</v>
+        <v>8.942433678413272</v>
       </c>
       <c r="D23">
-        <v>7.265312870705933</v>
+        <v>7.409141387288</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.34860799360774</v>
+        <v>21.22096634143121</v>
       </c>
       <c r="G23">
-        <v>24.33182815410648</v>
+        <v>24.65687164330194</v>
       </c>
       <c r="H23">
-        <v>2.488340681198983</v>
+        <v>2.416473673754315</v>
       </c>
       <c r="I23">
-        <v>3.133511706174215</v>
+        <v>3.037303856906007</v>
       </c>
       <c r="J23">
-        <v>9.531677058750354</v>
+        <v>8.864587986007876</v>
       </c>
       <c r="K23">
-        <v>15.82812695926396</v>
+        <v>14.94227081115156</v>
       </c>
       <c r="L23">
-        <v>6.612515011649914</v>
+        <v>11.64698427547798</v>
       </c>
       <c r="M23">
-        <v>13.63447940616198</v>
+        <v>10.4774106950947</v>
       </c>
       <c r="N23">
-        <v>7.657822083416697</v>
+        <v>6.520712690475785</v>
       </c>
       <c r="O23">
-        <v>11.6696750750843</v>
+        <v>13.7444172323547</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.862345524343358</v>
       </c>
       <c r="Q23">
-        <v>15.72431283621013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.69620982772105</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.89564853762279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32098777392025</v>
+        <v>15.24804072207754</v>
       </c>
       <c r="C24">
-        <v>8.844411900761269</v>
+        <v>8.67449789523412</v>
       </c>
       <c r="D24">
-        <v>6.941884378866145</v>
+        <v>7.004312821936004</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.11408189976184</v>
+        <v>21.35586651656724</v>
       </c>
       <c r="G24">
-        <v>24.11504398184109</v>
+        <v>22.80377273402402</v>
       </c>
       <c r="H24">
-        <v>2.76170764669321</v>
+        <v>2.664428281758768</v>
       </c>
       <c r="I24">
-        <v>3.343502175853013</v>
+        <v>3.216067531247001</v>
       </c>
       <c r="J24">
-        <v>9.607911130334507</v>
+        <v>9.545848822401926</v>
       </c>
       <c r="K24">
-        <v>15.9883937680714</v>
+        <v>15.28584073535614</v>
       </c>
       <c r="L24">
-        <v>6.571389202962828</v>
+        <v>11.98061608725178</v>
       </c>
       <c r="M24">
-        <v>12.80966983434713</v>
+        <v>10.58272930417685</v>
       </c>
       <c r="N24">
-        <v>7.402650433102258</v>
+        <v>6.492046569846491</v>
       </c>
       <c r="O24">
-        <v>11.05920520081095</v>
+        <v>12.92825124785909</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.601751916651896</v>
       </c>
       <c r="Q24">
-        <v>15.77288008333113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.07037111075794</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.20816133185316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.9310915401437</v>
+        <v>13.89712934003547</v>
       </c>
       <c r="C25">
-        <v>8.591260609108252</v>
+        <v>8.309034775903159</v>
       </c>
       <c r="D25">
-        <v>6.579394155326493</v>
+        <v>6.633801578224813</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.8939933850839</v>
+        <v>21.24034289586886</v>
       </c>
       <c r="G25">
-        <v>23.9353671045451</v>
+        <v>22.66156637664889</v>
       </c>
       <c r="H25">
-        <v>3.070186725868685</v>
+        <v>2.953431125880394</v>
       </c>
       <c r="I25">
-        <v>3.582834925539094</v>
+        <v>3.42986008394802</v>
       </c>
       <c r="J25">
-        <v>9.70168024835807</v>
+        <v>9.670118889323785</v>
       </c>
       <c r="K25">
-        <v>16.17938098449507</v>
+        <v>15.53046833632356</v>
       </c>
       <c r="L25">
-        <v>6.524611609466195</v>
+        <v>12.26186382556076</v>
       </c>
       <c r="M25">
-        <v>11.85491422080991</v>
+        <v>10.63541595135418</v>
       </c>
       <c r="N25">
-        <v>7.119916137900403</v>
+        <v>6.451976944118597</v>
       </c>
       <c r="O25">
-        <v>10.36304140823213</v>
+        <v>11.95612836667872</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.314605176965326</v>
       </c>
       <c r="Q25">
-        <v>15.85178167290457</v>
+        <v>10.36646207968049</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.35399003803503</v>
       </c>
     </row>
   </sheetData>
